--- a/outputs/ML_Results/dist_commute/Berlin.xlsx
+++ b/outputs/ML_Results/dist_commute/Berlin.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ44047998" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ44777754" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ45529617" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ46259412" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ47021097" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ47754736" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ48531934" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ49293839" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ50136132" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ40133527" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ40863691" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ41665455" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ42415121" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ43173716" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ43948294" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ44722097" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ45492432" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ46281449" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -501,7 +501,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown]</t>
+          <t>Education[T.Unknown/Other]</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -745,7 +745,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown]</t>
+          <t>Education[T.Unknown/Other]</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -989,7 +989,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown]</t>
+          <t>Education[T.Unknown/Other]</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -1233,7 +1233,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown]</t>
+          <t>Education[T.Unknown/Other]</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -1477,7 +1477,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown]</t>
+          <t>Education[T.Unknown/Other]</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -1721,7 +1721,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown]</t>
+          <t>Education[T.Unknown/Other]</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -1965,7 +1965,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown]</t>
+          <t>Education[T.Unknown/Other]</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -2209,7 +2209,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown]</t>
+          <t>Education[T.Unknown/Other]</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -2453,7 +2453,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown]</t>
+          <t>Education[T.Unknown/Other]</t>
         </is>
       </c>
       <c r="B5" t="n">

--- a/outputs/ML_Results/dist_commute/Berlin.xlsx
+++ b/outputs/ML_Results/dist_commute/Berlin.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ40133527" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ40863691" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ41665455" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ42415121" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ43173716" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ43948294" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ44722097" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ45492432" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ46281449" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ29536305" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ30097336" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ30709137" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ31257904" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ31825661" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ32379183" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ32943600" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ33578192" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ34152988" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,205 +466,244 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9360.824267297618</v>
+        <v>8615.744493701804</v>
       </c>
       <c r="C2" t="n">
-        <v>1.494531094154461e-25</v>
+        <v>2.125371173889367e-24</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education[T.Secondary]</t>
+          <t>Education[T.Primary/None]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>588.6087961583808</v>
+        <v>-627.9508702055109</v>
       </c>
       <c r="C3" t="n">
-        <v>0.07940575980906818</v>
+        <v>0.1146031708674052</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Secondary]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>620.3914769795656</v>
+        <v>-200.076703764995</v>
       </c>
       <c r="C4" t="n">
-        <v>0.05542193267748062</v>
+        <v>0.5313126975616788</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>183.6062694657418</v>
+        <v>47.42938155274899</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7325786462195543</v>
+        <v>0.7318457679435845</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Season[T.Spring]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-68.22286750558359</v>
+        <v>-109.1390576782056</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1592025227569089</v>
+        <v>0.4520599776187583</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Season[T.Summer]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1334.772852879447</v>
+        <v>3.738630338087461</v>
       </c>
       <c r="C7" t="n">
-        <v>2.543648126626076e-34</v>
+        <v>0.9814120544043627</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>Season[T.Winter]</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-24.37771927012552</v>
+        <v>62.19715988411789</v>
       </c>
       <c r="C8" t="n">
-        <v>1.566507768086522e-06</v>
+        <v>0.6696796369842908</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>70.21785196035717</v>
+        <v>-68.1947203293083</v>
       </c>
       <c r="C9" t="n">
-        <v>0.06859494613238284</v>
+        <v>0.1595284879795326</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>639.502031637663</v>
+        <v>-1327.197989884121</v>
       </c>
       <c r="C10" t="n">
-        <v>1.573526021088187e-182</v>
+        <v>5.400985602640942e-34</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.03287283785090403</v>
+        <v>-24.80079946384163</v>
       </c>
       <c r="C11" t="n">
-        <v>0.09847298683145499</v>
+        <v>1.053224548096937e-06</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1.300460081177251e-05</v>
+        <v>71.39392503227299</v>
       </c>
       <c r="C12" t="n">
-        <v>0.678400353858718</v>
+        <v>0.06410379782752289</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-17.21870214307542</v>
+        <v>639.2491693698491</v>
       </c>
       <c r="C13" t="n">
-        <v>0.02566711772733367</v>
+        <v>3.51155502347245e-182</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-7.973673700753624</v>
+        <v>-0.03358217758785084</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0397452680463944</v>
+        <v>0.09154928862792104</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>52.99185106396317</v>
+        <v>-1.212559955552506e-05</v>
       </c>
       <c r="C15" t="n">
-        <v>0.944221979459175</v>
+        <v>0.6991837992567951</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>25.32935585365266</v>
+        <v>-17.39051690948888</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9536904233890223</v>
+        <v>0.02429329382402247</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>street_length_res</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-7.925438939866998</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.0409641780995532</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>49.51468668445159</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.9478840898998797</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>47.33970857695795</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.913637697027597</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>-3122.440047409634</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.002970428136565756</v>
+      <c r="B20" t="n">
+        <v>-3096.930172037885</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.003218089376862115</v>
       </c>
     </row>
   </sheetData>
@@ -678,7 +717,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -710,205 +749,244 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9101.511967286604</v>
+        <v>8683.450129293491</v>
       </c>
       <c r="C2" t="n">
-        <v>4.589288155370401e-24</v>
+        <v>1.494712333933632e-24</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education[T.Secondary]</t>
+          <t>Education[T.Primary/None]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1086.847501463395</v>
+        <v>-361.0469205321035</v>
       </c>
       <c r="C3" t="n">
-        <v>0.001355076546269602</v>
+        <v>0.3694579389863428</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Secondary]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1032.18257027073</v>
+        <v>-288.907895801201</v>
       </c>
       <c r="C4" t="n">
-        <v>0.001646036291038272</v>
+        <v>0.3592922320258104</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1184.25082049181</v>
+        <v>-8.6236632131764</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02798356730890117</v>
+        <v>0.9499567508996769</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Season[T.Spring]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-38.50395472959616</v>
+        <v>65.00511296858514</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4239464070433242</v>
+        <v>0.6518004557784085</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Season[T.Summer]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1344.466933272396</v>
+        <v>36.64959349619994</v>
       </c>
       <c r="C7" t="n">
-        <v>4.277299391205796e-35</v>
+        <v>0.8182125075521204</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>Season[T.Winter]</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-20.85963492083324</v>
+        <v>175.682269726226</v>
       </c>
       <c r="C8" t="n">
-        <v>3.902989156196284e-05</v>
+        <v>0.2269741913867915</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>108.1710527076419</v>
+        <v>-36.87857478059482</v>
       </c>
       <c r="C9" t="n">
-        <v>0.004629952375546877</v>
+        <v>0.4441036944477915</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>639.9941977301456</v>
+        <v>-1326.748788622367</v>
       </c>
       <c r="C10" t="n">
-        <v>2.105725963324738e-183</v>
+        <v>2.813262381429581e-34</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.02293278367536153</v>
+        <v>-21.51330238991028</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2474229368039831</v>
+        <v>2.276799466458129e-05</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1.756410301600927e-05</v>
+        <v>111.0853453692057</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5797491422235526</v>
+        <v>0.003650790910957478</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-25.13000310157902</v>
+        <v>640.8480317526796</v>
       </c>
       <c r="C13" t="n">
-        <v>0.001044232836060283</v>
+        <v>9.71275106119928e-184</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-10.54686441301082</v>
+        <v>-0.02364118484990374</v>
       </c>
       <c r="C14" t="n">
-        <v>0.006770032792974481</v>
+        <v>0.2333494679570254</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>474.8820286477926</v>
+        <v>-1.493919289669346e-05</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5313711909707687</v>
+        <v>0.6378690172079717</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3.646482525174406</v>
+        <v>-25.05698060951545</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9932872518186183</v>
+        <v>0.001087234849862768</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>street_length_res</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-10.30727582735412</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.008148984439376528</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>490.0479499620851</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.5185343251779556</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>13.21074523052641</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.9756982775259235</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>-2830.913228821012</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.007312522453329496</v>
+      <c r="B20" t="n">
+        <v>-2810.399560546204</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.00777161612089739</v>
       </c>
     </row>
   </sheetData>
@@ -922,7 +1000,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -954,205 +1032,244 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9425.614306243504</v>
+        <v>8968.248488635581</v>
       </c>
       <c r="C2" t="n">
-        <v>3.904869028665621e-26</v>
+        <v>1.674685146431559e-26</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education[T.Secondary]</t>
+          <t>Education[T.Primary/None]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>920.8876170914104</v>
+        <v>-506.864155450565</v>
       </c>
       <c r="C3" t="n">
-        <v>0.00586694519665653</v>
+        <v>0.2016820295918985</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Secondary]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>976.0972546987625</v>
+        <v>-321.4029962229469</v>
       </c>
       <c r="C4" t="n">
-        <v>0.002472122668937351</v>
+        <v>0.3136201219590375</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>666.9650491369765</v>
+        <v>91.67191068199483</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2159139674541083</v>
+        <v>0.5042429935450266</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Season[T.Spring]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-27.65854939096452</v>
+        <v>-80.88557821912283</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5639541021307574</v>
+        <v>0.5736819833561959</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Season[T.Summer]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1350.105314214587</v>
+        <v>-127.0815750766818</v>
       </c>
       <c r="C7" t="n">
-        <v>1.515912058388069e-35</v>
+        <v>0.423731613805903</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>Season[T.Winter]</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-23.47231561916507</v>
+        <v>-15.35626114365047</v>
       </c>
       <c r="C8" t="n">
-        <v>3.659367089573857e-06</v>
+        <v>0.9158693632328914</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>80.68923131435452</v>
+        <v>-27.73683303321791</v>
       </c>
       <c r="C9" t="n">
-        <v>0.03505254305016203</v>
+        <v>0.5630500953541842</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>642.4345328693511</v>
+        <v>-1336.54286720948</v>
       </c>
       <c r="C10" t="n">
-        <v>2.11097742013534e-186</v>
+        <v>6.144529744108191e-35</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.04478147734257498</v>
+        <v>-23.90877498741028</v>
       </c>
       <c r="C11" t="n">
-        <v>0.02241279242808759</v>
+        <v>2.464206026912567e-06</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>9.825066690911021e-06</v>
+        <v>82.38871100626187</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7502973172147607</v>
+        <v>0.03148157986666132</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-23.17451515957274</v>
+        <v>643.1149707245924</v>
       </c>
       <c r="C13" t="n">
-        <v>0.002523693280921103</v>
+        <v>1.49109578817212e-186</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-10.51315495100258</v>
+        <v>-0.04572916504667483</v>
       </c>
       <c r="C14" t="n">
-        <v>0.006224664129162377</v>
+        <v>0.01978011500810219</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-155.7270502315673</v>
+        <v>1.214251156105532e-05</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8356295376034877</v>
+        <v>0.6942788866418231</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>124.1136819114791</v>
+        <v>-23.1622070170839</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7749164997869341</v>
+        <v>0.002550445130775267</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>street_length_res</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-10.28082706144784</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.007473889901312926</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-166.3315892467399</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.8246812875171872</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>142.5244515982102</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.7428306922012042</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>-3924.939624053357</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.000170299337631679</v>
+      <c r="B20" t="n">
+        <v>-3902.292409667813</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.0001865640048103823</v>
       </c>
     </row>
   </sheetData>
@@ -1166,7 +1283,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1198,205 +1315,244 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8693.615624333062</v>
+        <v>8170.794525245381</v>
       </c>
       <c r="C2" t="n">
-        <v>3.275116495599873e-22</v>
+        <v>3.545758307557427e-22</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education[T.Secondary]</t>
+          <t>Education[T.Primary/None]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>731.3150828597397</v>
+        <v>-582.0936115294874</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03252766063528728</v>
+        <v>0.1435800699512929</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Secondary]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>822.5276010906581</v>
+        <v>-530.68071538544</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01296012924860544</v>
+        <v>0.09270582982596108</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.60563178635</v>
+        <v>72.64486937572586</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4307820688680973</v>
+        <v>0.5978607649062506</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Season[T.Spring]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-45.12349799309843</v>
+        <v>24.38494117664795</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3492403517014717</v>
+        <v>0.8658062722814852</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Season[T.Summer]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1246.742088192446</v>
+        <v>-42.32565190639681</v>
       </c>
       <c r="C7" t="n">
-        <v>2.01678098330286e-30</v>
+        <v>0.7906435235233973</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>Season[T.Winter]</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-17.60296745118865</v>
+        <v>25.4995566117486</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0005118448993772114</v>
+        <v>0.8602954778886683</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>65.46246223374453</v>
+        <v>-43.65748111100959</v>
       </c>
       <c r="C9" t="n">
-        <v>0.08766644828459989</v>
+        <v>0.3652878622098292</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>645.4884039373296</v>
+        <v>-1232.745336521267</v>
       </c>
       <c r="C10" t="n">
-        <v>3.431557411509916e-186</v>
+        <v>7.486509572490697e-30</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.03620689378030467</v>
+        <v>-18.26650705067813</v>
       </c>
       <c r="C11" t="n">
-        <v>0.06675485260352321</v>
+        <v>0.0003171406444963559</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.402201538409247e-05</v>
+        <v>68.29608896073398</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6538134253202348</v>
+        <v>0.0748089745159192</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-19.31568737391048</v>
+        <v>645.6266396640322</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01164722076960368</v>
+        <v>3.5157020207708e-186</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-7.489779681404077</v>
+        <v>-0.03696969097620019</v>
       </c>
       <c r="C14" t="n">
-        <v>0.05219394904296686</v>
+        <v>0.06130142953275322</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-243.3178675717618</v>
+        <v>1.594562526122649e-05</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7465354628898564</v>
+        <v>0.6102196308983421</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-181.6448304508348</v>
+        <v>-19.24164952423563</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6749298874528938</v>
+        <v>0.01201339191140978</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>street_length_res</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-7.362230142950185</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.05635777301594046</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-238.7969616022515</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.7511419217297275</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>-163.2748620579959</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.7063696573732461</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>-3169.133153129989</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.002514973219229415</v>
+      <c r="B20" t="n">
+        <v>-3173.027795697109</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.002487031143605859</v>
       </c>
     </row>
   </sheetData>
@@ -1410,7 +1566,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1442,205 +1598,244 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8255.198333723136</v>
+        <v>7930.333368268832</v>
       </c>
       <c r="C2" t="n">
-        <v>5.17196736511553e-20</v>
+        <v>8.678342730102076e-21</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education[T.Secondary]</t>
+          <t>Education[T.Primary/None]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>981.9893262246883</v>
+        <v>-622.8480726436673</v>
       </c>
       <c r="C3" t="n">
-        <v>0.003928102316517431</v>
+        <v>0.122234540318375</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Secondary]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1028.385393632915</v>
+        <v>-199.7332017537057</v>
       </c>
       <c r="C4" t="n">
-        <v>0.001802790236253541</v>
+        <v>0.5271714246335852</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>951.9073987302759</v>
+        <v>78.61615814687555</v>
       </c>
       <c r="C5" t="n">
-        <v>0.08040738452317081</v>
+        <v>0.568418315348113</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Season[T.Spring]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-89.56055992464539</v>
+        <v>88.14161196131508</v>
       </c>
       <c r="C6" t="n">
-        <v>0.06523419729675708</v>
+        <v>0.5427425818212535</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Season[T.Summer]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1190.035996518382</v>
+        <v>99.61695807996611</v>
       </c>
       <c r="C7" t="n">
-        <v>1.427661591403519e-27</v>
+        <v>0.5352035336484944</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>Season[T.Winter]</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-24.82901242745343</v>
+        <v>100.1771161239493</v>
       </c>
       <c r="C8" t="n">
-        <v>1.037900942596348e-06</v>
+        <v>0.4932107873195206</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>85.56475747889374</v>
+        <v>-86.74346048844032</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02510342819731381</v>
+        <v>0.07428510025348169</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>624.0774090083645</v>
+        <v>-1175.448733255416</v>
       </c>
       <c r="C10" t="n">
-        <v>3.800306471289946e-174</v>
+        <v>5.497121269803767e-27</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.04139075673059263</v>
+        <v>-25.33846607974916</v>
       </c>
       <c r="C11" t="n">
-        <v>0.03817369951945933</v>
+        <v>6.431622857872734e-07</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-2.641292349006173e-06</v>
+        <v>88.31269993166097</v>
       </c>
       <c r="C12" t="n">
-        <v>0.933895006362697</v>
+        <v>0.02082250493144727</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-15.59440418357998</v>
+        <v>623.9486942608974</v>
       </c>
       <c r="C13" t="n">
-        <v>0.04449102414321632</v>
+        <v>6.389223592439651e-174</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-3.428425785594381</v>
+        <v>-0.04198638393091304</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3784930964992121</v>
+        <v>0.03556897577224163</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>155.0952164635246</v>
+        <v>-1.36660633916929e-06</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8373383127135824</v>
+        <v>0.9657930527373269</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>264.7025124832692</v>
+        <v>-15.53950940386902</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5435245024615678</v>
+        <v>0.045368422442627</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>street_length_res</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-3.359692340370085</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.38831076216635</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>169.6235410483932</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.8224053455582045</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>275.5683300967787</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.5273550376144482</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>-4312.085734030483</v>
-      </c>
-      <c r="C17" t="n">
-        <v>4.630170849997414e-05</v>
+      <c r="B20" t="n">
+        <v>-4292.955125302722</v>
+      </c>
+      <c r="C20" t="n">
+        <v>5.031594662729359e-05</v>
       </c>
     </row>
   </sheetData>
@@ -1654,7 +1849,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1686,205 +1881,244 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9380.419755363535</v>
+        <v>8507.955097993552</v>
       </c>
       <c r="C2" t="n">
-        <v>1.246295016990409e-25</v>
+        <v>7.523168083381261e-24</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education[T.Secondary]</t>
+          <t>Education[T.Primary/None]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0101476853853</v>
+        <v>-294.3572243150239</v>
       </c>
       <c r="C3" t="n">
-        <v>0.07215026693499117</v>
+        <v>0.4685831906985024</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Secondary]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>625.196788715002</v>
+        <v>110.8091442479201</v>
       </c>
       <c r="C4" t="n">
-        <v>0.05833694136177554</v>
+        <v>0.72871326415625</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>413.0980171177071</v>
+        <v>80.76584033529683</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4433683377260941</v>
+        <v>0.5572240858295551</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Season[T.Spring]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-67.43570347846372</v>
+        <v>-24.76446540845099</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1648583660507555</v>
+        <v>0.8646614982063865</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Season[T.Summer]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1369.310891257232</v>
+        <v>44.24561634992338</v>
       </c>
       <c r="C7" t="n">
-        <v>8.125454960296002e-36</v>
+        <v>0.7837165451302734</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>Season[T.Winter]</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-22.94070184481228</v>
+        <v>98.62399768402368</v>
       </c>
       <c r="C8" t="n">
-        <v>7.424169813772677e-06</v>
+        <v>0.5000735568973531</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>71.64075101841871</v>
+        <v>-67.07670635238983</v>
       </c>
       <c r="C9" t="n">
-        <v>0.06115701876428547</v>
+        <v>0.1673614941704978</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>660.3522065621726</v>
+        <v>-1362.077324134767</v>
       </c>
       <c r="C10" t="n">
-        <v>1.039903360725011e-192</v>
+        <v>1.663176870529806e-35</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.01990726546992577</v>
+        <v>-23.17110644946975</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3170448316417032</v>
+        <v>6.149920708499743e-06</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1.38230809285624e-05</v>
+        <v>71.94847895065038</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6594873615875894</v>
+        <v>0.06015144616034981</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-18.82516348492406</v>
+        <v>660.9432768598417</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0148724734360915</v>
+        <v>6.657768168547409e-193</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-10.3125268385792</v>
+        <v>-0.02010990762295771</v>
       </c>
       <c r="C14" t="n">
-        <v>0.007416855340482326</v>
+        <v>0.3123271781451656</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>562.5968092550588</v>
+        <v>-1.340589141347778e-05</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4593058118356609</v>
+        <v>0.6693341458523896</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-83.94320585147028</v>
+        <v>-18.78896236800118</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8475971274930152</v>
+        <v>0.01510638445552061</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>street_length_res</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-10.18044997489479</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.008213809016200264</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>566.5146111194153</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.456311898391246</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>-81.90674117797164</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.8513318580657605</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>-3094.462019579336</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.003599189774148327</v>
+      <c r="B20" t="n">
+        <v>-3072.95390480251</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.003844506431402041</v>
       </c>
     </row>
   </sheetData>
@@ -1898,7 +2132,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1930,205 +2164,244 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9628.291961845138</v>
+        <v>9138.918585827745</v>
       </c>
       <c r="C2" t="n">
-        <v>8.777172818565096e-27</v>
+        <v>4.258839165617422e-27</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education[T.Secondary]</t>
+          <t>Education[T.Primary/None]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>935.945043010385</v>
+        <v>-534.5967780269036</v>
       </c>
       <c r="C3" t="n">
-        <v>0.005510132919033345</v>
+        <v>0.1837573430245569</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Secondary]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1026.364863488925</v>
+        <v>1.141722250464682</v>
       </c>
       <c r="C4" t="n">
-        <v>0.001641648772486081</v>
+        <v>0.9971086225912389</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>755.2526223989945</v>
+        <v>159.9163962509835</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1619373166213577</v>
+        <v>0.242179846682603</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Season[T.Spring]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-30.30226527418807</v>
+        <v>32.79972056908807</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5305427761991374</v>
+        <v>0.8200366327575974</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Season[T.Summer]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1307.305243027886</v>
+        <v>-12.7968498485271</v>
       </c>
       <c r="C7" t="n">
-        <v>2.734772178237743e-33</v>
+        <v>0.9360951871545642</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>Season[T.Winter]</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-22.37709252774386</v>
+        <v>76.36512615944906</v>
       </c>
       <c r="C8" t="n">
-        <v>1.065834332292723e-05</v>
+        <v>0.5993021044981185</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>95.66890442955355</v>
+        <v>-28.62723747723759</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01177322281803467</v>
+        <v>0.5536955295823629</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>648.6436035600952</v>
+        <v>-1296.374785534196</v>
       </c>
       <c r="C10" t="n">
-        <v>1.985860455225615e-189</v>
+        <v>8.515783598503956e-33</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.03250354888780446</v>
+        <v>-22.8401604211209</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1042410919198727</v>
+        <v>7.105020075784274e-06</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-2.640026374970826e-06</v>
+        <v>97.1458683229954</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9342462931478261</v>
+        <v>0.0105628527378144</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-25.07784117602402</v>
+        <v>649.0622225980387</v>
       </c>
       <c r="C13" t="n">
-        <v>0.001134982124293721</v>
+        <v>2.078005725358033e-189</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-14.86560941516662</v>
+        <v>-0.03297581494240699</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0001276882610140785</v>
+        <v>0.09944757902038123</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>643.625202677496</v>
+        <v>-1.691913810796843e-06</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3961467316214655</v>
+        <v>0.9578575082341856</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.6432091685326</v>
+        <v>-25.02136635268098</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6622604254499604</v>
+        <v>0.001172103057971376</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>street_length_res</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-14.72347382809482</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.0001484891729436207</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>656.7047212703037</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.3868117020891888</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>193.6717848361453</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.6540225709000012</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>-3669.431653421498</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.0004379907038636028</v>
+      <c r="B20" t="n">
+        <v>-3648.730569636733</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.0004742796676337329</v>
       </c>
     </row>
   </sheetData>
@@ -2142,7 +2415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2174,205 +2447,244 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9241.737463669582</v>
+        <v>8708.601249987123</v>
       </c>
       <c r="C2" t="n">
-        <v>3.915787737487642e-25</v>
+        <v>2.652180676831744e-25</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education[T.Secondary]</t>
+          <t>Education[T.Primary/None]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>917.658676494826</v>
+        <v>-519.0243940949634</v>
       </c>
       <c r="C3" t="n">
-        <v>0.007244418959093555</v>
+        <v>0.2118574930597281</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Secondary]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>900.2164839548039</v>
+        <v>-348.1569770141797</v>
       </c>
       <c r="C4" t="n">
-        <v>0.006478588639112192</v>
+        <v>0.2673132880918865</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>634.5880539346143</v>
+        <v>12.12759944165036</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2576792560400282</v>
+        <v>0.9294714909440537</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Season[T.Spring]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-51.4040381706046</v>
+        <v>-12.5329637164662</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2869513714505559</v>
+        <v>0.9307644482269756</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Season[T.Summer]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1385.059239512462</v>
+        <v>-56.36768098263829</v>
       </c>
       <c r="C7" t="n">
-        <v>3.657840426615821e-37</v>
+        <v>0.7244857097116801</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>Season[T.Winter]</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-22.97362679778076</v>
+        <v>85.795389171712</v>
       </c>
       <c r="C8" t="n">
-        <v>5.620277711852581e-06</v>
+        <v>0.5539906064198218</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>113.1005534865151</v>
+        <v>-49.71154461179242</v>
       </c>
       <c r="C9" t="n">
-        <v>0.002933815317690732</v>
+        <v>0.303297866686833</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>650.1424063883613</v>
+        <v>-1371.318258698805</v>
       </c>
       <c r="C10" t="n">
-        <v>2.277522006745437e-191</v>
+        <v>1.597798198217971e-36</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.02560675012024294</v>
+        <v>-23.49188917268371</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1953326288237641</v>
+        <v>3.536144797654455e-06</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1.904964512184151e-06</v>
+        <v>114.5659724817248</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9516401411073034</v>
+        <v>0.002599582320034618</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-20.99003260880718</v>
+        <v>650.5858755907765</v>
       </c>
       <c r="C13" t="n">
-        <v>0.006143005235812324</v>
+        <v>2.476534438950354e-191</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-10.97184291759369</v>
+        <v>-0.02660871112222504</v>
       </c>
       <c r="C14" t="n">
-        <v>0.004015242876653342</v>
+        <v>0.1786081552041299</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>827.1232955200153</v>
+        <v>4.323970838268913e-07</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2708389005465244</v>
+        <v>0.9890255624667488</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-98.50864363574783</v>
+        <v>-20.99301766122095</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8195794790817612</v>
+        <v>0.006160929268875907</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>street_length_res</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-10.80593695622412</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.004613487574517559</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>812.8998284690506</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.2793319358829496</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>-79.54354832027843</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.8539527608728616</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>-3703.047503651243</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.00036766935957065</v>
+      <c r="B20" t="n">
+        <v>-3684.289178173742</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.0003952964141797342</v>
       </c>
     </row>
   </sheetData>
@@ -2386,7 +2698,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2418,205 +2730,244 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9285.118577487481</v>
+        <v>8707.068235132114</v>
       </c>
       <c r="C2" t="n">
-        <v>5.088948707449018e-25</v>
+        <v>8.830759036534143e-25</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education[T.Secondary]</t>
+          <t>Education[T.Primary/None]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>779.9309258166695</v>
+        <v>-884.6538810508962</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02114292510999381</v>
+        <v>0.03008885505549092</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Secondary]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>676.0803285019911</v>
+        <v>-231.7861391465376</v>
       </c>
       <c r="C4" t="n">
-        <v>0.03869355634078454</v>
+        <v>0.4657489048792317</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>442.8255681287976</v>
+        <v>-95.99451913846102</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4137999854500715</v>
+        <v>0.4864130416552213</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Season[T.Spring]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-40.96317973569133</v>
+        <v>84.67090904542752</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3948359063531715</v>
+        <v>0.5583568221320614</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Season[T.Summer]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1306.734162030326</v>
+        <v>-20.59143692770172</v>
       </c>
       <c r="C7" t="n">
-        <v>4.106595079565978e-33</v>
+        <v>0.897085497654409</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>Season[T.Winter]</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-25.85521208883797</v>
+        <v>127.2576517434841</v>
       </c>
       <c r="C8" t="n">
-        <v>3.331980422924879e-07</v>
+        <v>0.3819627577687728</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>116.8741910727574</v>
+        <v>-38.98269811033661</v>
       </c>
       <c r="C9" t="n">
-        <v>0.002247438775036636</v>
+        <v>0.4183961936051797</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>637.1838084639962</v>
+        <v>-1298.75276881628</v>
       </c>
       <c r="C10" t="n">
-        <v>8.416857866004185e-180</v>
+        <v>8.672446053168025e-33</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.02341346985901027</v>
+        <v>-26.46467419403063</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2400194392913279</v>
+        <v>1.809481878272657e-07</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-7.40850593531153e-06</v>
+        <v>118.0820078626256</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8161700172922653</v>
+        <v>0.002026765468874975</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-18.48573118001853</v>
+        <v>637.1032044673626</v>
       </c>
       <c r="C13" t="n">
-        <v>0.016906743270531</v>
+        <v>1.502105649949431e-179</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-9.498378956876742</v>
+        <v>-0.02365867256164274</v>
       </c>
       <c r="C14" t="n">
-        <v>0.01400674888826944</v>
+        <v>0.2352339631758779</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>634.0850510802802</v>
+        <v>-6.477949339452169e-06</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4022832617758277</v>
+        <v>0.8389460336670985</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>67.32715233138526</v>
+        <v>-18.54982324576741</v>
       </c>
       <c r="C16" t="n">
-        <v>0.876770727637126</v>
+        <v>0.01656526853990092</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>street_length_res</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-9.493279895067463</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.01406646622380662</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>639.4451043530885</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.3984192151255548</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>77.31845248779462</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.8587303746763724</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>-4552.255812307769</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1.388053209328576e-05</v>
+      <c r="B20" t="n">
+        <v>-4509.596828803138</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.67369186614251e-05</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/dist_commute/Berlin.xlsx
+++ b/outputs/ML_Results/dist_commute/Berlin.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ29536305" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ30097336" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ30709137" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ31257904" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ31825661" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ32379183" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ32943600" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ33578192" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ34152988" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ24888199" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ25454087" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ26031112" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ26562259" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ27110166" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ27645367" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ28178018" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ28745745" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ29306033" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,10 +466,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8615.744493701804</v>
+        <v>8171.934062794435</v>
       </c>
       <c r="C2" t="n">
-        <v>2.125371173889367e-24</v>
+        <v>8.807866354448987e-23</v>
       </c>
     </row>
     <row r="3">
@@ -479,10 +479,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-627.9508702055109</v>
+        <v>-642.0397931703455</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1146031708674052</v>
+        <v>0.1067501793831945</v>
       </c>
     </row>
     <row r="4">
@@ -492,10 +492,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-200.076703764995</v>
+        <v>-203.1227719754688</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5313126975616788</v>
+        <v>0.5251749849218181</v>
       </c>
     </row>
     <row r="5">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>47.42938155274899</v>
+        <v>39.26628374153327</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7318457679435845</v>
+        <v>0.7766520992275718</v>
       </c>
     </row>
     <row r="6">
@@ -518,10 +518,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-109.1390576782056</v>
+        <v>-112.6316342999378</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4520599776187583</v>
+        <v>0.4378118325225664</v>
       </c>
     </row>
     <row r="7">
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.738630338087461</v>
+        <v>3.31849767045729</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9814120544043627</v>
+        <v>0.9835044291544768</v>
       </c>
     </row>
     <row r="8">
@@ -544,10 +544,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>62.19715988411789</v>
+        <v>62.56240219662466</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6696796369842908</v>
+        <v>0.6679286042538914</v>
       </c>
     </row>
     <row r="9">
@@ -557,10 +557,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-68.1947203293083</v>
+        <v>-66.74178059202305</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1595284879795326</v>
+        <v>0.168685360335971</v>
       </c>
     </row>
     <row r="10">
@@ -570,10 +570,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1327.197989884121</v>
+        <v>-1328.105929706257</v>
       </c>
       <c r="C10" t="n">
-        <v>5.400985602640942e-34</v>
+        <v>5.049587488654682e-34</v>
       </c>
     </row>
     <row r="11">
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-24.80079946384163</v>
+        <v>-25.06894365678354</v>
       </c>
       <c r="C11" t="n">
-        <v>1.053224548096937e-06</v>
+        <v>8.06443596569204e-07</v>
       </c>
     </row>
     <row r="12">
@@ -596,10 +596,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>71.39392503227299</v>
+        <v>73.04807748428664</v>
       </c>
       <c r="C12" t="n">
-        <v>0.06410379782752289</v>
+        <v>0.05821072832177777</v>
       </c>
     </row>
     <row r="13">
@@ -609,10 +609,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>639.2491693698491</v>
+        <v>650.6954234312087</v>
       </c>
       <c r="C13" t="n">
-        <v>3.51155502347245e-182</v>
+        <v>2.581474163163029e-194</v>
       </c>
     </row>
     <row r="14">
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.03358217758785084</v>
+        <v>-0.02889831145733529</v>
       </c>
       <c r="C14" t="n">
-        <v>0.09154928862792104</v>
+        <v>0.1453159700782284</v>
       </c>
     </row>
     <row r="15">
@@ -635,10 +635,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-1.212559955552506e-05</v>
+        <v>-1.870479004479188e-05</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6991837992567951</v>
+        <v>0.5501979411772018</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-17.39051690948888</v>
+        <v>-15.38978158082429</v>
       </c>
       <c r="C16" t="n">
-        <v>0.02429329382402247</v>
+        <v>0.04543128986465877</v>
       </c>
     </row>
     <row r="17">
@@ -661,10 +661,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-7.925438939866998</v>
+        <v>-7.31495239669586</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0409641780995532</v>
+        <v>0.05892816784362136</v>
       </c>
     </row>
     <row r="18">
@@ -674,10 +674,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>49.51468668445159</v>
+        <v>-143.0231807994014</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9478840898998797</v>
+        <v>0.8497273894873243</v>
       </c>
     </row>
     <row r="19">
@@ -687,23 +687,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>47.33970857695795</v>
+        <v>34.32618894777636</v>
       </c>
       <c r="C19" t="n">
-        <v>0.913637697027597</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>-3096.930172037885</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.003218089376862115</v>
+        <v>0.9373316379596377</v>
       </c>
     </row>
   </sheetData>
@@ -717,7 +704,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -749,10 +736,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8683.450129293491</v>
+        <v>8307.043385717279</v>
       </c>
       <c r="C2" t="n">
-        <v>1.494712333933632e-24</v>
+        <v>3.334011606049253e-23</v>
       </c>
     </row>
     <row r="3">
@@ -762,10 +749,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-361.0469205321035</v>
+        <v>-372.1390114694955</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3694579389863428</v>
+        <v>0.3549974379313355</v>
       </c>
     </row>
     <row r="4">
@@ -775,10 +762,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-288.907895801201</v>
+        <v>-292.2298336423212</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3592922320258104</v>
+        <v>0.3538796098904927</v>
       </c>
     </row>
     <row r="5">
@@ -788,10 +775,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-8.6236632131764</v>
+        <v>-16.77400972673858</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9499567508996769</v>
+        <v>0.9028315773457546</v>
       </c>
     </row>
     <row r="6">
@@ -801,10 +788,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>65.00511296858514</v>
+        <v>64.71953120103655</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6518004557784085</v>
+        <v>0.6532897112315619</v>
       </c>
     </row>
     <row r="7">
@@ -814,10 +801,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>36.64959349619994</v>
+        <v>37.45143934207057</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8182125075521204</v>
+        <v>0.8143405101844798</v>
       </c>
     </row>
     <row r="8">
@@ -827,10 +814,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>175.682269726226</v>
+        <v>176.8713823304973</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2269741913867915</v>
+        <v>0.2239286682183913</v>
       </c>
     </row>
     <row r="9">
@@ -840,10 +827,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-36.87857478059482</v>
+        <v>-34.50168580743043</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4441036944477915</v>
+        <v>0.4740227245351046</v>
       </c>
     </row>
     <row r="10">
@@ -853,10 +840,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1326.748788622367</v>
+        <v>-1327.198761184977</v>
       </c>
       <c r="C10" t="n">
-        <v>2.813262381429581e-34</v>
+        <v>2.748815058871498e-34</v>
       </c>
     </row>
     <row r="11">
@@ -866,10 +853,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-21.51330238991028</v>
+        <v>-21.79437211883694</v>
       </c>
       <c r="C11" t="n">
-        <v>2.276799466458129e-05</v>
+        <v>1.776286771929829e-05</v>
       </c>
     </row>
     <row r="12">
@@ -879,10 +866,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>111.0853453692057</v>
+        <v>111.7221198902064</v>
       </c>
       <c r="C12" t="n">
-        <v>0.003650790910957478</v>
+        <v>0.003466406330175585</v>
       </c>
     </row>
     <row r="13">
@@ -892,10 +879,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>640.8480317526796</v>
+        <v>651.1446070743056</v>
       </c>
       <c r="C13" t="n">
-        <v>9.71275106119928e-184</v>
+        <v>2.781826536503388e-195</v>
       </c>
     </row>
     <row r="14">
@@ -905,10 +892,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.02364118484990374</v>
+        <v>-0.01942134828255922</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2333494679570254</v>
+        <v>0.3260925579203476</v>
       </c>
     </row>
     <row r="15">
@@ -918,10 +905,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-1.493919289669346e-05</v>
+        <v>-2.165094720704854e-05</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6378690172079717</v>
+        <v>0.4938636397082475</v>
       </c>
     </row>
     <row r="16">
@@ -931,10 +918,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-25.05698060951545</v>
+        <v>-23.315026696779</v>
       </c>
       <c r="C16" t="n">
-        <v>0.001087234849862768</v>
+        <v>0.002285123643071629</v>
       </c>
     </row>
     <row r="17">
@@ -944,10 +931,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-10.30727582735412</v>
+        <v>-9.89196900133561</v>
       </c>
       <c r="C17" t="n">
-        <v>0.008148984439376528</v>
+        <v>0.01105942655240676</v>
       </c>
     </row>
     <row r="18">
@@ -957,10 +944,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>490.0479499620851</v>
+        <v>313.4449203911363</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5185343251779556</v>
+        <v>0.6785414425694066</v>
       </c>
     </row>
     <row r="19">
@@ -970,23 +957,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>13.21074523052641</v>
+        <v>2.289781865412806</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9756982775259235</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>-2810.399560546204</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.00777161612089739</v>
+        <v>0.9957878099183832</v>
       </c>
     </row>
   </sheetData>
@@ -1000,7 +974,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1032,10 +1006,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8968.248488635581</v>
+        <v>8419.054269369244</v>
       </c>
       <c r="C2" t="n">
-        <v>1.674685146431559e-26</v>
+        <v>3.133438455125496e-24</v>
       </c>
     </row>
     <row r="3">
@@ -1045,10 +1019,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-506.864155450565</v>
+        <v>-516.6556566999341</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2016820295918985</v>
+        <v>0.1932748640678528</v>
       </c>
     </row>
     <row r="4">
@@ -1058,10 +1032,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-321.4029962229469</v>
+        <v>-322.7172955086176</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3136201219590375</v>
+        <v>0.3118361242754886</v>
       </c>
     </row>
     <row r="5">
@@ -1071,10 +1045,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>91.67191068199483</v>
+        <v>81.15013964083693</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5042429935450266</v>
+        <v>0.5544738016075086</v>
       </c>
     </row>
     <row r="6">
@@ -1084,10 +1058,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-80.88557821912283</v>
+        <v>-83.8747486373239</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5736819833561959</v>
+        <v>0.5597530761152615</v>
       </c>
     </row>
     <row r="7">
@@ -1097,10 +1071,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-127.0815750766818</v>
+        <v>-123.771687259455</v>
       </c>
       <c r="C7" t="n">
-        <v>0.423731613805903</v>
+        <v>0.4360776513493833</v>
       </c>
     </row>
     <row r="8">
@@ -1110,10 +1084,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-15.35626114365047</v>
+        <v>-12.00797945367012</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9158693632328914</v>
+        <v>0.9341903885698095</v>
       </c>
     </row>
     <row r="9">
@@ -1123,10 +1097,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-27.73683303321791</v>
+        <v>-23.8504837049048</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5630500953541842</v>
+        <v>0.6190428108305399</v>
       </c>
     </row>
     <row r="10">
@@ -1136,10 +1110,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1336.54286720948</v>
+        <v>-1338.473618527528</v>
       </c>
       <c r="C10" t="n">
-        <v>6.144529744108191e-35</v>
+        <v>5.227055741804322e-35</v>
       </c>
     </row>
     <row r="11">
@@ -1149,10 +1123,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-23.90877498741028</v>
+        <v>-24.20670887792534</v>
       </c>
       <c r="C11" t="n">
-        <v>2.464206026912567e-06</v>
+        <v>1.856558903388581e-06</v>
       </c>
     </row>
     <row r="12">
@@ -1162,10 +1136,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>82.38871100626187</v>
+        <v>84.27945990446096</v>
       </c>
       <c r="C12" t="n">
-        <v>0.03148157986666132</v>
+        <v>0.02783454821065711</v>
       </c>
     </row>
     <row r="13">
@@ -1175,10 +1149,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>643.1149707245924</v>
+        <v>657.0374746401753</v>
       </c>
       <c r="C13" t="n">
-        <v>1.49109578817212e-186</v>
+        <v>6.818626281708279e-200</v>
       </c>
     </row>
     <row r="14">
@@ -1188,10 +1162,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.04572916504667483</v>
+        <v>-0.04013712072897864</v>
       </c>
       <c r="C14" t="n">
-        <v>0.01978011500810219</v>
+        <v>0.04029533069275905</v>
       </c>
     </row>
     <row r="15">
@@ -1201,10 +1175,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.214251156105532e-05</v>
+        <v>3.973460616875097e-06</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6942788866418231</v>
+        <v>0.8974414567715001</v>
       </c>
     </row>
     <row r="16">
@@ -1214,10 +1188,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-23.1622070170839</v>
+        <v>-20.60680057057144</v>
       </c>
       <c r="C16" t="n">
-        <v>0.002550445130775267</v>
+        <v>0.007057231837255588</v>
       </c>
     </row>
     <row r="17">
@@ -1227,10 +1201,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-10.28082706144784</v>
+        <v>-9.539313837975133</v>
       </c>
       <c r="C17" t="n">
-        <v>0.007473889901312926</v>
+        <v>0.01297720302126795</v>
       </c>
     </row>
     <row r="18">
@@ -1240,10 +1214,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-166.3315892467399</v>
+        <v>-438.205207260808</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8246812875171872</v>
+        <v>0.5577771075081754</v>
       </c>
     </row>
     <row r="19">
@@ -1253,23 +1227,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>142.5244515982102</v>
+        <v>111.8533583521482</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7428306922012042</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>-3902.292409667813</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.0001865640048103823</v>
+        <v>0.7968365537073372</v>
       </c>
     </row>
   </sheetData>
@@ -1283,7 +1244,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1315,10 +1276,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8170.794525245381</v>
+        <v>7728.644659673484</v>
       </c>
       <c r="C2" t="n">
-        <v>3.545758307557427e-22</v>
+        <v>1.41589421299258e-20</v>
       </c>
     </row>
     <row r="3">
@@ -1328,10 +1289,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-582.0936115294874</v>
+        <v>-600.8615349572838</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1435800699512929</v>
+        <v>0.1311580863611746</v>
       </c>
     </row>
     <row r="4">
@@ -1341,10 +1302,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-530.68071538544</v>
+        <v>-528.6921193921323</v>
       </c>
       <c r="C4" t="n">
-        <v>0.09270582982596108</v>
+        <v>0.09401621344660568</v>
       </c>
     </row>
     <row r="5">
@@ -1354,10 +1315,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>72.64486937572586</v>
+        <v>62.48898361659739</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5978607649062506</v>
+        <v>0.6500019468970142</v>
       </c>
     </row>
     <row r="6">
@@ -1367,10 +1328,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>24.38494117664795</v>
+        <v>24.94918631153194</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8658062722814852</v>
+        <v>0.8627652345260554</v>
       </c>
     </row>
     <row r="7">
@@ -1380,10 +1341,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-42.32565190639681</v>
+        <v>-40.49825393686888</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7906435235233973</v>
+        <v>0.7995325941819054</v>
       </c>
     </row>
     <row r="8">
@@ -1393,10 +1354,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>25.4995566117486</v>
+        <v>26.36885474381558</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8602954778886683</v>
+        <v>0.8556195038965325</v>
       </c>
     </row>
     <row r="9">
@@ -1406,10 +1367,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-43.65748111100959</v>
+        <v>-40.45055580917622</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3652878622098292</v>
+        <v>0.401565593378759</v>
       </c>
     </row>
     <row r="10">
@@ -1419,10 +1380,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1232.745336521267</v>
+        <v>-1229.207749920574</v>
       </c>
       <c r="C10" t="n">
-        <v>7.486509572490697e-30</v>
+        <v>1.111156334037949e-29</v>
       </c>
     </row>
     <row r="11">
@@ -1432,10 +1393,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-18.26650705067813</v>
+        <v>-18.60406759170471</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0003171406444963559</v>
+        <v>0.0002450532076821222</v>
       </c>
     </row>
     <row r="12">
@@ -1445,10 +1406,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>68.29608896073398</v>
+        <v>69.5960333822772</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0748089745159192</v>
+        <v>0.06949233371636195</v>
       </c>
     </row>
     <row r="13">
@@ -1458,10 +1419,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>645.6266396640322</v>
+        <v>656.8128217334928</v>
       </c>
       <c r="C13" t="n">
-        <v>3.5157020207708e-186</v>
+        <v>8.690516221694287e-198</v>
       </c>
     </row>
     <row r="14">
@@ -1471,10 +1432,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.03696969097620019</v>
+        <v>-0.03249636667834034</v>
       </c>
       <c r="C14" t="n">
-        <v>0.06130142953275322</v>
+        <v>0.09912230800498956</v>
       </c>
     </row>
     <row r="15">
@@ -1484,10 +1445,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.594562526122649e-05</v>
+        <v>9.137520569494999e-06</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6102196308983421</v>
+        <v>0.7696741925715853</v>
       </c>
     </row>
     <row r="16">
@@ -1497,10 +1458,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-19.24164952423563</v>
+        <v>-17.25304083586812</v>
       </c>
       <c r="C16" t="n">
-        <v>0.01201339191140978</v>
+        <v>0.02382236120065977</v>
       </c>
     </row>
     <row r="17">
@@ -1510,10 +1471,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-7.362230142950185</v>
+        <v>-6.744890775413509</v>
       </c>
       <c r="C17" t="n">
-        <v>0.05635777301594046</v>
+        <v>0.08007022395268672</v>
       </c>
     </row>
     <row r="18">
@@ -1523,10 +1484,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-238.7969616022515</v>
+        <v>-462.5964516701861</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7511419217297275</v>
+        <v>0.5371152171467068</v>
       </c>
     </row>
     <row r="19">
@@ -1536,23 +1497,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-163.2748620579959</v>
+        <v>-176.6145978172501</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7063696573732461</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>-3173.027795697109</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.002487031143605859</v>
+        <v>0.683687952152722</v>
       </c>
     </row>
   </sheetData>
@@ -1566,7 +1514,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1598,10 +1546,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7930.333368268832</v>
+        <v>7338.158854236305</v>
       </c>
       <c r="C2" t="n">
-        <v>8.678342730102076e-21</v>
+        <v>1.611669786872342e-18</v>
       </c>
     </row>
     <row r="3">
@@ -1611,10 +1559,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-622.8480726436673</v>
+        <v>-652.1671788881564</v>
       </c>
       <c r="C3" t="n">
-        <v>0.122234540318375</v>
+        <v>0.105726112408938</v>
       </c>
     </row>
     <row r="4">
@@ -1624,10 +1572,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-199.7332017537057</v>
+        <v>-204.4759604872617</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5271714246335852</v>
+        <v>0.5176029666271771</v>
       </c>
     </row>
     <row r="5">
@@ -1637,10 +1585,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>78.61615814687555</v>
+        <v>64.72360119737506</v>
       </c>
       <c r="C5" t="n">
-        <v>0.568418315348113</v>
+        <v>0.6387028655092286</v>
       </c>
     </row>
     <row r="6">
@@ -1650,10 +1598,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>88.14161196131508</v>
+        <v>91.19554469363078</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5427425818212535</v>
+        <v>0.5290397657242816</v>
       </c>
     </row>
     <row r="7">
@@ -1663,10 +1611,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>99.61695807996611</v>
+        <v>102.5785371156822</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5352035336484944</v>
+        <v>0.5233281534345591</v>
       </c>
     </row>
     <row r="8">
@@ -1676,10 +1624,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>100.1771161239493</v>
+        <v>104.0688976467908</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4932107873195206</v>
+        <v>0.4767675179963349</v>
       </c>
     </row>
     <row r="9">
@@ -1689,10 +1637,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-86.74346048844032</v>
+        <v>-84.84013323354672</v>
       </c>
       <c r="C9" t="n">
-        <v>0.07428510025348169</v>
+        <v>0.08099272083156846</v>
       </c>
     </row>
     <row r="10">
@@ -1702,10 +1650,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1175.448733255416</v>
+        <v>-1178.508720440936</v>
       </c>
       <c r="C10" t="n">
-        <v>5.497121269803767e-27</v>
+        <v>4.276905536936132e-27</v>
       </c>
     </row>
     <row r="11">
@@ -1715,10 +1663,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-25.33846607974916</v>
+        <v>-25.75160861670666</v>
       </c>
       <c r="C11" t="n">
-        <v>6.431622857872734e-07</v>
+        <v>4.247393547453561e-07</v>
       </c>
     </row>
     <row r="12">
@@ -1728,10 +1676,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>88.31269993166097</v>
+        <v>90.09027949487904</v>
       </c>
       <c r="C12" t="n">
-        <v>0.02082250493144727</v>
+        <v>0.01843579638195939</v>
       </c>
     </row>
     <row r="13">
@@ -1741,10 +1689,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>623.9486942608974</v>
+        <v>639.5423332186783</v>
       </c>
       <c r="C13" t="n">
-        <v>6.389223592439651e-174</v>
+        <v>8.277125807750217e-188</v>
       </c>
     </row>
     <row r="14">
@@ -1754,10 +1702,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.04198638393091304</v>
+        <v>-0.03558191654299425</v>
       </c>
       <c r="C14" t="n">
-        <v>0.03556897577224163</v>
+        <v>0.07409870386853493</v>
       </c>
     </row>
     <row r="15">
@@ -1767,10 +1715,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-1.36660633916929e-06</v>
+        <v>-1.125671077147663e-05</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9657930527373269</v>
+        <v>0.7232515736872673</v>
       </c>
     </row>
     <row r="16">
@@ -1780,10 +1728,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-15.53950940386902</v>
+        <v>-12.82484845034787</v>
       </c>
       <c r="C16" t="n">
-        <v>0.045368422442627</v>
+        <v>0.09751010746763551</v>
       </c>
     </row>
     <row r="17">
@@ -1793,10 +1741,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-3.359692340370085</v>
+        <v>-2.57411525063424</v>
       </c>
       <c r="C17" t="n">
-        <v>0.38831076216635</v>
+        <v>0.5083047199628035</v>
       </c>
     </row>
     <row r="18">
@@ -1806,10 +1754,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>169.6235410483932</v>
+        <v>-96.59678342334701</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8224053455582045</v>
+        <v>0.8979548007576024</v>
       </c>
     </row>
     <row r="19">
@@ -1819,23 +1767,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>275.5683300967787</v>
+        <v>253.4450805255331</v>
       </c>
       <c r="C19" t="n">
-        <v>0.5273550376144482</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>-4292.955125302722</v>
-      </c>
-      <c r="C20" t="n">
-        <v>5.031594662729359e-05</v>
+        <v>0.5611870102735925</v>
       </c>
     </row>
   </sheetData>
@@ -1849,7 +1784,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1881,10 +1816,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8507.955097993552</v>
+        <v>8083.179097214762</v>
       </c>
       <c r="C2" t="n">
-        <v>7.523168083381261e-24</v>
+        <v>2.620984961939359e-22</v>
       </c>
     </row>
     <row r="3">
@@ -1894,10 +1829,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-294.3572243150239</v>
+        <v>-306.2290965591461</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4685831906985024</v>
+        <v>0.450917004143618</v>
       </c>
     </row>
     <row r="4">
@@ -1907,10 +1842,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>110.8091442479201</v>
+        <v>114.0149188525091</v>
       </c>
       <c r="C4" t="n">
-        <v>0.72871326415625</v>
+        <v>0.7212459594472396</v>
       </c>
     </row>
     <row r="5">
@@ -1920,10 +1855,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>80.76584033529683</v>
+        <v>73.78277498581008</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5572240858295551</v>
+        <v>0.5918321600861438</v>
       </c>
     </row>
     <row r="6">
@@ -1933,10 +1868,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-24.76446540845099</v>
+        <v>-24.44813239810968</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8646614982063865</v>
+        <v>0.8664035138143856</v>
       </c>
     </row>
     <row r="7">
@@ -1946,10 +1881,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>44.24561634992338</v>
+        <v>46.72533938430794</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7837165451302734</v>
+        <v>0.7719683484970939</v>
       </c>
     </row>
     <row r="8">
@@ -1959,10 +1894,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>98.62399768402368</v>
+        <v>100.1912716717796</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5000735568973531</v>
+        <v>0.4933805886260146</v>
       </c>
     </row>
     <row r="9">
@@ -1972,10 +1907,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-67.07670635238983</v>
+        <v>-65.43105794864027</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1673614941704978</v>
+        <v>0.1780930763935992</v>
       </c>
     </row>
     <row r="10">
@@ -1985,10 +1920,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1362.077324134767</v>
+        <v>-1360.616152131323</v>
       </c>
       <c r="C10" t="n">
-        <v>1.663176870529806e-35</v>
+        <v>2.029462180566388e-35</v>
       </c>
     </row>
     <row r="11">
@@ -1998,10 +1933,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-23.17110644946975</v>
+        <v>-23.63562329584926</v>
       </c>
       <c r="C11" t="n">
-        <v>6.149920708499743e-06</v>
+        <v>3.969310493237059e-06</v>
       </c>
     </row>
     <row r="12">
@@ -2011,10 +1946,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>71.94847895065038</v>
+        <v>72.91328852127043</v>
       </c>
       <c r="C12" t="n">
-        <v>0.06015144616034981</v>
+        <v>0.05684106764163201</v>
       </c>
     </row>
     <row r="13">
@@ -2024,10 +1959,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>660.9432768598417</v>
+        <v>671.8983394768113</v>
       </c>
       <c r="C13" t="n">
-        <v>6.657768168547409e-193</v>
+        <v>7.185788400130627e-205</v>
       </c>
     </row>
     <row r="14">
@@ -2037,10 +1972,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.02010990762295771</v>
+        <v>-0.01559897211303356</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3123271781451656</v>
+        <v>0.4318890717406703</v>
       </c>
     </row>
     <row r="15">
@@ -2050,10 +1985,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-1.340589141347778e-05</v>
+        <v>-2.006395307266854e-05</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6693341458523896</v>
+        <v>0.5216886378979957</v>
       </c>
     </row>
     <row r="16">
@@ -2063,10 +1998,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-18.78896236800118</v>
+        <v>-16.83662983237305</v>
       </c>
       <c r="C16" t="n">
-        <v>0.01510638445552061</v>
+        <v>0.02887122889655788</v>
       </c>
     </row>
     <row r="17">
@@ -2076,10 +2011,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-10.18044997489479</v>
+        <v>-9.535273564195457</v>
       </c>
       <c r="C17" t="n">
-        <v>0.008213809016200264</v>
+        <v>0.01316448884391353</v>
       </c>
     </row>
     <row r="18">
@@ -2089,10 +2024,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>566.5146111194153</v>
+        <v>356.2254585601627</v>
       </c>
       <c r="C18" t="n">
-        <v>0.456311898391246</v>
+        <v>0.6380191906795812</v>
       </c>
     </row>
     <row r="19">
@@ -2102,23 +2037,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-81.90674117797164</v>
+        <v>-103.6271094426054</v>
       </c>
       <c r="C19" t="n">
-        <v>0.8513318580657605</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>-3072.95390480251</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.003844506431402041</v>
+        <v>0.8125777870835729</v>
       </c>
     </row>
   </sheetData>
@@ -2132,7 +2054,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2164,10 +2086,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9138.918585827745</v>
+        <v>8623.152312800143</v>
       </c>
       <c r="C2" t="n">
-        <v>4.258839165617422e-27</v>
+        <v>5.251371653333158e-25</v>
       </c>
     </row>
     <row r="3">
@@ -2177,10 +2099,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-534.5967780269036</v>
+        <v>-551.8731462091581</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1837573430245569</v>
+        <v>0.1701054245810611</v>
       </c>
     </row>
     <row r="4">
@@ -2190,10 +2112,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.141722250464682</v>
+        <v>8.734430730333543</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9971086225912389</v>
+        <v>0.9778901243546525</v>
       </c>
     </row>
     <row r="5">
@@ -2203,10 +2125,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>159.9163962509835</v>
+        <v>152.0455090560976</v>
       </c>
       <c r="C5" t="n">
-        <v>0.242179846682603</v>
+        <v>0.266239250851959</v>
       </c>
     </row>
     <row r="6">
@@ -2216,10 +2138,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>32.79972056908807</v>
+        <v>27.67564686284209</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8200366327575974</v>
+        <v>0.8478190740668947</v>
       </c>
     </row>
     <row r="7">
@@ -2229,10 +2151,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-12.7968498485271</v>
+        <v>-13.42832120875229</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9360951871545642</v>
+        <v>0.9329718049272713</v>
       </c>
     </row>
     <row r="8">
@@ -2242,10 +2164,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>76.36512615944906</v>
+        <v>73.71735081751521</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5993021044981185</v>
+        <v>0.6121399869305452</v>
       </c>
     </row>
     <row r="9">
@@ -2255,10 +2177,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-28.62723747723759</v>
+        <v>-26.16749437781162</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5536955295823629</v>
+        <v>0.5883572190277686</v>
       </c>
     </row>
     <row r="10">
@@ -2268,10 +2190,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1296.374785534196</v>
+        <v>-1293.716505835313</v>
       </c>
       <c r="C10" t="n">
-        <v>8.515783598503956e-33</v>
+        <v>1.193035309795364e-32</v>
       </c>
     </row>
     <row r="11">
@@ -2281,10 +2203,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-22.8401604211209</v>
+        <v>-23.1630201668919</v>
       </c>
       <c r="C11" t="n">
-        <v>7.105020075784274e-06</v>
+        <v>5.284820398170874e-06</v>
       </c>
     </row>
     <row r="12">
@@ -2294,10 +2216,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>97.1458683229954</v>
+        <v>99.30105233064745</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0105628527378144</v>
+        <v>0.008975093773776067</v>
       </c>
     </row>
     <row r="13">
@@ -2307,10 +2229,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>649.0622225980387</v>
+        <v>662.0218170755567</v>
       </c>
       <c r="C13" t="n">
-        <v>2.078005725358033e-189</v>
+        <v>2.952924662481435e-202</v>
       </c>
     </row>
     <row r="14">
@@ -2320,10 +2242,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.03297581494240699</v>
+        <v>-0.02731177844342783</v>
       </c>
       <c r="C14" t="n">
-        <v>0.09944757902038123</v>
+        <v>0.1711258094847465</v>
       </c>
     </row>
     <row r="15">
@@ -2333,10 +2255,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-1.691913810796843e-06</v>
+        <v>-9.905964191799421e-06</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9578575082341856</v>
+        <v>0.7564724984480571</v>
       </c>
     </row>
     <row r="16">
@@ -2346,10 +2268,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-25.02136635268098</v>
+        <v>-22.75537101226097</v>
       </c>
       <c r="C16" t="n">
-        <v>0.001172103057971376</v>
+        <v>0.003064252805885974</v>
       </c>
     </row>
     <row r="17">
@@ -2359,10 +2281,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-14.72347382809482</v>
+        <v>-14.03315634102001</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0001484891729436207</v>
+        <v>0.0002954629447181561</v>
       </c>
     </row>
     <row r="18">
@@ -2372,10 +2294,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>656.7047212703037</v>
+        <v>427.1517790459802</v>
       </c>
       <c r="C18" t="n">
-        <v>0.3868117020891888</v>
+        <v>0.5721848383834396</v>
       </c>
     </row>
     <row r="19">
@@ -2385,23 +2307,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>193.6717848361453</v>
+        <v>180.8753973651013</v>
       </c>
       <c r="C19" t="n">
-        <v>0.6540225709000012</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>-3648.730569636733</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.0004742796676337329</v>
+        <v>0.6756248461261445</v>
       </c>
     </row>
   </sheetData>
@@ -2415,7 +2324,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2447,10 +2356,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8708.601249987123</v>
+        <v>8215.414710940282</v>
       </c>
       <c r="C2" t="n">
-        <v>2.652180676831744e-25</v>
+        <v>2.748425088579677e-23</v>
       </c>
     </row>
     <row r="3">
@@ -2460,10 +2369,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-519.0243940949634</v>
+        <v>-536.8191348345391</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2118574930597281</v>
+        <v>0.1967328684527111</v>
       </c>
     </row>
     <row r="4">
@@ -2473,10 +2382,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-348.1569770141797</v>
+        <v>-347.4781317684481</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2673132880918865</v>
+        <v>0.2684154445401065</v>
       </c>
     </row>
     <row r="5">
@@ -2486,10 +2395,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>12.12759944165036</v>
+        <v>1.831571521339868</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9294714909440537</v>
+        <v>0.9893361884723103</v>
       </c>
     </row>
     <row r="6">
@@ -2499,10 +2408,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-12.5329637164662</v>
+        <v>-14.22604238649454</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9307644482269756</v>
+        <v>0.9214670126601936</v>
       </c>
     </row>
     <row r="7">
@@ -2512,10 +2421,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-56.36768098263829</v>
+        <v>-54.65857507417161</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7244857097116801</v>
+        <v>0.7326034868536753</v>
       </c>
     </row>
     <row r="8">
@@ -2525,10 +2434,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>85.795389171712</v>
+        <v>85.15761819372401</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5539906064198218</v>
+        <v>0.5570790349429643</v>
       </c>
     </row>
     <row r="9">
@@ -2538,10 +2447,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-49.71154461179242</v>
+        <v>-48.11494271586708</v>
       </c>
       <c r="C9" t="n">
-        <v>0.303297866686833</v>
+        <v>0.3192405649350508</v>
       </c>
     </row>
     <row r="10">
@@ -2551,10 +2460,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1371.318258698805</v>
+        <v>-1371.229715925994</v>
       </c>
       <c r="C10" t="n">
-        <v>1.597798198217971e-36</v>
+        <v>1.707444555220865e-36</v>
       </c>
     </row>
     <row r="11">
@@ -2564,10 +2473,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-23.49188917268371</v>
+        <v>-24.07073080416978</v>
       </c>
       <c r="C11" t="n">
-        <v>3.536144797654455e-06</v>
+        <v>2.015026781845449e-06</v>
       </c>
     </row>
     <row r="12">
@@ -2577,10 +2486,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>114.5659724817248</v>
+        <v>115.8503089309394</v>
       </c>
       <c r="C12" t="n">
-        <v>0.002599582320034618</v>
+        <v>0.002332064559072641</v>
       </c>
     </row>
     <row r="13">
@@ -2590,10 +2499,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>650.5858755907765</v>
+        <v>663.8598820986031</v>
       </c>
       <c r="C13" t="n">
-        <v>2.476534438950354e-191</v>
+        <v>1.254201676542998e-204</v>
       </c>
     </row>
     <row r="14">
@@ -2603,10 +2512,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.02660871112222504</v>
+        <v>-0.02131627537337932</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1786081552041299</v>
+        <v>0.280036284248888</v>
       </c>
     </row>
     <row r="15">
@@ -2616,10 +2525,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>4.323970838268913e-07</v>
+        <v>-7.620212919966229e-06</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9890255624667488</v>
+        <v>0.8080408081718039</v>
       </c>
     </row>
     <row r="16">
@@ -2629,10 +2538,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-20.99301766122095</v>
+        <v>-18.74748312901669</v>
       </c>
       <c r="C16" t="n">
-        <v>0.006160929268875907</v>
+        <v>0.01413953675818372</v>
       </c>
     </row>
     <row r="17">
@@ -2642,10 +2551,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-10.80593695622412</v>
+        <v>-10.17985603944635</v>
       </c>
       <c r="C17" t="n">
-        <v>0.004613487574517559</v>
+        <v>0.007569694648926965</v>
       </c>
     </row>
     <row r="18">
@@ -2655,10 +2564,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>812.8998284690506</v>
+        <v>580.3182660727816</v>
       </c>
       <c r="C18" t="n">
-        <v>0.2793319358829496</v>
+        <v>0.4383429404487409</v>
       </c>
     </row>
     <row r="19">
@@ -2668,23 +2577,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-79.54354832027843</v>
+        <v>-90.33781159547755</v>
       </c>
       <c r="C19" t="n">
-        <v>0.8539527608728616</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>-3684.289178173742</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.0003952964141797342</v>
+        <v>0.8344570130398246</v>
       </c>
     </row>
   </sheetData>
@@ -2698,7 +2594,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2730,10 +2626,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8707.068235132114</v>
+        <v>8067.715143744563</v>
       </c>
       <c r="C2" t="n">
-        <v>8.830759036534143e-25</v>
+        <v>4.027239558326346e-22</v>
       </c>
     </row>
     <row r="3">
@@ -2743,10 +2639,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-884.6538810508962</v>
+        <v>-906.015621383606</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03008885505549092</v>
+        <v>0.02640092028998794</v>
       </c>
     </row>
     <row r="4">
@@ -2756,10 +2652,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-231.7861391465376</v>
+        <v>-240.6792842714269</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4657489048792317</v>
+        <v>0.449043461493051</v>
       </c>
     </row>
     <row r="5">
@@ -2769,10 +2665,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-95.99451913846102</v>
+        <v>-107.1872914954463</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4864130416552213</v>
+        <v>0.4372164233525039</v>
       </c>
     </row>
     <row r="6">
@@ -2782,10 +2678,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>84.67090904542752</v>
+        <v>81.29703773937452</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5583568221320614</v>
+        <v>0.5743403358877359</v>
       </c>
     </row>
     <row r="7">
@@ -2795,10 +2691,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-20.59143692770172</v>
+        <v>-17.60393214009697</v>
       </c>
       <c r="C7" t="n">
-        <v>0.897085497654409</v>
+        <v>0.9119968636758611</v>
       </c>
     </row>
     <row r="8">
@@ -2808,10 +2704,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>127.2576517434841</v>
+        <v>127.1104883395576</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3819627577687728</v>
+        <v>0.3827674099153409</v>
       </c>
     </row>
     <row r="9">
@@ -2821,10 +2717,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-38.98269811033661</v>
+        <v>-36.51062156477829</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4183961936051797</v>
+        <v>0.4487254964559404</v>
       </c>
     </row>
     <row r="10">
@@ -2834,10 +2730,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1298.75276881628</v>
+        <v>-1296.439692640764</v>
       </c>
       <c r="C10" t="n">
-        <v>8.672446053168025e-33</v>
+        <v>1.203649777154697e-32</v>
       </c>
     </row>
     <row r="11">
@@ -2847,10 +2743,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-26.46467419403063</v>
+        <v>-27.0230578484226</v>
       </c>
       <c r="C11" t="n">
-        <v>1.809481878272657e-07</v>
+        <v>9.99492242731766e-08</v>
       </c>
     </row>
     <row r="12">
@@ -2860,10 +2756,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>118.0820078626256</v>
+        <v>120.7645245379774</v>
       </c>
       <c r="C12" t="n">
-        <v>0.002026765468874975</v>
+        <v>0.001604387947855875</v>
       </c>
     </row>
     <row r="13">
@@ -2873,10 +2769,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>637.1032044673626</v>
+        <v>653.3264391405519</v>
       </c>
       <c r="C13" t="n">
-        <v>1.502105649949431e-179</v>
+        <v>9.644825349964771e-194</v>
       </c>
     </row>
     <row r="14">
@@ -2886,10 +2782,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.02365867256164274</v>
+        <v>-0.01678056998157965</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2352339631758779</v>
+        <v>0.3985707055259393</v>
       </c>
     </row>
     <row r="15">
@@ -2899,10 +2795,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-6.477949339452169e-06</v>
+        <v>-1.688489702640487e-05</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8389460336670985</v>
+        <v>0.5954201914738777</v>
       </c>
     </row>
     <row r="16">
@@ -2912,10 +2808,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-18.54982324576741</v>
+        <v>-15.64096347577303</v>
       </c>
       <c r="C16" t="n">
-        <v>0.01656526853990092</v>
+        <v>0.04264542857543002</v>
       </c>
     </row>
     <row r="17">
@@ -2925,10 +2821,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-9.493279895067463</v>
+        <v>-8.603608014336348</v>
       </c>
       <c r="C17" t="n">
-        <v>0.01406646622380662</v>
+        <v>0.02591593179138769</v>
       </c>
     </row>
     <row r="18">
@@ -2938,10 +2834,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>639.4451043530885</v>
+        <v>356.6212448709889</v>
       </c>
       <c r="C18" t="n">
-        <v>0.3984192151255548</v>
+        <v>0.6365803923596043</v>
       </c>
     </row>
     <row r="19">
@@ -2951,23 +2847,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>77.31845248779462</v>
+        <v>66.86575626515014</v>
       </c>
       <c r="C19" t="n">
-        <v>0.8587303746763724</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>-4509.596828803138</v>
-      </c>
-      <c r="C20" t="n">
-        <v>1.67369186614251e-05</v>
+        <v>0.8777293620607056</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/dist_commute/Berlin.xlsx
+++ b/outputs/ML_Results/dist_commute/Berlin.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ24888199" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ25454087" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ26031112" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ26562259" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ27110166" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ27645367" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ28178018" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ28745745" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ29306033" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ24020574" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ24568600" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ25145909" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ25717276" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ26289610" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ26894081" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ27573131" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ28157992" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ28816908" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -466,10 +466,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8171.934062794435</v>
+        <v>8178.772395027099</v>
       </c>
       <c r="C2" t="n">
-        <v>8.807866354448987e-23</v>
+        <v>8.203531870268398e-23</v>
       </c>
     </row>
     <row r="3">
@@ -479,10 +479,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-642.0397931703455</v>
+        <v>-641.9834718432111</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1067501793831945</v>
+        <v>0.1067796485152576</v>
       </c>
     </row>
     <row r="4">
@@ -492,10 +492,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-203.1227719754688</v>
+        <v>-203.2017797549923</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5251749849218181</v>
+        <v>0.5250057696982646</v>
       </c>
     </row>
     <row r="5">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>39.26628374153327</v>
+        <v>40.23942052609073</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7766520992275718</v>
+        <v>0.771266364009179</v>
       </c>
     </row>
     <row r="6">
@@ -518,10 +518,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-112.6316342999378</v>
+        <v>-112.8103189182527</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4378118325225664</v>
+        <v>0.4370849987905434</v>
       </c>
     </row>
     <row r="7">
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.31849767045729</v>
+        <v>2.567493815263134</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9835044291544768</v>
+        <v>0.9872371171078341</v>
       </c>
     </row>
     <row r="8">
@@ -544,10 +544,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>62.56240219662466</v>
+        <v>62.47927028061913</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6679286042538914</v>
+        <v>0.6683421316482134</v>
       </c>
     </row>
     <row r="9">
@@ -557,10 +557,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-66.74178059202305</v>
+        <v>-66.64805026230627</v>
       </c>
       <c r="C9" t="n">
-        <v>0.168685360335971</v>
+        <v>0.1692206402031637</v>
       </c>
     </row>
     <row r="10">
@@ -570,10 +570,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1328.105929706257</v>
+        <v>-1328.027541905499</v>
       </c>
       <c r="C10" t="n">
-        <v>5.049587488654682e-34</v>
+        <v>5.08858224795884e-34</v>
       </c>
     </row>
     <row r="11">
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-25.06894365678354</v>
+        <v>-25.14323686128788</v>
       </c>
       <c r="C11" t="n">
-        <v>8.06443596569204e-07</v>
+        <v>7.639842666617522e-07</v>
       </c>
     </row>
     <row r="12">
@@ -596,10 +596,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>73.04807748428664</v>
+        <v>74.18995526414943</v>
       </c>
       <c r="C12" t="n">
-        <v>0.05821072832177777</v>
+        <v>0.05305339588308229</v>
       </c>
     </row>
     <row r="13">
@@ -609,10 +609,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>650.6954234312087</v>
+        <v>650.3166602870095</v>
       </c>
       <c r="C13" t="n">
-        <v>2.581474163163029e-194</v>
+        <v>1.092953688222397e-193</v>
       </c>
     </row>
     <row r="14">
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.02889831145733529</v>
+        <v>-0.02540088777143187</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1453159700782284</v>
+        <v>0.134239427886842</v>
       </c>
     </row>
     <row r="15">
@@ -635,10 +635,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-1.870479004479188e-05</v>
+        <v>-1.770604662159476e-05</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5501979411772018</v>
+        <v>0.5729683286793446</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-15.38978158082429</v>
+        <v>-15.42875571452888</v>
       </c>
       <c r="C16" t="n">
-        <v>0.04543128986465877</v>
+        <v>0.04483094129181924</v>
       </c>
     </row>
     <row r="17">
@@ -661,10 +661,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-7.31495239669586</v>
+        <v>-7.386588607517933</v>
       </c>
       <c r="C17" t="n">
-        <v>0.05892816784362136</v>
+        <v>0.05632517856021817</v>
       </c>
     </row>
     <row r="18">
@@ -674,10 +674,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-143.0231807994014</v>
+        <v>-109.0164700918131</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8497273894873243</v>
+        <v>0.8832654371557267</v>
       </c>
     </row>
     <row r="19">
@@ -687,10 +687,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>34.32618894777636</v>
+        <v>32.16936758957354</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9373316379596377</v>
+        <v>0.9411149934755557</v>
       </c>
     </row>
   </sheetData>
@@ -736,10 +736,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8307.043385717279</v>
+        <v>8323.897808068523</v>
       </c>
       <c r="C2" t="n">
-        <v>3.334011606049253e-23</v>
+        <v>2.752088678988473e-23</v>
       </c>
     </row>
     <row r="3">
@@ -749,10 +749,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-372.1390114694955</v>
+        <v>-372.0614335014359</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3549974379313355</v>
+        <v>0.3550939250129226</v>
       </c>
     </row>
     <row r="4">
@@ -762,10 +762,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-292.2298336423212</v>
+        <v>-292.9818223346705</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3538796098904927</v>
+        <v>0.3526426123096673</v>
       </c>
     </row>
     <row r="5">
@@ -775,10 +775,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-16.77400972673858</v>
+        <v>-16.41507723391487</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9028315773457546</v>
+        <v>0.9048998100328873</v>
       </c>
     </row>
     <row r="6">
@@ -788,10 +788,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>64.71953120103655</v>
+        <v>64.49095051162641</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6532897112315619</v>
+        <v>0.6544341649932366</v>
       </c>
     </row>
     <row r="7">
@@ -801,10 +801,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>37.45143934207057</v>
+        <v>37.19340547525994</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8143405101844798</v>
+        <v>0.8155943974183699</v>
       </c>
     </row>
     <row r="8">
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>176.8713823304973</v>
+        <v>176.8331672008806</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2239286682183913</v>
+        <v>0.2240258020051572</v>
       </c>
     </row>
     <row r="9">
@@ -827,10 +827,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-34.50168580743043</v>
+        <v>-34.66586805273019</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4740227245351046</v>
+        <v>0.4718542804513868</v>
       </c>
     </row>
     <row r="10">
@@ -840,10 +840,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1327.198761184977</v>
+        <v>-1327.114082967366</v>
       </c>
       <c r="C10" t="n">
-        <v>2.748815058871498e-34</v>
+        <v>2.762332336365539e-34</v>
       </c>
     </row>
     <row r="11">
@@ -853,10 +853,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-21.79437211883694</v>
+        <v>-21.89766012432628</v>
       </c>
       <c r="C11" t="n">
-        <v>1.776286771929829e-05</v>
+        <v>1.645119448919087e-05</v>
       </c>
     </row>
     <row r="12">
@@ -866,10 +866,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>111.7221198902064</v>
+        <v>111.9453941316421</v>
       </c>
       <c r="C12" t="n">
-        <v>0.003466406330175585</v>
+        <v>0.003222906942139999</v>
       </c>
     </row>
     <row r="13">
@@ -879,10 +879,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>651.1446070743056</v>
+        <v>650.4224370559476</v>
       </c>
       <c r="C13" t="n">
-        <v>2.781826536503388e-195</v>
+        <v>1.831545828172513e-194</v>
       </c>
     </row>
     <row r="14">
@@ -892,10 +892,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.01942134828255922</v>
+        <v>-0.01834974268337124</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3260925579203476</v>
+        <v>0.2775578955169751</v>
       </c>
     </row>
     <row r="15">
@@ -905,10 +905,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-2.165094720704854e-05</v>
+        <v>-1.964192475467655e-05</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4938636397082475</v>
+        <v>0.5360248199699753</v>
       </c>
     </row>
     <row r="16">
@@ -918,10 +918,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-23.315026696779</v>
+        <v>-23.31231546665168</v>
       </c>
       <c r="C16" t="n">
-        <v>0.002285123643071629</v>
+        <v>0.002284060785789463</v>
       </c>
     </row>
     <row r="17">
@@ -931,10 +931,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-9.89196900133561</v>
+        <v>-9.93567221195962</v>
       </c>
       <c r="C17" t="n">
-        <v>0.01105942655240676</v>
+        <v>0.0106670613702506</v>
       </c>
     </row>
     <row r="18">
@@ -944,10 +944,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>313.4449203911363</v>
+        <v>314.9202021317424</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6785414425694066</v>
+        <v>0.6718745805881288</v>
       </c>
     </row>
     <row r="19">
@@ -957,10 +957,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2.289781865412806</v>
+        <v>8.741919144748863</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9957878099183832</v>
+        <v>0.9838806093071091</v>
       </c>
     </row>
   </sheetData>
@@ -1006,10 +1006,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8419.054269369244</v>
+        <v>8395.73589617429</v>
       </c>
       <c r="C2" t="n">
-        <v>3.133438455125496e-24</v>
+        <v>4.200895725738224e-24</v>
       </c>
     </row>
     <row r="3">
@@ -1019,10 +1019,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-516.6556566999341</v>
+        <v>-517.1048508792494</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1932748640678528</v>
+        <v>0.1928971513830822</v>
       </c>
     </row>
     <row r="4">
@@ -1032,10 +1032,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-322.7172955086176</v>
+        <v>-321.7618676527944</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3118361242754886</v>
+        <v>0.3132811562835688</v>
       </c>
     </row>
     <row r="5">
@@ -1045,10 +1045,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>81.15013964083693</v>
+        <v>82.2014875827914</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5544738016075086</v>
+        <v>0.5493568014145775</v>
       </c>
     </row>
     <row r="6">
@@ -1058,10 +1058,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-83.8747486373239</v>
+        <v>-83.4319215292098</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5597530761152615</v>
+        <v>0.5618320207821592</v>
       </c>
     </row>
     <row r="7">
@@ -1071,10 +1071,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-123.771687259455</v>
+        <v>-124.6020795200708</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4360776513493833</v>
+        <v>0.4330146246819644</v>
       </c>
     </row>
     <row r="8">
@@ -1084,10 +1084,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-12.00797945367012</v>
+        <v>-12.029523738932</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9341903885698095</v>
+        <v>0.9340738441210027</v>
       </c>
     </row>
     <row r="9">
@@ -1097,10 +1097,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-23.8504837049048</v>
+        <v>-23.15822476067385</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6190428108305399</v>
+        <v>0.6292066661713039</v>
       </c>
     </row>
     <row r="10">
@@ -1110,10 +1110,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1338.473618527528</v>
+        <v>-1338.062923771486</v>
       </c>
       <c r="C10" t="n">
-        <v>5.227055741804322e-35</v>
+        <v>5.488981100945229e-35</v>
       </c>
     </row>
     <row r="11">
@@ -1123,10 +1123,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-24.20670887792534</v>
+        <v>-24.14175587536019</v>
       </c>
       <c r="C11" t="n">
-        <v>1.856558903388581e-06</v>
+        <v>2.008918601345627e-06</v>
       </c>
     </row>
     <row r="12">
@@ -1136,10 +1136,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>84.27945990446096</v>
+        <v>87.57822774715264</v>
       </c>
       <c r="C12" t="n">
-        <v>0.02783454821065711</v>
+        <v>0.0215202950237715</v>
       </c>
     </row>
     <row r="13">
@@ -1149,10 +1149,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>657.0374746401753</v>
+        <v>657.9004447239836</v>
       </c>
       <c r="C13" t="n">
-        <v>6.818626281708279e-200</v>
+        <v>4.904963437468352e-200</v>
       </c>
     </row>
     <row r="14">
@@ -1162,10 +1162,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.04013712072897864</v>
+        <v>-0.03159239509602171</v>
       </c>
       <c r="C14" t="n">
-        <v>0.04029533069275905</v>
+        <v>0.05846489650426721</v>
       </c>
     </row>
     <row r="15">
@@ -1175,10 +1175,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3.973460616875097e-06</v>
+        <v>1.59335285431251e-06</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8974414567715001</v>
+        <v>0.9588871779376786</v>
       </c>
     </row>
     <row r="16">
@@ -1188,10 +1188,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-20.60680057057144</v>
+        <v>-20.74282467682293</v>
       </c>
       <c r="C16" t="n">
-        <v>0.007057231837255588</v>
+        <v>0.006676883911341705</v>
       </c>
     </row>
     <row r="17">
@@ -1201,10 +1201,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-9.539313837975133</v>
+        <v>-9.680840996616581</v>
       </c>
       <c r="C17" t="n">
-        <v>0.01297720302126795</v>
+        <v>0.01163605626032606</v>
       </c>
     </row>
     <row r="18">
@@ -1214,10 +1214,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-438.205207260808</v>
+        <v>-329.151288838354</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5577771075081754</v>
+        <v>0.6543162721762897</v>
       </c>
     </row>
     <row r="19">
@@ -1227,10 +1227,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>111.8533583521482</v>
+        <v>86.42410781280387</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7968365537073372</v>
+        <v>0.8419520750205012</v>
       </c>
     </row>
   </sheetData>
@@ -1276,10 +1276,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7728.644659673484</v>
+        <v>7726.827875265241</v>
       </c>
       <c r="C2" t="n">
-        <v>1.41589421299258e-20</v>
+        <v>1.4741916091868e-20</v>
       </c>
     </row>
     <row r="3">
@@ -1289,10 +1289,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-600.8615349572838</v>
+        <v>-600.4187489483004</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1311580863611746</v>
+        <v>0.1314426899523374</v>
       </c>
     </row>
     <row r="4">
@@ -1302,10 +1302,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-528.6921193921323</v>
+        <v>-529.2273212496325</v>
       </c>
       <c r="C4" t="n">
-        <v>0.09401621344660568</v>
+        <v>0.09369409625721492</v>
       </c>
     </row>
     <row r="5">
@@ -1315,10 +1315,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>62.48898361659739</v>
+        <v>63.01377770202942</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6500019468970142</v>
+        <v>0.6472550144936653</v>
       </c>
     </row>
     <row r="6">
@@ -1328,10 +1328,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>24.94918631153194</v>
+        <v>25.09494912117033</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8627652345260554</v>
+        <v>0.8619713775027211</v>
       </c>
     </row>
     <row r="7">
@@ -1341,10 +1341,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-40.49825393686888</v>
+        <v>-40.82892099273766</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7995325941819054</v>
+        <v>0.7979313379698098</v>
       </c>
     </row>
     <row r="8">
@@ -1354,10 +1354,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>26.36885474381558</v>
+        <v>26.38458867047684</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8556195038965325</v>
+        <v>0.8555346165285751</v>
       </c>
     </row>
     <row r="9">
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-40.45055580917622</v>
+        <v>-40.04904491766108</v>
       </c>
       <c r="C9" t="n">
-        <v>0.401565593378759</v>
+        <v>0.4061429119037081</v>
       </c>
     </row>
     <row r="10">
@@ -1380,10 +1380,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1229.207749920574</v>
+        <v>-1228.884915599072</v>
       </c>
       <c r="C10" t="n">
-        <v>1.111156334037949e-29</v>
+        <v>1.147575647125304e-29</v>
       </c>
     </row>
     <row r="11">
@@ -1393,10 +1393,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-18.60406759170471</v>
+        <v>-18.63413484691683</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0002450532076821222</v>
+        <v>0.0002422047914409224</v>
       </c>
     </row>
     <row r="12">
@@ -1406,10 +1406,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>69.5960333822772</v>
+        <v>71.44677734078851</v>
       </c>
       <c r="C12" t="n">
-        <v>0.06949233371636195</v>
+        <v>0.06092579994190287</v>
       </c>
     </row>
     <row r="13">
@@ -1419,10 +1419,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>656.8128217334928</v>
+        <v>656.80840112063</v>
       </c>
       <c r="C13" t="n">
-        <v>8.690516221694287e-198</v>
+        <v>2.512431295970521e-197</v>
       </c>
     </row>
     <row r="14">
@@ -1432,10 +1432,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.03249636667834034</v>
+        <v>-0.02736291840327242</v>
       </c>
       <c r="C14" t="n">
-        <v>0.09912230800498956</v>
+        <v>0.103877344855684</v>
       </c>
     </row>
     <row r="15">
@@ -1445,10 +1445,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>9.137520569494999e-06</v>
+        <v>9.023789246325566e-06</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7696741925715853</v>
+        <v>0.773128561176483</v>
       </c>
     </row>
     <row r="16">
@@ -1458,10 +1458,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-17.25304083586812</v>
+        <v>-17.32696780771187</v>
       </c>
       <c r="C16" t="n">
-        <v>0.02382236120065977</v>
+        <v>0.02318842306028679</v>
       </c>
     </row>
     <row r="17">
@@ -1471,10 +1471,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-6.744890775413509</v>
+        <v>-6.843271283759769</v>
       </c>
       <c r="C17" t="n">
-        <v>0.08007022395268672</v>
+        <v>0.07557529463744669</v>
       </c>
     </row>
     <row r="18">
@@ -1484,10 +1484,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-462.5964516701861</v>
+        <v>-406.1479873698308</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5371152171467068</v>
+        <v>0.5818214323233528</v>
       </c>
     </row>
     <row r="19">
@@ -1497,10 +1497,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-176.6145978172501</v>
+        <v>-186.2425962987745</v>
       </c>
       <c r="C19" t="n">
-        <v>0.683687952152722</v>
+        <v>0.6666797733689764</v>
       </c>
     </row>
   </sheetData>
@@ -1546,10 +1546,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7338.158854236305</v>
+        <v>7364.833868822603</v>
       </c>
       <c r="C2" t="n">
-        <v>1.611669786872342e-18</v>
+        <v>1.218241449463349e-18</v>
       </c>
     </row>
     <row r="3">
@@ -1559,10 +1559,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-652.1671788881564</v>
+        <v>-652.5100457416922</v>
       </c>
       <c r="C3" t="n">
-        <v>0.105726112408938</v>
+        <v>0.1055359189303735</v>
       </c>
     </row>
     <row r="4">
@@ -1572,10 +1572,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-204.4759604872617</v>
+        <v>-206.2912802255298</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5176029666271771</v>
+        <v>0.513892635524182</v>
       </c>
     </row>
     <row r="5">
@@ -1585,10 +1585,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>64.72360119737506</v>
+        <v>65.59718574485362</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6387028655092286</v>
+        <v>0.6341631057752883</v>
       </c>
     </row>
     <row r="6">
@@ -1598,10 +1598,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>91.19554469363078</v>
+        <v>91.12730784731582</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5290397657242816</v>
+        <v>0.5293393893776354</v>
       </c>
     </row>
     <row r="7">
@@ -1611,10 +1611,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>102.5785371156822</v>
+        <v>102.0015868703839</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5233281534345591</v>
+        <v>0.5256589717081765</v>
       </c>
     </row>
     <row r="8">
@@ -1624,10 +1624,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>104.0688976467908</v>
+        <v>104.1145515362066</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4767675179963349</v>
+        <v>0.4765651100537055</v>
       </c>
     </row>
     <row r="9">
@@ -1637,10 +1637,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-84.84013323354672</v>
+        <v>-85.13932428312327</v>
       </c>
       <c r="C9" t="n">
-        <v>0.08099272083156846</v>
+        <v>0.07987078514193979</v>
       </c>
     </row>
     <row r="10">
@@ -1650,10 +1650,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1178.508720440936</v>
+        <v>-1178.341917384726</v>
       </c>
       <c r="C10" t="n">
-        <v>4.276905536936132e-27</v>
+        <v>4.332002146302962e-27</v>
       </c>
     </row>
     <row r="11">
@@ -1663,10 +1663,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-25.75160861670666</v>
+        <v>-25.92873736473189</v>
       </c>
       <c r="C11" t="n">
-        <v>4.247393547453561e-07</v>
+        <v>3.604985753333723e-07</v>
       </c>
     </row>
     <row r="12">
@@ -1676,10 +1676,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>90.09027949487904</v>
+        <v>90.55442060363532</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01843579638195939</v>
+        <v>0.01723644672737644</v>
       </c>
     </row>
     <row r="13">
@@ -1689,10 +1689,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>639.5423332186783</v>
+        <v>638.3523318933479</v>
       </c>
       <c r="C13" t="n">
-        <v>8.277125807750217e-188</v>
+        <v>7.121139719283936e-187</v>
       </c>
     </row>
     <row r="14">
@@ -1702,10 +1702,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.03558191654299425</v>
+        <v>-0.03340407465426239</v>
       </c>
       <c r="C14" t="n">
-        <v>0.07409870386853493</v>
+        <v>0.04951939828238095</v>
       </c>
     </row>
     <row r="15">
@@ -1715,10 +1715,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-1.125671077147663e-05</v>
+        <v>-7.709063682944274e-06</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7232515736872673</v>
+        <v>0.8090103216402731</v>
       </c>
     </row>
     <row r="16">
@@ -1728,10 +1728,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-12.82484845034787</v>
+        <v>-12.80668311252496</v>
       </c>
       <c r="C16" t="n">
-        <v>0.09751010746763551</v>
+        <v>0.09790062191430809</v>
       </c>
     </row>
     <row r="17">
@@ -1741,10 +1741,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-2.57411525063424</v>
+        <v>-2.648017360400139</v>
       </c>
       <c r="C17" t="n">
-        <v>0.5083047199628035</v>
+        <v>0.495884691156004</v>
       </c>
     </row>
     <row r="18">
@@ -1754,10 +1754,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-96.59678342334701</v>
+        <v>-91.21020581645098</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8979548007576024</v>
+        <v>0.9020368997147262</v>
       </c>
     </row>
     <row r="19">
@@ -1767,10 +1767,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>253.4450805255331</v>
+        <v>263.4005663311268</v>
       </c>
       <c r="C19" t="n">
-        <v>0.5611870102735925</v>
+        <v>0.5448577121695661</v>
       </c>
     </row>
   </sheetData>
@@ -1816,10 +1816,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8083.179097214762</v>
+        <v>8102.362633832112</v>
       </c>
       <c r="C2" t="n">
-        <v>2.620984961939359e-22</v>
+        <v>2.121043935479336e-22</v>
       </c>
     </row>
     <row r="3">
@@ -1829,10 +1829,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-306.2290965591461</v>
+        <v>-305.9098828492993</v>
       </c>
       <c r="C3" t="n">
-        <v>0.450917004143618</v>
+        <v>0.4513868202660402</v>
       </c>
     </row>
     <row r="4">
@@ -1842,10 +1842,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>114.0149188525091</v>
+        <v>113.3109927171392</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7212459594472396</v>
+        <v>0.7228930144481829</v>
       </c>
     </row>
     <row r="5">
@@ -1855,10 +1855,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>73.78277498581008</v>
+        <v>74.13032911674196</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5918321600861438</v>
+        <v>0.5900825672845076</v>
       </c>
     </row>
     <row r="6">
@@ -1868,10 +1868,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-24.44813239810968</v>
+        <v>-24.45914820512148</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8664035138143856</v>
+        <v>0.8663428165437984</v>
       </c>
     </row>
     <row r="7">
@@ -1881,10 +1881,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>46.72533938430794</v>
+        <v>46.68744813907972</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7719683484970939</v>
+        <v>0.7721458686598193</v>
       </c>
     </row>
     <row r="8">
@@ -1894,10 +1894,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>100.1912716717796</v>
+        <v>100.2818513043581</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4933805886260146</v>
+        <v>0.4929870323190569</v>
       </c>
     </row>
     <row r="9">
@@ -1907,10 +1907,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-65.43105794864027</v>
+        <v>-65.68196301511203</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1780930763935992</v>
+        <v>0.1763432722129444</v>
       </c>
     </row>
     <row r="10">
@@ -1920,10 +1920,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1360.616152131323</v>
+        <v>-1360.519689186247</v>
       </c>
       <c r="C10" t="n">
-        <v>2.029462180566388e-35</v>
+        <v>2.049747314905113e-35</v>
       </c>
     </row>
     <row r="11">
@@ -1933,10 +1933,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-23.63562329584926</v>
+        <v>-23.75145658495695</v>
       </c>
       <c r="C11" t="n">
-        <v>3.969310493237059e-06</v>
+        <v>3.63400729052899e-06</v>
       </c>
     </row>
     <row r="12">
@@ -1946,10 +1946,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>72.91328852127043</v>
+        <v>72.79773010520842</v>
       </c>
       <c r="C12" t="n">
-        <v>0.05684106764163201</v>
+        <v>0.05583731086580133</v>
       </c>
     </row>
     <row r="13">
@@ -1959,10 +1959,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>671.8983394768113</v>
+        <v>671.065968030334</v>
       </c>
       <c r="C13" t="n">
-        <v>7.185788400130627e-205</v>
+        <v>6.056609727476304e-204</v>
       </c>
     </row>
     <row r="14">
@@ -1972,10 +1972,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.01559897211303356</v>
+        <v>-0.01537659527750936</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4318890717406703</v>
+        <v>0.3643792391915435</v>
       </c>
     </row>
     <row r="15">
@@ -1985,10 +1985,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-2.006395307266854e-05</v>
+        <v>-1.784391621527761e-05</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5216886378979957</v>
+        <v>0.5697850697856008</v>
       </c>
     </row>
     <row r="16">
@@ -1998,10 +1998,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-16.83662983237305</v>
+        <v>-16.81604070053336</v>
       </c>
       <c r="C16" t="n">
-        <v>0.02887122889655788</v>
+        <v>0.02902317275509392</v>
       </c>
     </row>
     <row r="17">
@@ -2011,10 +2011,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-9.535273564195457</v>
+        <v>-9.561715209836255</v>
       </c>
       <c r="C17" t="n">
-        <v>0.01316448884391353</v>
+        <v>0.01285406954782898</v>
       </c>
     </row>
     <row r="18">
@@ -2024,10 +2024,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>356.2254585601627</v>
+        <v>347.5657807929392</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6380191906795812</v>
+        <v>0.6405554919257657</v>
       </c>
     </row>
     <row r="19">
@@ -2037,10 +2037,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-103.6271094426054</v>
+        <v>-94.7001851244072</v>
       </c>
       <c r="C19" t="n">
-        <v>0.8125777870835729</v>
+        <v>0.8280533320494776</v>
       </c>
     </row>
   </sheetData>
@@ -2086,10 +2086,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8623.152312800143</v>
+        <v>8622.520344304083</v>
       </c>
       <c r="C2" t="n">
-        <v>5.251371653333158e-25</v>
+        <v>5.417843050041039e-25</v>
       </c>
     </row>
     <row r="3">
@@ -2099,10 +2099,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-551.8731462091581</v>
+        <v>-551.926192101368</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1701054245810611</v>
+        <v>0.1700648368753145</v>
       </c>
     </row>
     <row r="4">
@@ -2112,10 +2112,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8.734430730333543</v>
+        <v>8.697574307513264</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9778901243546525</v>
+        <v>0.9779835340134484</v>
       </c>
     </row>
     <row r="5">
@@ -2125,10 +2125,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>152.0455090560976</v>
+        <v>152.6749201891291</v>
       </c>
       <c r="C5" t="n">
-        <v>0.266239250851959</v>
+        <v>0.2642561605620293</v>
       </c>
     </row>
     <row r="6">
@@ -2138,10 +2138,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>27.67564686284209</v>
+        <v>27.48871596795344</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8478190740668947</v>
+        <v>0.8488343944308604</v>
       </c>
     </row>
     <row r="7">
@@ -2151,10 +2151,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-13.42832120875229</v>
+        <v>-14.03561562186147</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9329718049272713</v>
+        <v>0.9299475617442189</v>
       </c>
     </row>
     <row r="8">
@@ -2164,10 +2164,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>73.71735081751521</v>
+        <v>73.55797996332697</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6121399869305452</v>
+        <v>0.6129087006159046</v>
       </c>
     </row>
     <row r="9">
@@ -2177,10 +2177,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-26.16749437781162</v>
+        <v>-25.98626522141861</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5883572190277686</v>
+        <v>0.590894798437102</v>
       </c>
     </row>
     <row r="10">
@@ -2190,10 +2190,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1293.716505835313</v>
+        <v>-1293.451835993735</v>
       </c>
       <c r="C10" t="n">
-        <v>1.193035309795364e-32</v>
+        <v>1.226281269637663e-32</v>
       </c>
     </row>
     <row r="11">
@@ -2203,10 +2203,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-23.1630201668919</v>
+        <v>-23.19425511222323</v>
       </c>
       <c r="C11" t="n">
-        <v>5.284820398170874e-06</v>
+        <v>5.224756975453174e-06</v>
       </c>
     </row>
     <row r="12">
@@ -2216,10 +2216,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>99.30105233064745</v>
+        <v>100.7612096803931</v>
       </c>
       <c r="C12" t="n">
-        <v>0.008975093773776067</v>
+        <v>0.007674710727906961</v>
       </c>
     </row>
     <row r="13">
@@ -2229,10 +2229,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>662.0218170755567</v>
+        <v>662.0124168008587</v>
       </c>
       <c r="C13" t="n">
-        <v>2.952924662481435e-202</v>
+        <v>6.278787323768872e-202</v>
       </c>
     </row>
     <row r="14">
@@ -2242,10 +2242,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.02731177844342783</v>
+        <v>-0.02310819474489625</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1711258094847465</v>
+        <v>0.1752208435258837</v>
       </c>
     </row>
     <row r="15">
@@ -2255,10 +2255,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-9.905964191799421e-06</v>
+        <v>-9.883183027626885e-06</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7564724984480571</v>
+        <v>0.7578051561651558</v>
       </c>
     </row>
     <row r="16">
@@ -2268,10 +2268,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-22.75537101226097</v>
+        <v>-22.81482342172613</v>
       </c>
       <c r="C16" t="n">
-        <v>0.003064252805885974</v>
+        <v>0.00298116020142572</v>
       </c>
     </row>
     <row r="17">
@@ -2281,10 +2281,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-14.03315634102001</v>
+        <v>-14.11381533121496</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0002954629447181561</v>
+        <v>0.0002704547085140748</v>
       </c>
     </row>
     <row r="18">
@@ -2294,10 +2294,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>427.1517790459802</v>
+        <v>474.1696064921571</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5721848383834396</v>
+        <v>0.5236989249482324</v>
       </c>
     </row>
     <row r="19">
@@ -2307,10 +2307,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>180.8753973651013</v>
+        <v>173.4455079786612</v>
       </c>
       <c r="C19" t="n">
-        <v>0.6756248461261445</v>
+        <v>0.6874841029741464</v>
       </c>
     </row>
   </sheetData>
@@ -2356,10 +2356,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8215.414710940282</v>
+        <v>8216.353130142877</v>
       </c>
       <c r="C2" t="n">
-        <v>2.748425088579677e-23</v>
+        <v>2.718295559883529e-23</v>
       </c>
     </row>
     <row r="3">
@@ -2369,10 +2369,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-536.8191348345391</v>
+        <v>-537.3109968520348</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1967328684527111</v>
+        <v>0.1963238488784874</v>
       </c>
     </row>
     <row r="4">
@@ -2382,10 +2382,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-347.4781317684481</v>
+        <v>-347.7865192063899</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2684154445401065</v>
+        <v>0.2679978626677078</v>
       </c>
     </row>
     <row r="5">
@@ -2395,10 +2395,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.831571521339868</v>
+        <v>2.16308857501366</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9893361884723103</v>
+        <v>0.9874060178484025</v>
       </c>
     </row>
     <row r="6">
@@ -2408,10 +2408,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-14.22604238649454</v>
+        <v>-14.26394987435994</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9214670126601936</v>
+        <v>0.921258519390616</v>
       </c>
     </row>
     <row r="7">
@@ -2421,10 +2421,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-54.65857507417161</v>
+        <v>-55.03601081066181</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7326034868536753</v>
+        <v>0.7308259923572382</v>
       </c>
     </row>
     <row r="8">
@@ -2434,10 +2434,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>85.15761819372401</v>
+        <v>85.14113095140539</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5570790349429643</v>
+        <v>0.5571548878052117</v>
       </c>
     </row>
     <row r="9">
@@ -2447,10 +2447,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-48.11494271586708</v>
+        <v>-48.00455964849351</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3192405649350508</v>
+        <v>0.3202723423292771</v>
       </c>
     </row>
     <row r="10">
@@ -2460,10 +2460,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1371.229715925994</v>
+        <v>-1371.007105284357</v>
       </c>
       <c r="C10" t="n">
-        <v>1.707444555220865e-36</v>
+        <v>1.748522444439777e-36</v>
       </c>
     </row>
     <row r="11">
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-24.07073080416978</v>
+        <v>-24.10430832355978</v>
       </c>
       <c r="C11" t="n">
-        <v>2.015026781845449e-06</v>
+        <v>1.985464492040626e-06</v>
       </c>
     </row>
     <row r="12">
@@ -2486,10 +2486,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>115.8503089309394</v>
+        <v>116.9099676225085</v>
       </c>
       <c r="C12" t="n">
-        <v>0.002332064559072641</v>
+        <v>0.002005200597948581</v>
       </c>
     </row>
     <row r="13">
@@ -2499,10 +2499,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>663.8598820986031</v>
+        <v>663.7327084078242</v>
       </c>
       <c r="C13" t="n">
-        <v>1.254201676542998e-204</v>
+        <v>4.070113118986249e-204</v>
       </c>
     </row>
     <row r="14">
@@ -2512,10 +2512,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.02131627537337932</v>
+        <v>-0.01828924950843056</v>
       </c>
       <c r="C14" t="n">
-        <v>0.280036284248888</v>
+        <v>0.2773460188074902</v>
       </c>
     </row>
     <row r="15">
@@ -2525,10 +2525,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-7.620212919966229e-06</v>
+        <v>-7.382335305984324e-06</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8080408081718039</v>
+        <v>0.8143154029211082</v>
       </c>
     </row>
     <row r="16">
@@ -2538,10 +2538,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-18.74748312901669</v>
+        <v>-18.77369093085194</v>
       </c>
       <c r="C16" t="n">
-        <v>0.01413953675818372</v>
+        <v>0.01398837895840358</v>
       </c>
     </row>
     <row r="17">
@@ -2551,10 +2551,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-10.17985603944635</v>
+        <v>-10.23652712370759</v>
       </c>
       <c r="C17" t="n">
-        <v>0.007569694648926965</v>
+        <v>0.007203465900822257</v>
       </c>
     </row>
     <row r="18">
@@ -2564,10 +2564,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>580.3182660727816</v>
+        <v>613.2534717332674</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4383429404487409</v>
+        <v>0.4047580115490497</v>
       </c>
     </row>
     <row r="19">
@@ -2577,10 +2577,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-90.33781159547755</v>
+        <v>-94.67359964877187</v>
       </c>
       <c r="C19" t="n">
-        <v>0.8344570130398246</v>
+        <v>0.8261939661285238</v>
       </c>
     </row>
   </sheetData>
@@ -2626,10 +2626,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8067.715143744563</v>
+        <v>8086.189493966564</v>
       </c>
       <c r="C2" t="n">
-        <v>4.027239558326346e-22</v>
+        <v>3.279214202275371e-22</v>
       </c>
     </row>
     <row r="3">
@@ -2639,10 +2639,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-906.015621383606</v>
+        <v>-905.6174663683846</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02640092028998794</v>
+        <v>0.02646601276319411</v>
       </c>
     </row>
     <row r="4">
@@ -2652,10 +2652,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-240.6792842714269</v>
+        <v>-241.1296642465669</v>
       </c>
       <c r="C4" t="n">
-        <v>0.449043461493051</v>
+        <v>0.4481913024651119</v>
       </c>
     </row>
     <row r="5">
@@ -2665,10 +2665,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-107.1872914954463</v>
+        <v>-106.881971636377</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4372164233525039</v>
+        <v>0.4385080163674809</v>
       </c>
     </row>
     <row r="6">
@@ -2678,10 +2678,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>81.29703773937452</v>
+        <v>81.25174110292076</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5743403358877359</v>
+        <v>0.5745496781118323</v>
       </c>
     </row>
     <row r="7">
@@ -2691,10 +2691,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-17.60393214009697</v>
+        <v>-17.71913187165026</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9119968636758611</v>
+        <v>0.9114219463463867</v>
       </c>
     </row>
     <row r="8">
@@ -2704,10 +2704,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>127.1104883395576</v>
+        <v>127.2458546310765</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3827674099153409</v>
+        <v>0.382258700743192</v>
       </c>
     </row>
     <row r="9">
@@ -2717,10 +2717,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-36.51062156477829</v>
+        <v>-36.73856472909881</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4487254964559404</v>
+        <v>0.4458224580966156</v>
       </c>
     </row>
     <row r="10">
@@ -2730,10 +2730,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1296.439692640764</v>
+        <v>-1296.515054102055</v>
       </c>
       <c r="C10" t="n">
-        <v>1.203649777154697e-32</v>
+        <v>1.192386282725109e-32</v>
       </c>
     </row>
     <row r="11">
@@ -2743,10 +2743,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-27.0230578484226</v>
+        <v>-27.13470139045942</v>
       </c>
       <c r="C11" t="n">
-        <v>9.99492242731766e-08</v>
+        <v>9.046238142192647e-08</v>
       </c>
     </row>
     <row r="12">
@@ -2756,10 +2756,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>120.7645245379774</v>
+        <v>120.7484593849956</v>
       </c>
       <c r="C12" t="n">
-        <v>0.001604387947855875</v>
+        <v>0.001514326584343826</v>
       </c>
     </row>
     <row r="13">
@@ -2769,10 +2769,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>653.3264391405519</v>
+        <v>652.5197829756576</v>
       </c>
       <c r="C13" t="n">
-        <v>9.644825349964771e-194</v>
+        <v>6.930754376351835e-193</v>
       </c>
     </row>
     <row r="14">
@@ -2782,10 +2782,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.01678056998157965</v>
+        <v>-0.01639327251402022</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3985707055259393</v>
+        <v>0.3349358873807202</v>
       </c>
     </row>
     <row r="15">
@@ -2795,10 +2795,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-1.688489702640487e-05</v>
+        <v>-1.452462369657315e-05</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5954201914738777</v>
+        <v>0.649215905100829</v>
       </c>
     </row>
     <row r="16">
@@ -2808,10 +2808,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-15.64096347577303</v>
+        <v>-15.63164674139307</v>
       </c>
       <c r="C16" t="n">
-        <v>0.04264542857543002</v>
+        <v>0.04270797125754913</v>
       </c>
     </row>
     <row r="17">
@@ -2821,10 +2821,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-8.603608014336348</v>
+        <v>-8.633152599752876</v>
       </c>
       <c r="C17" t="n">
-        <v>0.02591593179138769</v>
+        <v>0.02531465847243268</v>
       </c>
     </row>
     <row r="18">
@@ -2834,10 +2834,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>356.6212448709889</v>
+        <v>348.7326887289219</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6365803923596043</v>
+        <v>0.6387009199513922</v>
       </c>
     </row>
     <row r="19">
@@ -2847,10 +2847,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>66.86575626515014</v>
+        <v>75.81067750237025</v>
       </c>
       <c r="C19" t="n">
-        <v>0.8777293620607056</v>
+        <v>0.8612083404817007</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/dist_commute/Berlin.xlsx
+++ b/outputs/ML_Results/dist_commute/Berlin.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ24020574" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ24568600" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ25145909" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ25717276" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ26289610" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ26894081" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ27573131" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ28157992" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ28816908" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ38795120" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ40851076" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ42911277" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ44955807" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ47015845" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ49059998" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ51171919" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ53627623" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ55889202" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -466,10 +466,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8178.772395027099</v>
+        <v>9985.427893824863</v>
       </c>
       <c r="C2" t="n">
-        <v>8.203531870268398e-23</v>
+        <v>3.477920346986087e-29</v>
       </c>
     </row>
     <row r="3">
@@ -479,10 +479,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-641.9834718432111</v>
+        <v>-676.5396609609974</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1067796485152576</v>
+        <v>0.115928544276952</v>
       </c>
     </row>
     <row r="4">
@@ -492,10 +492,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-203.2017797549923</v>
+        <v>-240.0926798390714</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5250057696982646</v>
+        <v>0.4744033282685449</v>
       </c>
     </row>
     <row r="5">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>40.23942052609073</v>
+        <v>290.5404529742237</v>
       </c>
       <c r="C5" t="n">
-        <v>0.771266364009179</v>
+        <v>0.04914733960560607</v>
       </c>
     </row>
     <row r="6">
@@ -518,10 +518,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-112.8103189182527</v>
+        <v>-66.93728098937311</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4370849987905434</v>
+        <v>0.6650817735101244</v>
       </c>
     </row>
     <row r="7">
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.567493815263134</v>
+        <v>-28.95548997259701</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9872371171078341</v>
+        <v>0.8661654220621442</v>
       </c>
     </row>
     <row r="8">
@@ -544,10 +544,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>62.47927028061913</v>
+        <v>17.84883055529387</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6683421316482134</v>
+        <v>0.9090101854322037</v>
       </c>
     </row>
     <row r="9">
@@ -557,10 +557,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-66.64805026230627</v>
+        <v>-38.75815365900732</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1692206402031637</v>
+        <v>0.4552578422302356</v>
       </c>
     </row>
     <row r="10">
@@ -570,10 +570,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1328.027541905499</v>
+        <v>-1499.285402875631</v>
       </c>
       <c r="C10" t="n">
-        <v>5.08858224795884e-34</v>
+        <v>9.805512560872286e-38</v>
       </c>
     </row>
     <row r="11">
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-25.14323686128788</v>
+        <v>-23.98737925085526</v>
       </c>
       <c r="C11" t="n">
-        <v>7.639842666617522e-07</v>
+        <v>1.050176953037126e-05</v>
       </c>
     </row>
     <row r="12">
@@ -596,10 +596,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>74.18995526414943</v>
+        <v>19.44135817985828</v>
       </c>
       <c r="C12" t="n">
-        <v>0.05305339588308229</v>
+        <v>0.6321537428095924</v>
       </c>
     </row>
     <row r="13">
@@ -609,10 +609,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>650.3166602870095</v>
+        <v>623.6257390309934</v>
       </c>
       <c r="C13" t="n">
-        <v>1.092953688222397e-193</v>
+        <v>1.540266646355226e-157</v>
       </c>
     </row>
     <row r="14">
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.02540088777143187</v>
+        <v>-0.0282824929749259</v>
       </c>
       <c r="C14" t="n">
-        <v>0.134239427886842</v>
+        <v>0.1193409729551718</v>
       </c>
     </row>
     <row r="15">
@@ -635,10 +635,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-1.770604662159476e-05</v>
+        <v>-2.239846185906783e-05</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5729683286793446</v>
+        <v>0.5025239201353433</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-15.42875571452888</v>
+        <v>-28.60174766793438</v>
       </c>
       <c r="C16" t="n">
-        <v>0.04483094129181924</v>
+        <v>0.0005395870900822194</v>
       </c>
     </row>
     <row r="17">
@@ -661,10 +661,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-7.386588607517933</v>
+        <v>-11.96883226909697</v>
       </c>
       <c r="C17" t="n">
-        <v>0.05632517856021817</v>
+        <v>0.003696294794062205</v>
       </c>
     </row>
     <row r="18">
@@ -674,10 +674,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-109.0164700918131</v>
+        <v>-286.2741092693282</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8832654371557267</v>
+        <v>0.7173886727303542</v>
       </c>
     </row>
     <row r="19">
@@ -687,10 +687,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>32.16936758957354</v>
+        <v>-58.12909855919696</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9411149934755557</v>
+        <v>0.9000461298160582</v>
       </c>
     </row>
   </sheetData>
@@ -736,10 +736,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8323.897808068523</v>
+        <v>7753.555661438842</v>
       </c>
       <c r="C2" t="n">
-        <v>2.752088678988473e-23</v>
+        <v>1.89473937912484e-18</v>
       </c>
     </row>
     <row r="3">
@@ -749,10 +749,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-372.0614335014359</v>
+        <v>-879.7731537167293</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3550939250129226</v>
+        <v>0.03726660811703876</v>
       </c>
     </row>
     <row r="4">
@@ -762,10 +762,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-292.9818223346705</v>
+        <v>-56.03149275853252</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3526426123096673</v>
+        <v>0.8666950668560134</v>
       </c>
     </row>
     <row r="5">
@@ -775,10 +775,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-16.41507723391487</v>
+        <v>49.23874951413086</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9048998100328873</v>
+        <v>0.7379484096819489</v>
       </c>
     </row>
     <row r="6">
@@ -788,10 +788,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>64.49095051162641</v>
+        <v>-81.68053208778952</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6544341649932366</v>
+        <v>0.5951441601690282</v>
       </c>
     </row>
     <row r="7">
@@ -801,10 +801,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>37.19340547525994</v>
+        <v>-91.29516362445065</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8155943974183699</v>
+        <v>0.5907444614695931</v>
       </c>
     </row>
     <row r="8">
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>176.8331672008806</v>
+        <v>42.73461518634929</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2240258020051572</v>
+        <v>0.7827061295973852</v>
       </c>
     </row>
     <row r="9">
@@ -827,10 +827,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-34.66586805273019</v>
+        <v>-90.06078761768435</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4718542804513868</v>
+        <v>0.08012171725461696</v>
       </c>
     </row>
     <row r="10">
@@ -840,10 +840,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1327.114082967366</v>
+        <v>-1517.36267929315</v>
       </c>
       <c r="C10" t="n">
-        <v>2.762332336365539e-34</v>
+        <v>3.149476610336647e-39</v>
       </c>
     </row>
     <row r="11">
@@ -853,10 +853,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-21.89766012432628</v>
+        <v>-23.68618535434137</v>
       </c>
       <c r="C11" t="n">
-        <v>1.645119448919087e-05</v>
+        <v>1.066644210108077e-05</v>
       </c>
     </row>
     <row r="12">
@@ -866,10 +866,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>111.9453941316421</v>
+        <v>85.24798464961265</v>
       </c>
       <c r="C12" t="n">
-        <v>0.003222906942139999</v>
+        <v>0.03453408802068064</v>
       </c>
     </row>
     <row r="13">
@@ -879,10 +879,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>650.4224370559476</v>
+        <v>658.5228231067866</v>
       </c>
       <c r="C13" t="n">
-        <v>1.831545828172513e-194</v>
+        <v>1.394020867465594e-178</v>
       </c>
     </row>
     <row r="14">
@@ -892,10 +892,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.01834974268337124</v>
+        <v>-0.01113281861985968</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2775578955169751</v>
+        <v>0.5350947804151207</v>
       </c>
     </row>
     <row r="15">
@@ -905,10 +905,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-1.964192475467655e-05</v>
+        <v>-2.01985464369671e-05</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5360248199699753</v>
+        <v>0.5409635271232949</v>
       </c>
     </row>
     <row r="16">
@@ -918,10 +918,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-23.31231546665168</v>
+        <v>-10.88897305529976</v>
       </c>
       <c r="C16" t="n">
-        <v>0.002284060785789463</v>
+        <v>0.1828168737594434</v>
       </c>
     </row>
     <row r="17">
@@ -931,10 +931,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-9.93567221195962</v>
+        <v>-4.190912285657113</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0106670613702506</v>
+        <v>0.3063453833133351</v>
       </c>
     </row>
     <row r="18">
@@ -944,10 +944,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>314.9202021317424</v>
+        <v>869.9146259293684</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6718745805881288</v>
+        <v>0.2670760687941097</v>
       </c>
     </row>
     <row r="19">
@@ -957,10 +957,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>8.741919144748863</v>
+        <v>-98.12059787738292</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9838806093071091</v>
+        <v>0.8309171110435681</v>
       </c>
     </row>
   </sheetData>
@@ -1006,10 +1006,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8395.73589617429</v>
+        <v>10061.00934563767</v>
       </c>
       <c r="C2" t="n">
-        <v>4.200895725738224e-24</v>
+        <v>3.118972262896798e-29</v>
       </c>
     </row>
     <row r="3">
@@ -1019,10 +1019,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-517.1048508792494</v>
+        <v>-816.1387356800526</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1928971513830822</v>
+        <v>0.05903551785507736</v>
       </c>
     </row>
     <row r="4">
@@ -1032,10 +1032,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-321.7618676527944</v>
+        <v>132.6322118103427</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3132811562835688</v>
+        <v>0.6958930129623471</v>
       </c>
     </row>
     <row r="5">
@@ -1045,10 +1045,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82.2014875827914</v>
+        <v>138.6852133078874</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5493568014145775</v>
+        <v>0.3448824625366586</v>
       </c>
     </row>
     <row r="6">
@@ -1058,10 +1058,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-83.4319215292098</v>
+        <v>-12.59503671944285</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5618320207821592</v>
+        <v>0.9353238158798718</v>
       </c>
     </row>
     <row r="7">
@@ -1071,10 +1071,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-124.6020795200708</v>
+        <v>-1.054758657068362</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4330146246819644</v>
+        <v>0.9951045641558069</v>
       </c>
     </row>
     <row r="8">
@@ -1084,10 +1084,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-12.029523738932</v>
+        <v>60.86137160463062</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9340738441210027</v>
+        <v>0.6967806791428013</v>
       </c>
     </row>
     <row r="9">
@@ -1097,10 +1097,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-23.15822476067385</v>
+        <v>-58.06848563529059</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6292066661713039</v>
+        <v>0.2630112289990382</v>
       </c>
     </row>
     <row r="10">
@@ -1110,10 +1110,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1338.062923771486</v>
+        <v>-1546.404518691376</v>
       </c>
       <c r="C10" t="n">
-        <v>5.488981100945229e-35</v>
+        <v>7.306826404298707e-40</v>
       </c>
     </row>
     <row r="11">
@@ -1123,10 +1123,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-24.14175587536019</v>
+        <v>-27.51062411545706</v>
       </c>
       <c r="C11" t="n">
-        <v>2.008918601345627e-06</v>
+        <v>4.474413490472333e-07</v>
       </c>
     </row>
     <row r="12">
@@ -1136,10 +1136,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>87.57822774715264</v>
+        <v>88.10493481914814</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0215202950237715</v>
+        <v>0.03093354611899402</v>
       </c>
     </row>
     <row r="13">
@@ -1149,10 +1149,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>657.9004447239836</v>
+        <v>610.7828651555064</v>
       </c>
       <c r="C13" t="n">
-        <v>4.904963437468352e-200</v>
+        <v>1.722918005737465e-150</v>
       </c>
     </row>
     <row r="14">
@@ -1162,10 +1162,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.03159239509602171</v>
+        <v>-0.02966779156836065</v>
       </c>
       <c r="C14" t="n">
-        <v>0.05846489650426721</v>
+        <v>0.1037084969344731</v>
       </c>
     </row>
     <row r="15">
@@ -1175,10 +1175,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.59335285431251e-06</v>
+        <v>-9.687799138982395e-06</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9588871779376786</v>
+        <v>0.7745140554771355</v>
       </c>
     </row>
     <row r="16">
@@ -1188,10 +1188,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-20.74282467682293</v>
+        <v>-25.91828534493242</v>
       </c>
       <c r="C16" t="n">
-        <v>0.006676883911341705</v>
+        <v>0.001707198262447946</v>
       </c>
     </row>
     <row r="17">
@@ -1201,10 +1201,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-9.680840996616581</v>
+        <v>-10.71613082481439</v>
       </c>
       <c r="C17" t="n">
-        <v>0.01163605626032606</v>
+        <v>0.01025866169095251</v>
       </c>
     </row>
     <row r="18">
@@ -1214,10 +1214,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-329.151288838354</v>
+        <v>-748.2860900492974</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6543162721762897</v>
+        <v>0.3467706969865342</v>
       </c>
     </row>
     <row r="19">
@@ -1227,10 +1227,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>86.42410781280387</v>
+        <v>-254.9170494165512</v>
       </c>
       <c r="C19" t="n">
-        <v>0.8419520750205012</v>
+        <v>0.5839102800224482</v>
       </c>
     </row>
   </sheetData>
@@ -1276,10 +1276,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7726.827875265241</v>
+        <v>9056.680244697192</v>
       </c>
       <c r="C2" t="n">
-        <v>1.4741916091868e-20</v>
+        <v>7.308672815188654e-24</v>
       </c>
     </row>
     <row r="3">
@@ -1289,10 +1289,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-600.4187489483004</v>
+        <v>-884.4955831739638</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1314426899523374</v>
+        <v>0.03869729910082153</v>
       </c>
     </row>
     <row r="4">
@@ -1302,10 +1302,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-529.2273212496325</v>
+        <v>-56.10468002213747</v>
       </c>
       <c r="C4" t="n">
-        <v>0.09369409625721492</v>
+        <v>0.8690224431748561</v>
       </c>
     </row>
     <row r="5">
@@ -1315,10 +1315,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63.01377770202942</v>
+        <v>233.6937162951199</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6472550144936653</v>
+        <v>0.1119670113505891</v>
       </c>
     </row>
     <row r="6">
@@ -1328,10 +1328,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>25.09494912117033</v>
+        <v>23.79618863511283</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8619713775027211</v>
+        <v>0.8783487403297132</v>
       </c>
     </row>
     <row r="7">
@@ -1341,10 +1341,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-40.82892099273766</v>
+        <v>147.3940374368258</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7979313379698098</v>
+        <v>0.3891060025853159</v>
       </c>
     </row>
     <row r="8">
@@ -1354,10 +1354,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>26.38458867047684</v>
+        <v>-30.43156881378006</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8555346165285751</v>
+        <v>0.8457511709363752</v>
       </c>
     </row>
     <row r="9">
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-40.04904491766108</v>
+        <v>-54.34770298782142</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4061429119037081</v>
+        <v>0.2946618208044275</v>
       </c>
     </row>
     <row r="10">
@@ -1380,10 +1380,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1228.884915599072</v>
+        <v>-1531.227723100842</v>
       </c>
       <c r="C10" t="n">
-        <v>1.147575647125304e-29</v>
+        <v>3.854382471128897e-39</v>
       </c>
     </row>
     <row r="11">
@@ -1393,10 +1393,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-18.63413484691683</v>
+        <v>-26.72237381251063</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0002422047914409224</v>
+        <v>9.743140296916343e-07</v>
       </c>
     </row>
     <row r="12">
@@ -1406,10 +1406,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>71.44677734078851</v>
+        <v>76.48245357502378</v>
       </c>
       <c r="C12" t="n">
-        <v>0.06092579994190287</v>
+        <v>0.05933140503166975</v>
       </c>
     </row>
     <row r="13">
@@ -1419,10 +1419,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>656.80840112063</v>
+        <v>641.1368905570779</v>
       </c>
       <c r="C13" t="n">
-        <v>2.512431295970521e-197</v>
+        <v>3.602596287178595e-165</v>
       </c>
     </row>
     <row r="14">
@@ -1432,10 +1432,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.02736291840327242</v>
+        <v>-0.01925967527079607</v>
       </c>
       <c r="C14" t="n">
-        <v>0.103877344855684</v>
+        <v>0.2911234667885396</v>
       </c>
     </row>
     <row r="15">
@@ -1445,10 +1445,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>9.023789246325566e-06</v>
+        <v>-1.582152795755334e-05</v>
       </c>
       <c r="C15" t="n">
-        <v>0.773128561176483</v>
+        <v>0.6419535280441302</v>
       </c>
     </row>
     <row r="16">
@@ -1458,10 +1458,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-17.32696780771187</v>
+        <v>-18.64094501326709</v>
       </c>
       <c r="C16" t="n">
-        <v>0.02318842306028679</v>
+        <v>0.02384870639937644</v>
       </c>
     </row>
     <row r="17">
@@ -1471,10 +1471,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-6.843271283759769</v>
+        <v>-9.860211043057831</v>
       </c>
       <c r="C17" t="n">
-        <v>0.07557529463744669</v>
+        <v>0.01810806305427318</v>
       </c>
     </row>
     <row r="18">
@@ -1484,10 +1484,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-406.1479873698308</v>
+        <v>135.0131121197096</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5818214323233528</v>
+        <v>0.8660086179180904</v>
       </c>
     </row>
     <row r="19">
@@ -1497,10 +1497,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-186.2425962987745</v>
+        <v>-208.1218417966449</v>
       </c>
       <c r="C19" t="n">
-        <v>0.6666797733689764</v>
+        <v>0.6543248581731724</v>
       </c>
     </row>
   </sheetData>
@@ -1546,10 +1546,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7364.833868822603</v>
+        <v>9648.105376500605</v>
       </c>
       <c r="C2" t="n">
-        <v>1.218241449463349e-18</v>
+        <v>3.129664793971856e-27</v>
       </c>
     </row>
     <row r="3">
@@ -1559,10 +1559,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-652.5100457416922</v>
+        <v>-705.8230847579105</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1055359189303735</v>
+        <v>0.1067218410642645</v>
       </c>
     </row>
     <row r="4">
@@ -1572,10 +1572,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-206.2912802255298</v>
+        <v>-242.9998578402417</v>
       </c>
       <c r="C4" t="n">
-        <v>0.513892635524182</v>
+        <v>0.4751426366195707</v>
       </c>
     </row>
     <row r="5">
@@ -1585,10 +1585,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>65.59718574485362</v>
+        <v>47.73498197238098</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6341631057752883</v>
+        <v>0.7466569291386465</v>
       </c>
     </row>
     <row r="6">
@@ -1598,10 +1598,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>91.12730784731582</v>
+        <v>9.240839542927972</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5293393893776354</v>
+        <v>0.9526768269052142</v>
       </c>
     </row>
     <row r="7">
@@ -1611,10 +1611,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>102.0015868703839</v>
+        <v>60.08768177033767</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5256589717081765</v>
+        <v>0.7257762902264644</v>
       </c>
     </row>
     <row r="8">
@@ -1624,10 +1624,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>104.1145515362066</v>
+        <v>124.3735085298664</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4765651100537055</v>
+        <v>0.4277884999816258</v>
       </c>
     </row>
     <row r="9">
@@ -1637,10 +1637,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-85.13932428312327</v>
+        <v>-64.9094218551318</v>
       </c>
       <c r="C9" t="n">
-        <v>0.07987078514193979</v>
+        <v>0.2120206156625004</v>
       </c>
     </row>
     <row r="10">
@@ -1650,10 +1650,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1178.341917384726</v>
+        <v>-1666.23247856005</v>
       </c>
       <c r="C10" t="n">
-        <v>4.332002146302962e-27</v>
+        <v>9.277266583337651e-46</v>
       </c>
     </row>
     <row r="11">
@@ -1663,10 +1663,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-25.92873736473189</v>
+        <v>-27.202612882831</v>
       </c>
       <c r="C11" t="n">
-        <v>3.604985753333723e-07</v>
+        <v>6.829868488840042e-07</v>
       </c>
     </row>
     <row r="12">
@@ -1676,10 +1676,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>90.55442060363532</v>
+        <v>44.53285985322046</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01723644672737644</v>
+        <v>0.2773361563007641</v>
       </c>
     </row>
     <row r="13">
@@ -1689,10 +1689,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>638.3523318933479</v>
+        <v>630.3134697256348</v>
       </c>
       <c r="C13" t="n">
-        <v>7.121139719283936e-187</v>
+        <v>1.927978056415103e-159</v>
       </c>
     </row>
     <row r="14">
@@ -1702,10 +1702,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.03340407465426239</v>
+        <v>-0.03339356558330145</v>
       </c>
       <c r="C14" t="n">
-        <v>0.04951939828238095</v>
+        <v>0.06779507815806539</v>
       </c>
     </row>
     <row r="15">
@@ -1715,10 +1715,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-7.709063682944274e-06</v>
+        <v>1.735447977860749e-06</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8090103216402731</v>
+        <v>0.959320406320588</v>
       </c>
     </row>
     <row r="16">
@@ -1728,10 +1728,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-12.80668311252496</v>
+        <v>-21.98800873613344</v>
       </c>
       <c r="C16" t="n">
-        <v>0.09790062191430809</v>
+        <v>0.007553490873522967</v>
       </c>
     </row>
     <row r="17">
@@ -1741,10 +1741,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-2.648017360400139</v>
+        <v>-10.40964215959238</v>
       </c>
       <c r="C17" t="n">
-        <v>0.495884691156004</v>
+        <v>0.01151485437487731</v>
       </c>
     </row>
     <row r="18">
@@ -1754,10 +1754,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-91.21020581645098</v>
+        <v>-46.65354454537464</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9020368997147262</v>
+        <v>0.9533859758584275</v>
       </c>
     </row>
     <row r="19">
@@ -1767,10 +1767,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>263.4005663311268</v>
+        <v>2.789151338745683</v>
       </c>
       <c r="C19" t="n">
-        <v>0.5448577121695661</v>
+        <v>0.9952174964556557</v>
       </c>
     </row>
   </sheetData>
@@ -1816,10 +1816,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8102.362633832112</v>
+        <v>10056.41134984051</v>
       </c>
       <c r="C2" t="n">
-        <v>2.121043935479336e-22</v>
+        <v>1.18556530454355e-29</v>
       </c>
     </row>
     <row r="3">
@@ -1829,10 +1829,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-305.9098828492993</v>
+        <v>-738.4685809426361</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4513868202660402</v>
+        <v>0.08808454164332959</v>
       </c>
     </row>
     <row r="4">
@@ -1842,10 +1842,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>113.3109927171392</v>
+        <v>-128.0549479552617</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7228930144481829</v>
+        <v>0.7035112157875317</v>
       </c>
     </row>
     <row r="5">
@@ -1855,10 +1855,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>74.13032911674196</v>
+        <v>144.6801378430816</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5900825672845076</v>
+        <v>0.3233763061226534</v>
       </c>
     </row>
     <row r="6">
@@ -1868,10 +1868,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-24.45914820512148</v>
+        <v>-1.440608698745166</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8663428165437984</v>
+        <v>0.9925283439551222</v>
       </c>
     </row>
     <row r="7">
@@ -1881,10 +1881,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>46.68744813907972</v>
+        <v>-35.36241037991985</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7721458686598193</v>
+        <v>0.8353767072469261</v>
       </c>
     </row>
     <row r="8">
@@ -1894,10 +1894,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>100.2818513043581</v>
+        <v>47.14032626328769</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4929870323190569</v>
+        <v>0.7606438717826929</v>
       </c>
     </row>
     <row r="9">
@@ -1907,10 +1907,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-65.68196301511203</v>
+        <v>-48.98444843698579</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1763432722129444</v>
+        <v>0.3388873898111382</v>
       </c>
     </row>
     <row r="10">
@@ -1920,10 +1920,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1360.519689186247</v>
+        <v>-1599.189560147277</v>
       </c>
       <c r="C10" t="n">
-        <v>2.049747314905113e-35</v>
+        <v>2.958030253775502e-43</v>
       </c>
     </row>
     <row r="11">
@@ -1933,10 +1933,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-23.75145658495695</v>
+        <v>-21.34189569374121</v>
       </c>
       <c r="C11" t="n">
-        <v>3.63400729052899e-06</v>
+        <v>8.195880662171929e-05</v>
       </c>
     </row>
     <row r="12">
@@ -1946,10 +1946,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>72.79773010520842</v>
+        <v>48.90035610320401</v>
       </c>
       <c r="C12" t="n">
-        <v>0.05583731086580133</v>
+        <v>0.2241956391503046</v>
       </c>
     </row>
     <row r="13">
@@ -1959,10 +1959,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>671.065968030334</v>
+        <v>611.5549116865545</v>
       </c>
       <c r="C13" t="n">
-        <v>6.056609727476304e-204</v>
+        <v>2.089918966963205e-154</v>
       </c>
     </row>
     <row r="14">
@@ -1972,10 +1972,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.01537659527750936</v>
+        <v>-0.03099821412240825</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3643792391915435</v>
+        <v>0.08462283387631449</v>
       </c>
     </row>
     <row r="15">
@@ -1985,10 +1985,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-1.784391621527761e-05</v>
+        <v>-1.056158610000658e-05</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5697850697856008</v>
+        <v>0.7523271018553886</v>
       </c>
     </row>
     <row r="16">
@@ -1998,10 +1998,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-16.81604070053336</v>
+        <v>-30.44159913508827</v>
       </c>
       <c r="C16" t="n">
-        <v>0.02902317275509392</v>
+        <v>0.0001909057894964896</v>
       </c>
     </row>
     <row r="17">
@@ -2011,10 +2011,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-9.561715209836255</v>
+        <v>-11.56880509540022</v>
       </c>
       <c r="C17" t="n">
-        <v>0.01285406954782898</v>
+        <v>0.004782607597892717</v>
       </c>
     </row>
     <row r="18">
@@ -2024,10 +2024,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>347.5657807929392</v>
+        <v>-900.0658966702103</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6405554919257657</v>
+        <v>0.2525554366571272</v>
       </c>
     </row>
     <row r="19">
@@ -2037,10 +2037,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-94.7001851244072</v>
+        <v>105.0615150444612</v>
       </c>
       <c r="C19" t="n">
-        <v>0.8280533320494776</v>
+        <v>0.8192630723375335</v>
       </c>
     </row>
   </sheetData>
@@ -2086,10 +2086,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8622.520344304083</v>
+        <v>9674.469465959792</v>
       </c>
       <c r="C2" t="n">
-        <v>5.417843050041039e-25</v>
+        <v>1.720905026799514e-27</v>
       </c>
     </row>
     <row r="3">
@@ -2099,10 +2099,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-551.926192101368</v>
+        <v>-858.0451283655066</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1700648368753145</v>
+        <v>0.0463519626620638</v>
       </c>
     </row>
     <row r="4">
@@ -2112,10 +2112,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8.697574307513264</v>
+        <v>-199.3152977780596</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9779835340134484</v>
+        <v>0.5557180240218924</v>
       </c>
     </row>
     <row r="5">
@@ -2125,10 +2125,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>152.6749201891291</v>
+        <v>45.94379071982144</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2642561605620293</v>
+        <v>0.7547778645455167</v>
       </c>
     </row>
     <row r="6">
@@ -2138,10 +2138,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>27.48871596795344</v>
+        <v>-113.1806432533574</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8488343944308604</v>
+        <v>0.4634185420312229</v>
       </c>
     </row>
     <row r="7">
@@ -2151,10 +2151,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-14.03561562186147</v>
+        <v>-44.40751915162843</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9299475617442189</v>
+        <v>0.7951744772261276</v>
       </c>
     </row>
     <row r="8">
@@ -2164,10 +2164,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>73.55797996332697</v>
+        <v>2.642140983801681</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6129087006159046</v>
+        <v>0.9864443461765735</v>
       </c>
     </row>
     <row r="9">
@@ -2177,10 +2177,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-25.98626522141861</v>
+        <v>-55.53856915735739</v>
       </c>
       <c r="C9" t="n">
-        <v>0.590894798437102</v>
+        <v>0.2823924448185112</v>
       </c>
     </row>
     <row r="10">
@@ -2190,10 +2190,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1293.451835993735</v>
+        <v>-1618.010805972258</v>
       </c>
       <c r="C10" t="n">
-        <v>1.226281269637663e-32</v>
+        <v>8.62005457155204e-44</v>
       </c>
     </row>
     <row r="11">
@@ -2203,10 +2203,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-23.19425511222323</v>
+        <v>-26.03754934100361</v>
       </c>
       <c r="C11" t="n">
-        <v>5.224756975453174e-06</v>
+        <v>1.786655197575245e-06</v>
       </c>
     </row>
     <row r="12">
@@ -2216,10 +2216,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>100.7612096803931</v>
+        <v>34.56567000589373</v>
       </c>
       <c r="C12" t="n">
-        <v>0.007674710727906961</v>
+        <v>0.3958517769379996</v>
       </c>
     </row>
     <row r="13">
@@ -2229,10 +2229,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>662.0124168008587</v>
+        <v>608.5442432585467</v>
       </c>
       <c r="C13" t="n">
-        <v>6.278787323768872e-202</v>
+        <v>6.833820141166764e-151</v>
       </c>
     </row>
     <row r="14">
@@ -2242,10 +2242,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.02310819474489625</v>
+        <v>-0.03079890075296543</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1752208435258837</v>
+        <v>0.09074782461734146</v>
       </c>
     </row>
     <row r="15">
@@ -2255,10 +2255,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-9.883183027626885e-06</v>
+        <v>-5.685786249944917e-05</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7578051561651558</v>
+        <v>0.09491365947272221</v>
       </c>
     </row>
     <row r="16">
@@ -2268,10 +2268,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-22.81482342172613</v>
+        <v>-20.81073386558025</v>
       </c>
       <c r="C16" t="n">
-        <v>0.00298116020142572</v>
+        <v>0.01140774543263422</v>
       </c>
     </row>
     <row r="17">
@@ -2281,10 +2281,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-14.11381533121496</v>
+        <v>-10.40666319304954</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0002704547085140748</v>
+        <v>0.01131912130269655</v>
       </c>
     </row>
     <row r="18">
@@ -2294,10 +2294,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>474.1696064921571</v>
+        <v>902.1914981539117</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5236989249482324</v>
+        <v>0.252830308391181</v>
       </c>
     </row>
     <row r="19">
@@ -2307,10 +2307,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>173.4455079786612</v>
+        <v>472.8513002628231</v>
       </c>
       <c r="C19" t="n">
-        <v>0.6874841029741464</v>
+        <v>0.3064347746638229</v>
       </c>
     </row>
   </sheetData>
@@ -2356,10 +2356,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8216.353130142877</v>
+        <v>10025.70854341154</v>
       </c>
       <c r="C2" t="n">
-        <v>2.718295559883529e-23</v>
+        <v>1.610102560726675e-29</v>
       </c>
     </row>
     <row r="3">
@@ -2369,10 +2369,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-537.3109968520348</v>
+        <v>-1380.605151862366</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1963238488784874</v>
+        <v>0.001305275090616394</v>
       </c>
     </row>
     <row r="4">
@@ -2382,10 +2382,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-347.7865192063899</v>
+        <v>-242.8470065155701</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2679978626677078</v>
+        <v>0.4727337390510808</v>
       </c>
     </row>
     <row r="5">
@@ -2395,10 +2395,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2.16308857501366</v>
+        <v>32.89115575415417</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9874060178484025</v>
+        <v>0.8232884869977162</v>
       </c>
     </row>
     <row r="6">
@@ -2408,10 +2408,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-14.26394987435994</v>
+        <v>33.29163703857805</v>
       </c>
       <c r="C6" t="n">
-        <v>0.921258519390616</v>
+        <v>0.8293333034520435</v>
       </c>
     </row>
     <row r="7">
@@ -2421,10 +2421,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-55.03601081066181</v>
+        <v>62.40207765973162</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7308259923572382</v>
+        <v>0.7144437638391361</v>
       </c>
     </row>
     <row r="8">
@@ -2434,10 +2434,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>85.14113095140539</v>
+        <v>127.2796088340131</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5571548878052117</v>
+        <v>0.4134074795397298</v>
       </c>
     </row>
     <row r="9">
@@ -2447,10 +2447,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-48.00455964849351</v>
+        <v>-17.56734150222488</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3202723423292771</v>
+        <v>0.7340804004332782</v>
       </c>
     </row>
     <row r="10">
@@ -2460,10 +2460,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1371.007105284357</v>
+        <v>-1644.973585682797</v>
       </c>
       <c r="C10" t="n">
-        <v>1.748522444439777e-36</v>
+        <v>2.710723693546418e-45</v>
       </c>
     </row>
     <row r="11">
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-24.10430832355978</v>
+        <v>-27.88854837152363</v>
       </c>
       <c r="C11" t="n">
-        <v>1.985464492040626e-06</v>
+        <v>2.595219663046285e-07</v>
       </c>
     </row>
     <row r="12">
@@ -2486,10 +2486,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>116.9099676225085</v>
+        <v>71.97018535022671</v>
       </c>
       <c r="C12" t="n">
-        <v>0.002005200597948581</v>
+        <v>0.07646168196517637</v>
       </c>
     </row>
     <row r="13">
@@ -2499,10 +2499,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>663.7327084078242</v>
+        <v>650.4998985073278</v>
       </c>
       <c r="C13" t="n">
-        <v>4.070113118986249e-204</v>
+        <v>1.378362593186522e-170</v>
       </c>
     </row>
     <row r="14">
@@ -2512,10 +2512,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.01828924950843056</v>
+        <v>-0.01937266562272433</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2773460188074902</v>
+        <v>0.2852354446835073</v>
       </c>
     </row>
     <row r="15">
@@ -2525,10 +2525,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-7.382335305984324e-06</v>
+        <v>-8.013871799020228e-06</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8143154029211082</v>
+        <v>0.8127294407545751</v>
       </c>
     </row>
     <row r="16">
@@ -2538,10 +2538,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-18.77369093085194</v>
+        <v>-29.88900556382444</v>
       </c>
       <c r="C16" t="n">
-        <v>0.01398837895840358</v>
+        <v>0.0002672697120646455</v>
       </c>
     </row>
     <row r="17">
@@ -2551,10 +2551,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-10.23652712370759</v>
+        <v>-13.36048879397523</v>
       </c>
       <c r="C17" t="n">
-        <v>0.007203465900822257</v>
+        <v>0.00109801457859373</v>
       </c>
     </row>
     <row r="18">
@@ -2564,10 +2564,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>613.2534717332674</v>
+        <v>-389.2615939613747</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4047580115490497</v>
+        <v>0.6229348659591583</v>
       </c>
     </row>
     <row r="19">
@@ -2577,10 +2577,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-94.67359964877187</v>
+        <v>-10.93869930055519</v>
       </c>
       <c r="C19" t="n">
-        <v>0.8261939661285238</v>
+        <v>0.981177117650299</v>
       </c>
     </row>
   </sheetData>
@@ -2626,10 +2626,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8086.189493966564</v>
+        <v>9642.164326346132</v>
       </c>
       <c r="C2" t="n">
-        <v>3.279214202275371e-22</v>
+        <v>2.174926817519309e-27</v>
       </c>
     </row>
     <row r="3">
@@ -2639,10 +2639,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-905.6174663683846</v>
+        <v>-597.5288656348713</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02646601276319411</v>
+        <v>0.1707928764940749</v>
       </c>
     </row>
     <row r="4">
@@ -2652,10 +2652,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-241.1296642465669</v>
+        <v>-148.5510158475933</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4481913024651119</v>
+        <v>0.6638720338530641</v>
       </c>
     </row>
     <row r="5">
@@ -2665,10 +2665,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-106.881971636377</v>
+        <v>179.7804221020497</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4385080163674809</v>
+        <v>0.2198817945118925</v>
       </c>
     </row>
     <row r="6">
@@ -2678,10 +2678,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>81.25174110292076</v>
+        <v>-100.4300119154936</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5745496781118323</v>
+        <v>0.5155395163282724</v>
       </c>
     </row>
     <row r="7">
@@ -2691,10 +2691,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-17.71913187165026</v>
+        <v>-77.96280883629913</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9114219463463867</v>
+        <v>0.6478246762122232</v>
       </c>
     </row>
     <row r="8">
@@ -2704,10 +2704,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>127.2458546310765</v>
+        <v>25.85978780814187</v>
       </c>
       <c r="C8" t="n">
-        <v>0.382258700743192</v>
+        <v>0.8679210510666766</v>
       </c>
     </row>
     <row r="9">
@@ -2717,10 +2717,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-36.73856472909881</v>
+        <v>-29.85118675044379</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4458224580966156</v>
+        <v>0.563430852907514</v>
       </c>
     </row>
     <row r="10">
@@ -2730,10 +2730,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1296.515054102055</v>
+        <v>-1693.880200993471</v>
       </c>
       <c r="C10" t="n">
-        <v>1.192386282725109e-32</v>
+        <v>6.894908200354397e-48</v>
       </c>
     </row>
     <row r="11">
@@ -2743,10 +2743,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-27.13470139045942</v>
+        <v>-29.68274408382117</v>
       </c>
       <c r="C11" t="n">
-        <v>9.046238142192647e-08</v>
+        <v>5.397234001563542e-08</v>
       </c>
     </row>
     <row r="12">
@@ -2756,10 +2756,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>120.7484593849956</v>
+        <v>96.00792291052305</v>
       </c>
       <c r="C12" t="n">
-        <v>0.001514326584343826</v>
+        <v>0.01749799441200378</v>
       </c>
     </row>
     <row r="13">
@@ -2769,10 +2769,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>652.5197829756576</v>
+        <v>636.9496206056456</v>
       </c>
       <c r="C13" t="n">
-        <v>6.930754376351835e-193</v>
+        <v>2.120705040766958e-164</v>
       </c>
     </row>
     <row r="14">
@@ -2782,10 +2782,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.01639327251402022</v>
+        <v>-0.02434188312033221</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3349358873807202</v>
+        <v>0.1771993188527786</v>
       </c>
     </row>
     <row r="15">
@@ -2795,10 +2795,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-1.452462369657315e-05</v>
+        <v>-3.483946494985536e-05</v>
       </c>
       <c r="C15" t="n">
-        <v>0.649215905100829</v>
+        <v>0.2962144950367153</v>
       </c>
     </row>
     <row r="16">
@@ -2808,10 +2808,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-15.63164674139307</v>
+        <v>-24.64184210289177</v>
       </c>
       <c r="C16" t="n">
-        <v>0.04270797125754913</v>
+        <v>0.002761542301379595</v>
       </c>
     </row>
     <row r="17">
@@ -2821,10 +2821,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-8.633152599752876</v>
+        <v>-11.3354948180469</v>
       </c>
       <c r="C17" t="n">
-        <v>0.02531465847243268</v>
+        <v>0.005665948581466778</v>
       </c>
     </row>
     <row r="18">
@@ -2834,10 +2834,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>348.7326887289219</v>
+        <v>529.0631975912902</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6387009199513922</v>
+        <v>0.5032470084693667</v>
       </c>
     </row>
     <row r="19">
@@ -2847,10 +2847,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>75.81067750237025</v>
+        <v>214.8539398396886</v>
       </c>
       <c r="C19" t="n">
-        <v>0.8612083404817007</v>
+        <v>0.642103972865362</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/dist_commute/Berlin.xlsx
+++ b/outputs/ML_Results/dist_commute/Berlin.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ38795120" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ40851076" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ42911277" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ44955807" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ47015845" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ49059998" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ51171919" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ53627623" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ55889202" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ58519492" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ59393415" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ00177734" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ01046587" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ01923931" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ02995260" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ05115482" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ07220522" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ09218911" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/outputs/ML_Results/dist_commute/Berlin.xlsx
+++ b/outputs/ML_Results/dist_commute/Berlin.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ58519492" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ59393415" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ00177734" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ01046587" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ01923931" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ02995260" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ05115482" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ07220522" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ09218911" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ45491092" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ46061612" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ46680646" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ47480657" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ48237934" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ49054047" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ49787262" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ50536299" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ51260706" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,10 +466,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9985.427893824863</v>
+        <v>9963.240551980523</v>
       </c>
       <c r="C2" t="n">
-        <v>3.477920346986087e-29</v>
+        <v>4.209783360395409e-29</v>
       </c>
     </row>
     <row r="3">
@@ -479,10 +479,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-676.5396609609974</v>
+        <v>-676.3182473519603</v>
       </c>
       <c r="C3" t="n">
-        <v>0.115928544276952</v>
+        <v>0.1160418831221568</v>
       </c>
     </row>
     <row r="4">
@@ -492,10 +492,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-240.0926798390714</v>
+        <v>-246.960128759374</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4744033282685449</v>
+        <v>0.4616404861516347</v>
       </c>
     </row>
     <row r="5">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>290.5404529742237</v>
+        <v>288.8844983624958</v>
       </c>
       <c r="C5" t="n">
-        <v>0.04914733960560607</v>
+        <v>0.05041747792737256</v>
       </c>
     </row>
     <row r="6">
@@ -518,10 +518,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-66.93728098937311</v>
+        <v>-67.4679949426463</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6650817735101244</v>
+        <v>0.66258074599019</v>
       </c>
     </row>
     <row r="7">
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-28.95548997259701</v>
+        <v>-30.27470329167883</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8661654220621442</v>
+        <v>0.8601180792810766</v>
       </c>
     </row>
     <row r="8">
@@ -544,10 +544,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>17.84883055529387</v>
+        <v>18.14665225010462</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9090101854322037</v>
+        <v>0.9074968527781487</v>
       </c>
     </row>
     <row r="9">
@@ -557,10 +557,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-38.75815365900732</v>
+        <v>-38.37766333997918</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4552578422302356</v>
+        <v>0.4596615501219868</v>
       </c>
     </row>
     <row r="10">
@@ -570,10 +570,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1499.285402875631</v>
+        <v>-1500.02087052742</v>
       </c>
       <c r="C10" t="n">
-        <v>9.805512560872286e-38</v>
+        <v>8.952576938105369e-38</v>
       </c>
     </row>
     <row r="11">
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-23.98737925085526</v>
+        <v>-24.12819646050123</v>
       </c>
       <c r="C11" t="n">
-        <v>1.050176953037126e-05</v>
+        <v>9.172956996443642e-06</v>
       </c>
     </row>
     <row r="12">
@@ -596,10 +596,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>19.44135817985828</v>
+        <v>19.18711969874175</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6321537428095924</v>
+        <v>0.6365942830608304</v>
       </c>
     </row>
     <row r="13">
@@ -609,10 +609,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>623.6257390309934</v>
+        <v>627.2457154196238</v>
       </c>
       <c r="C13" t="n">
-        <v>1.540266646355226e-157</v>
+        <v>3.19575627170246e-168</v>
       </c>
     </row>
     <row r="14">
@@ -622,75 +622,62 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.0282824929749259</v>
+        <v>-0.03508048373389888</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1193409729551718</v>
+        <v>0.01987797146059721</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-2.239846185906783e-05</v>
+        <v>-29.2033297163323</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5025239201353433</v>
+        <v>0.0003792713428641951</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-28.60174766793438</v>
+        <v>-11.8781319259072</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0005395870900822194</v>
+        <v>0.003944260569429548</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-11.96883226909697</v>
+        <v>-513.0589418305859</v>
       </c>
       <c r="C17" t="n">
-        <v>0.003696294794062205</v>
+        <v>0.4729935687110129</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-286.2741092693282</v>
+        <v>-64.20886616460888</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7173886727303542</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-58.12909855919696</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.9000461298160582</v>
+        <v>0.8896327954994957</v>
       </c>
     </row>
   </sheetData>
@@ -704,7 +691,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -736,10 +723,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7753.555661438842</v>
+        <v>7732.449314975978</v>
       </c>
       <c r="C2" t="n">
-        <v>1.89473937912484e-18</v>
+        <v>2.202577279895885e-18</v>
       </c>
     </row>
     <row r="3">
@@ -749,10 +736,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-879.7731537167293</v>
+        <v>-882.0306513410108</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03726660811703876</v>
+        <v>0.03677138295796557</v>
       </c>
     </row>
     <row r="4">
@@ -762,10 +749,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-56.03149275853252</v>
+        <v>-61.83079012296011</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8666950668560134</v>
+        <v>0.8529862537645033</v>
       </c>
     </row>
     <row r="5">
@@ -775,10 +762,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>49.23874951413086</v>
+        <v>48.25696268248726</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7379484096819489</v>
+        <v>0.7429677129779513</v>
       </c>
     </row>
     <row r="6">
@@ -788,10 +775,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-81.68053208778952</v>
+        <v>-82.38310906249281</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5951441601690282</v>
+        <v>0.591964109825574</v>
       </c>
     </row>
     <row r="7">
@@ -801,10 +788,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-91.29516362445065</v>
+        <v>-93.47849379819439</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5907444614695931</v>
+        <v>0.5818051212328315</v>
       </c>
     </row>
     <row r="8">
@@ -814,10 +801,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>42.73461518634929</v>
+        <v>42.97024480789689</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7827061295973852</v>
+        <v>0.7815337595774996</v>
       </c>
     </row>
     <row r="9">
@@ -827,10 +814,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-90.06078761768435</v>
+        <v>-89.79285149997293</v>
       </c>
       <c r="C9" t="n">
-        <v>0.08012171725461696</v>
+        <v>0.08100753183306102</v>
       </c>
     </row>
     <row r="10">
@@ -840,10 +827,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1517.36267929315</v>
+        <v>-1517.877556164461</v>
       </c>
       <c r="C10" t="n">
-        <v>3.149476610336647e-39</v>
+        <v>2.948113182931465e-39</v>
       </c>
     </row>
     <row r="11">
@@ -853,10 +840,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-23.68618535434137</v>
+        <v>-23.82776578981745</v>
       </c>
       <c r="C11" t="n">
-        <v>1.066644210108077e-05</v>
+        <v>9.26299093403759e-06</v>
       </c>
     </row>
     <row r="12">
@@ -866,10 +853,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>85.24798464961265</v>
+        <v>84.905083989994</v>
       </c>
       <c r="C12" t="n">
-        <v>0.03453408802068064</v>
+        <v>0.035246005384075</v>
       </c>
     </row>
     <row r="13">
@@ -879,10 +866,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>658.5228231067866</v>
+        <v>661.8197620620062</v>
       </c>
       <c r="C13" t="n">
-        <v>1.394020867465594e-178</v>
+        <v>1.392363180030874e-190</v>
       </c>
     </row>
     <row r="14">
@@ -892,75 +879,62 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.01113281861985968</v>
+        <v>-0.01724975637970899</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5350947804151207</v>
+        <v>0.2470325507317833</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-2.01985464369671e-05</v>
+        <v>-11.41358320950618</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5409635271232949</v>
+        <v>0.160291519214786</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-10.88897305529976</v>
+        <v>-4.099799814958907</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1828168737594434</v>
+        <v>0.3166510464598234</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-4.190912285657113</v>
+        <v>664.1846402219675</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3063453833133351</v>
+        <v>0.3481196497574647</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>869.9146259293684</v>
+        <v>-103.447964076927</v>
       </c>
       <c r="C18" t="n">
-        <v>0.2670760687941097</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-98.12059787738292</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.8309171110435681</v>
+        <v>0.8218522647307569</v>
       </c>
     </row>
   </sheetData>
@@ -974,7 +948,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1006,10 +980,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10061.00934563767</v>
+        <v>10050.07534174587</v>
       </c>
       <c r="C2" t="n">
-        <v>3.118972262896798e-29</v>
+        <v>3.178563015957251e-29</v>
       </c>
     </row>
     <row r="3">
@@ -1019,10 +993,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-816.1387356800526</v>
+        <v>-816.1363053181653</v>
       </c>
       <c r="C3" t="n">
-        <v>0.05903551785507736</v>
+        <v>0.05902943717357151</v>
       </c>
     </row>
     <row r="4">
@@ -1032,10 +1006,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>132.6322118103427</v>
+        <v>129.6058465989535</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6958930129623471</v>
+        <v>0.7023521562388042</v>
       </c>
     </row>
     <row r="5">
@@ -1045,10 +1019,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>138.6852133078874</v>
+        <v>138.1021832031338</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3448824625366586</v>
+        <v>0.3468549982434996</v>
       </c>
     </row>
     <row r="6">
@@ -1058,10 +1032,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-12.59503671944285</v>
+        <v>-12.99149861145514</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9353238158798718</v>
+        <v>0.9332882004633856</v>
       </c>
     </row>
     <row r="7">
@@ -1071,10 +1045,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1.054758657068362</v>
+        <v>-1.698114916383645</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9951045641558069</v>
+        <v>0.9921177578167972</v>
       </c>
     </row>
     <row r="8">
@@ -1084,10 +1058,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>60.86137160463062</v>
+        <v>60.81036502957494</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6967806791428013</v>
+        <v>0.697014258389886</v>
       </c>
     </row>
     <row r="9">
@@ -1097,10 +1071,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-58.06848563529059</v>
+        <v>-57.86619491677551</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2630112289990382</v>
+        <v>0.2646205798969445</v>
       </c>
     </row>
     <row r="10">
@@ -1110,10 +1084,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1546.404518691376</v>
+        <v>-1546.682329413866</v>
       </c>
       <c r="C10" t="n">
-        <v>7.306826404298707e-40</v>
+        <v>7.005195010562145e-40</v>
       </c>
     </row>
     <row r="11">
@@ -1123,10 +1097,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-27.51062411545706</v>
+        <v>-27.56995327232649</v>
       </c>
       <c r="C11" t="n">
-        <v>4.474413490472333e-07</v>
+        <v>4.143377277104367e-07</v>
       </c>
     </row>
     <row r="12">
@@ -1136,10 +1110,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>88.10493481914814</v>
+        <v>88.05537315600941</v>
       </c>
       <c r="C12" t="n">
-        <v>0.03093354611899402</v>
+        <v>0.03102200734595283</v>
       </c>
     </row>
     <row r="13">
@@ -1149,10 +1123,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>610.7828651555064</v>
+        <v>612.335902660895</v>
       </c>
       <c r="C13" t="n">
-        <v>1.722918005737465e-150</v>
+        <v>1.013729838625315e-159</v>
       </c>
     </row>
     <row r="14">
@@ -1162,75 +1136,62 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.02966779156836065</v>
+        <v>-0.03259856153914699</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1037084969344731</v>
+        <v>0.03077740222935685</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-9.687799138982395e-06</v>
+        <v>-26.17189393052911</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7745140554771355</v>
+        <v>0.00144227478049238</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-25.91828534493242</v>
+        <v>-10.67150249082589</v>
       </c>
       <c r="C16" t="n">
-        <v>0.001707198262447946</v>
+        <v>0.01052310464572685</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-10.71613082481439</v>
+        <v>-845.3806607134559</v>
       </c>
       <c r="C17" t="n">
-        <v>0.01025866169095251</v>
+        <v>0.239987435531263</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-748.2860900492974</v>
+        <v>-257.6099689883023</v>
       </c>
       <c r="C18" t="n">
-        <v>0.3467706969865342</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-254.9170494165512</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.5839102800224482</v>
+        <v>0.5798557501401972</v>
       </c>
     </row>
   </sheetData>
@@ -1244,7 +1205,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1276,10 +1237,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9056.680244697192</v>
+        <v>9040.06757576056</v>
       </c>
       <c r="C2" t="n">
-        <v>7.308672815188654e-24</v>
+        <v>8.110619193322076e-24</v>
       </c>
     </row>
     <row r="3">
@@ -1289,10 +1250,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-884.4955831739638</v>
+        <v>-885.5699969113309</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03869729910082153</v>
+        <v>0.03845420612375689</v>
       </c>
     </row>
     <row r="4">
@@ -1302,10 +1263,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-56.10468002213747</v>
+        <v>-60.80587721757382</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8690224431748561</v>
+        <v>0.8580940143672181</v>
       </c>
     </row>
     <row r="5">
@@ -1315,10 +1276,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>233.6937162951199</v>
+        <v>232.9149274649806</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1119670113505891</v>
+        <v>0.1131353226737865</v>
       </c>
     </row>
     <row r="6">
@@ -1328,10 +1289,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>23.79618863511283</v>
+        <v>23.64609030566754</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8783487403297132</v>
+        <v>0.8791071364938763</v>
       </c>
     </row>
     <row r="7">
@@ -1341,10 +1302,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>147.3940374368258</v>
+        <v>146.1490533578529</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3891060025853159</v>
+        <v>0.3930553783695176</v>
       </c>
     </row>
     <row r="8">
@@ -1354,10 +1315,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-30.43156881378006</v>
+        <v>-30.25907431418092</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8457511709363752</v>
+        <v>0.8466106986022875</v>
       </c>
     </row>
     <row r="9">
@@ -1367,10 +1328,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-54.34770298782142</v>
+        <v>-54.11520308977899</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2946618208044275</v>
+        <v>0.2966986552441228</v>
       </c>
     </row>
     <row r="10">
@@ -1380,10 +1341,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1531.227723100842</v>
+        <v>-1531.421931199962</v>
       </c>
       <c r="C10" t="n">
-        <v>3.854382471128897e-39</v>
+        <v>3.752401292758878e-39</v>
       </c>
     </row>
     <row r="11">
@@ -1393,10 +1354,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-26.72237381251063</v>
+        <v>-26.83583710159705</v>
       </c>
       <c r="C11" t="n">
-        <v>9.743140296916343e-07</v>
+        <v>8.541474091691199e-07</v>
       </c>
     </row>
     <row r="12">
@@ -1406,10 +1367,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>76.48245357502378</v>
+        <v>76.45970227720288</v>
       </c>
       <c r="C12" t="n">
-        <v>0.05933140503166975</v>
+        <v>0.05940102328599818</v>
       </c>
     </row>
     <row r="13">
@@ -1419,10 +1380,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>641.1368905570779</v>
+        <v>643.6461734915872</v>
       </c>
       <c r="C13" t="n">
-        <v>3.602596287178595e-165</v>
+        <v>1.17488053097139e-175</v>
       </c>
     </row>
     <row r="14">
@@ -1432,75 +1393,62 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.01925967527079607</v>
+        <v>-0.02403309760658084</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2911234667885396</v>
+        <v>0.1110392227167595</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-1.582152795755334e-05</v>
+        <v>-19.06949110415725</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6419535280441302</v>
+        <v>0.02001263581302537</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-18.64094501326709</v>
+        <v>-9.78555045071122</v>
       </c>
       <c r="C16" t="n">
-        <v>0.02384870639937644</v>
+        <v>0.01890993973041933</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-9.860211043057831</v>
+        <v>-25.72936600119402</v>
       </c>
       <c r="C17" t="n">
-        <v>0.01810806305427318</v>
+        <v>0.9715574645174281</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>135.0131121197096</v>
+        <v>-212.4449591572456</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8660086179180904</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-208.1218417966449</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.6543248581731724</v>
+        <v>0.6475524287193709</v>
       </c>
     </row>
   </sheetData>
@@ -1514,7 +1462,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1546,10 +1494,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9648.105376500605</v>
+        <v>9649.760331214127</v>
       </c>
       <c r="C2" t="n">
-        <v>3.129664793971856e-27</v>
+        <v>2.827428927758599e-27</v>
       </c>
     </row>
     <row r="3">
@@ -1559,10 +1507,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-705.8230847579105</v>
+        <v>-705.7052570855233</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1067218410642645</v>
+        <v>0.1067651898030855</v>
       </c>
     </row>
     <row r="4">
@@ -1572,10 +1520,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-242.9998578402417</v>
+        <v>-242.6681197408238</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4751426366195707</v>
+        <v>0.4756520783641389</v>
       </c>
     </row>
     <row r="5">
@@ -1585,10 +1533,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>47.73498197238098</v>
+        <v>47.86139741800889</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7466569291386465</v>
+        <v>0.7459674253449657</v>
       </c>
     </row>
     <row r="6">
@@ -1598,10 +1546,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9.240839542927972</v>
+        <v>9.286977731948468</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9526768269052142</v>
+        <v>0.9524386349766496</v>
       </c>
     </row>
     <row r="7">
@@ -1611,10 +1559,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>60.08768177033767</v>
+        <v>60.18551357615425</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7257762902264644</v>
+        <v>0.7253236265267173</v>
       </c>
     </row>
     <row r="8">
@@ -1624,10 +1572,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>124.3735085298664</v>
+        <v>124.3767289044887</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4277884999816258</v>
+        <v>0.4277629623809431</v>
       </c>
     </row>
     <row r="9">
@@ -1637,10 +1585,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-64.9094218551318</v>
+        <v>-64.93780253026188</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2120206156625004</v>
+        <v>0.2117813285507618</v>
       </c>
     </row>
     <row r="10">
@@ -1650,10 +1598,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1666.23247856005</v>
+        <v>-1666.230938033359</v>
       </c>
       <c r="C10" t="n">
-        <v>9.277266583337651e-46</v>
+        <v>9.224008586491552e-46</v>
       </c>
     </row>
     <row r="11">
@@ -1663,10 +1611,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-27.202612882831</v>
+        <v>-27.18875475349574</v>
       </c>
       <c r="C11" t="n">
-        <v>6.829868488840042e-07</v>
+        <v>6.699624004638305e-07</v>
       </c>
     </row>
     <row r="12">
@@ -1676,10 +1624,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>44.53285985322046</v>
+        <v>44.54585824420506</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2773361563007641</v>
+        <v>0.2771725918951349</v>
       </c>
     </row>
     <row r="13">
@@ -1689,10 +1637,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>630.3134697256348</v>
+        <v>630.0360196075681</v>
       </c>
       <c r="C13" t="n">
-        <v>1.927978056415103e-159</v>
+        <v>2.807314968530156e-168</v>
       </c>
     </row>
     <row r="14">
@@ -1702,75 +1650,62 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.03339356558330145</v>
+        <v>-0.03286779463322551</v>
       </c>
       <c r="C14" t="n">
-        <v>0.06779507815806539</v>
+        <v>0.02951634245128326</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.735447977860749e-06</v>
+        <v>-21.94364331400688</v>
       </c>
       <c r="C15" t="n">
-        <v>0.959320406320588</v>
+        <v>0.007337961413762259</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-21.98800873613344</v>
+        <v>-10.4168542461977</v>
       </c>
       <c r="C16" t="n">
-        <v>0.007553490873522967</v>
+        <v>0.01140663939078883</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-10.40964215959238</v>
+        <v>-28.9992710697623</v>
       </c>
       <c r="C17" t="n">
-        <v>0.01151485437487731</v>
+        <v>0.96783355408489</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-46.65354454537464</v>
+        <v>3.304450575928513</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9533859758584275</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>2.789151338745683</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.9952174964556557</v>
+        <v>0.9943324346623027</v>
       </c>
     </row>
   </sheetData>
@@ -1784,7 +1719,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1816,10 +1751,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10056.41134984051</v>
+        <v>10044.88994830362</v>
       </c>
       <c r="C2" t="n">
-        <v>1.18556530454355e-29</v>
+        <v>1.227855347897104e-29</v>
       </c>
     </row>
     <row r="3">
@@ -1829,10 +1764,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-738.4685809426361</v>
+        <v>-738.721218772027</v>
       </c>
       <c r="C3" t="n">
-        <v>0.08808454164332959</v>
+        <v>0.08796694635491192</v>
       </c>
     </row>
     <row r="4">
@@ -1842,10 +1777,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-128.0549479552617</v>
+        <v>-131.0761224405416</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7035112157875317</v>
+        <v>0.696734642912199</v>
       </c>
     </row>
     <row r="5">
@@ -1855,10 +1790,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>144.6801378430816</v>
+        <v>144.1698493926883</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3233763061226534</v>
+        <v>0.3250435235605322</v>
       </c>
     </row>
     <row r="6">
@@ -1868,10 +1803,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.440608698745166</v>
+        <v>-2.070038564964506</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9925283439551222</v>
+        <v>0.9892628132584256</v>
       </c>
     </row>
     <row r="7">
@@ -1881,10 +1816,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-35.36241037991985</v>
+        <v>-36.27614352911405</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8353767072469261</v>
+        <v>0.8311577589429172</v>
       </c>
     </row>
     <row r="8">
@@ -1894,10 +1829,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>47.14032626328769</v>
+        <v>47.11763628728494</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7606438717826929</v>
+        <v>0.7607494025349165</v>
       </c>
     </row>
     <row r="9">
@@ -1907,10 +1842,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-48.98444843698579</v>
+        <v>-48.75894830418842</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3388873898111382</v>
+        <v>0.3410557739476754</v>
       </c>
     </row>
     <row r="10">
@@ -1920,10 +1855,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1599.189560147277</v>
+        <v>-1599.39664715551</v>
       </c>
       <c r="C10" t="n">
-        <v>2.958030253775502e-43</v>
+        <v>2.86276460064539e-43</v>
       </c>
     </row>
     <row r="11">
@@ -1933,10 +1868,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-21.34189569374121</v>
+        <v>-21.42085051031933</v>
       </c>
       <c r="C11" t="n">
-        <v>8.195880662171929e-05</v>
+        <v>7.574191721627351e-05</v>
       </c>
     </row>
     <row r="12">
@@ -1946,10 +1881,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>48.90035610320401</v>
+        <v>48.74582193484031</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2241956391503046</v>
+        <v>0.2256165281538367</v>
       </c>
     </row>
     <row r="13">
@@ -1959,10 +1894,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>611.5549116865545</v>
+        <v>613.279402693904</v>
       </c>
       <c r="C13" t="n">
-        <v>2.089918966963205e-154</v>
+        <v>2.44436368260863e-164</v>
       </c>
     </row>
     <row r="14">
@@ -1972,75 +1907,62 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.03099821412240825</v>
+        <v>-0.0341878446162899</v>
       </c>
       <c r="C14" t="n">
-        <v>0.08462283387631449</v>
+        <v>0.02144990514781848</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-1.056158610000658e-05</v>
+        <v>-30.72077567954001</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7523271018553886</v>
+        <v>0.0001522430579189058</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-30.44159913508827</v>
+        <v>-11.51986851181893</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0001909057894964896</v>
+        <v>0.004931467659570306</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-11.56880509540022</v>
+        <v>-1006.310451306185</v>
       </c>
       <c r="C17" t="n">
-        <v>0.004782607597892717</v>
+        <v>0.1569429463135283</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-900.0658966702103</v>
+        <v>102.7444094264671</v>
       </c>
       <c r="C18" t="n">
-        <v>0.2525554366571272</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>105.0615150444612</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.8192630723375335</v>
+        <v>0.82315574895594</v>
       </c>
     </row>
   </sheetData>
@@ -2054,7 +1976,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2086,10 +2008,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9674.469465959792</v>
+        <v>9618.562860669146</v>
       </c>
       <c r="C2" t="n">
-        <v>1.720905026799514e-27</v>
+        <v>3.155489424220817e-27</v>
       </c>
     </row>
     <row r="3">
@@ -2099,10 +2021,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-858.0451283655066</v>
+        <v>-863.2391554210651</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0463519626620638</v>
+        <v>0.04505090441730227</v>
       </c>
     </row>
     <row r="4">
@@ -2112,10 +2034,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-199.3152977780596</v>
+        <v>-207.4201216878564</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5557180240218924</v>
+        <v>0.5397417494525047</v>
       </c>
     </row>
     <row r="5">
@@ -2125,10 +2047,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>45.94379071982144</v>
+        <v>42.80939908712003</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7547778645455167</v>
+        <v>0.7710167958456612</v>
       </c>
     </row>
     <row r="6">
@@ -2138,10 +2060,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-113.1806432533574</v>
+        <v>-114.3353816888084</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4634185420312229</v>
+        <v>0.4588883296055627</v>
       </c>
     </row>
     <row r="7">
@@ -2151,10 +2073,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-44.40751915162843</v>
+        <v>-47.91176761572945</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7951744772261276</v>
+        <v>0.7794094957187452</v>
       </c>
     </row>
     <row r="8">
@@ -2164,10 +2086,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.642140983801681</v>
+        <v>4.75627517532287</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9864443461765735</v>
+        <v>0.9756007652993285</v>
       </c>
     </row>
     <row r="9">
@@ -2177,10 +2099,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-55.53856915735739</v>
+        <v>-54.35955506158256</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2823924448185112</v>
+        <v>0.292715114656913</v>
       </c>
     </row>
     <row r="10">
@@ -2190,10 +2112,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1618.010805972258</v>
+        <v>-1619.383021763124</v>
       </c>
       <c r="C10" t="n">
-        <v>8.62005457155204e-44</v>
+        <v>7.359983137803939e-44</v>
       </c>
     </row>
     <row r="11">
@@ -2203,10 +2125,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-26.03754934100361</v>
+        <v>-26.37402317499157</v>
       </c>
       <c r="C11" t="n">
-        <v>1.786655197575245e-06</v>
+        <v>1.29251583871767e-06</v>
       </c>
     </row>
     <row r="12">
@@ -2216,10 +2138,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>34.56567000589373</v>
+        <v>34.04830063162886</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3958517769379996</v>
+        <v>0.4029719939434727</v>
       </c>
     </row>
     <row r="13">
@@ -2229,10 +2151,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>608.5442432585467</v>
+        <v>617.6772730884628</v>
       </c>
       <c r="C13" t="n">
-        <v>6.833820141166764e-151</v>
+        <v>3.002040141222932e-164</v>
       </c>
     </row>
     <row r="14">
@@ -2242,75 +2164,62 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.03079890075296543</v>
+        <v>-0.04795845528385886</v>
       </c>
       <c r="C14" t="n">
-        <v>0.09074782461734146</v>
+        <v>0.001423468251647305</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-5.685786249944917e-05</v>
+        <v>-22.44715198800183</v>
       </c>
       <c r="C15" t="n">
-        <v>0.09491365947272221</v>
+        <v>0.005990983724834875</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-20.81073386558025</v>
+        <v>-10.20245044717161</v>
       </c>
       <c r="C16" t="n">
-        <v>0.01140774543263422</v>
+        <v>0.01299273133691039</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-10.40666319304954</v>
+        <v>332.2437153492668</v>
       </c>
       <c r="C17" t="n">
-        <v>0.01131912130269655</v>
+        <v>0.6404658408663001</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>902.1914981539117</v>
+        <v>464.0406685726794</v>
       </c>
       <c r="C18" t="n">
-        <v>0.252830308391181</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>472.8513002628231</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.3064347746638229</v>
+        <v>0.315528925556943</v>
       </c>
     </row>
   </sheetData>
@@ -2324,7 +2233,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2356,10 +2265,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10025.70854341154</v>
+        <v>10016.89915387877</v>
       </c>
       <c r="C2" t="n">
-        <v>1.610102560726675e-29</v>
+        <v>1.604286970694241e-29</v>
       </c>
     </row>
     <row r="3">
@@ -2369,10 +2278,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1380.605151862366</v>
+        <v>-1381.218207015401</v>
       </c>
       <c r="C3" t="n">
-        <v>0.001305275090616394</v>
+        <v>0.001298133360150641</v>
       </c>
     </row>
     <row r="4">
@@ -2382,10 +2291,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-242.8470065155701</v>
+        <v>-245.3179019781648</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4727337390510808</v>
+        <v>0.4680170770548551</v>
       </c>
     </row>
     <row r="5">
@@ -2395,10 +2304,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>32.89115575415417</v>
+        <v>32.39476246573599</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8232884869977162</v>
+        <v>0.8258902687376852</v>
       </c>
     </row>
     <row r="6">
@@ -2408,10 +2317,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>33.29163703857805</v>
+        <v>33.2510825383809</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8293333034520435</v>
+        <v>0.8295332510702164</v>
       </c>
     </row>
     <row r="7">
@@ -2421,10 +2330,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>62.40207765973162</v>
+        <v>61.70949354857262</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7144437638391361</v>
+        <v>0.717429148327377</v>
       </c>
     </row>
     <row r="8">
@@ -2434,10 +2343,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>127.2796088340131</v>
+        <v>127.2892066116435</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4134074795397298</v>
+        <v>0.4133592944810984</v>
       </c>
     </row>
     <row r="9">
@@ -2447,10 +2356,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-17.56734150222488</v>
+        <v>-17.38627914338826</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7340804004332782</v>
+        <v>0.7366841913513731</v>
       </c>
     </row>
     <row r="10">
@@ -2460,10 +2369,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1644.973585682797</v>
+        <v>-1645.113075479164</v>
       </c>
       <c r="C10" t="n">
-        <v>2.710723693546418e-45</v>
+        <v>2.643730161041844e-45</v>
       </c>
     </row>
     <row r="11">
@@ -2473,10 +2382,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-27.88854837152363</v>
+        <v>-27.93728232047204</v>
       </c>
       <c r="C11" t="n">
-        <v>2.595219663046285e-07</v>
+        <v>2.42296549343704e-07</v>
       </c>
     </row>
     <row r="12">
@@ -2486,10 +2395,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>71.97018535022671</v>
+        <v>71.89755037505226</v>
       </c>
       <c r="C12" t="n">
-        <v>0.07646168196517637</v>
+        <v>0.07674255856255442</v>
       </c>
     </row>
     <row r="13">
@@ -2499,10 +2408,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>650.4998985073278</v>
+        <v>651.8213864880466</v>
       </c>
       <c r="C13" t="n">
-        <v>1.378362593186522e-170</v>
+        <v>1.705171843213496e-181</v>
       </c>
     </row>
     <row r="14">
@@ -2512,75 +2421,62 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.01937266562272433</v>
+        <v>-0.02177375264793277</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2852354446835073</v>
+        <v>0.1474335919775913</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-8.013871799020228e-06</v>
+        <v>-30.11367273535507</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8127294407545751</v>
+        <v>0.0002178025413296304</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-29.88900556382444</v>
+        <v>-13.32919845186251</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0002672697120646455</v>
+        <v>0.001120924794959</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-13.36048879397523</v>
+        <v>-468.1626660226914</v>
       </c>
       <c r="C17" t="n">
-        <v>0.00109801457859373</v>
+        <v>0.5144891483158044</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-389.2615939613747</v>
+        <v>-12.52946472083812</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6229348659591583</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-10.93869930055519</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.981177117650299</v>
+        <v>0.9784375567516312</v>
       </c>
     </row>
   </sheetData>
@@ -2594,7 +2490,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2626,10 +2522,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9642.164326346132</v>
+        <v>9605.456633293164</v>
       </c>
       <c r="C2" t="n">
-        <v>2.174926817519309e-27</v>
+        <v>3.108645970861972e-27</v>
       </c>
     </row>
     <row r="3">
@@ -2639,10 +2535,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-597.5288656348713</v>
+        <v>-597.792651553737</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1707928764940749</v>
+        <v>0.1706052023958634</v>
       </c>
     </row>
     <row r="4">
@@ -2652,10 +2548,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-148.5510158475933</v>
+        <v>-158.8443230698214</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6638720338530641</v>
+        <v>0.642019210520165</v>
       </c>
     </row>
     <row r="5">
@@ -2665,10 +2561,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>179.7804221020497</v>
+        <v>178.1033363471927</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2198817945118925</v>
+        <v>0.2241876217076658</v>
       </c>
     </row>
     <row r="6">
@@ -2678,10 +2574,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-100.4300119154936</v>
+        <v>-100.4674168214651</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5155395163282724</v>
+        <v>0.5153842341814833</v>
       </c>
     </row>
     <row r="7">
@@ -2691,10 +2587,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-77.96280883629913</v>
+        <v>-79.75691258362352</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6478246762122232</v>
+        <v>0.6402707235700484</v>
       </c>
     </row>
     <row r="8">
@@ -2704,10 +2600,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>25.85978780814187</v>
+        <v>26.75480278265519</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8679210510666766</v>
+        <v>0.8633922495299095</v>
       </c>
     </row>
     <row r="9">
@@ -2717,10 +2613,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-29.85118675044379</v>
+        <v>-29.39450431960421</v>
       </c>
       <c r="C9" t="n">
-        <v>0.563430852907514</v>
+        <v>0.5694015070212665</v>
       </c>
     </row>
     <row r="10">
@@ -2730,10 +2626,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1693.880200993471</v>
+        <v>-1694.483396398804</v>
       </c>
       <c r="C10" t="n">
-        <v>6.894908200354397e-48</v>
+        <v>6.382321535722494e-48</v>
       </c>
     </row>
     <row r="11">
@@ -2743,10 +2639,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-29.68274408382117</v>
+        <v>-29.93581493898989</v>
       </c>
       <c r="C11" t="n">
-        <v>5.397234001563542e-08</v>
+        <v>4.032647863642151e-08</v>
       </c>
     </row>
     <row r="12">
@@ -2756,10 +2652,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>96.00792291052305</v>
+        <v>95.57301069201857</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01749799441200378</v>
+        <v>0.01800911659583295</v>
       </c>
     </row>
     <row r="13">
@@ -2769,10 +2665,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>636.9496206056456</v>
+        <v>642.7247777651955</v>
       </c>
       <c r="C13" t="n">
-        <v>2.120705040766958e-164</v>
+        <v>3.871759778642571e-177</v>
       </c>
     </row>
     <row r="14">
@@ -2782,75 +2678,62 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.02434188312033221</v>
+        <v>-0.03482799135033152</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1771993188527786</v>
+        <v>0.020141224422034</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-3.483946494985536e-05</v>
+        <v>-25.52312558903203</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2962144950367153</v>
+        <v>0.001830004377756789</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-24.64184210289177</v>
+        <v>-11.1915188958378</v>
       </c>
       <c r="C16" t="n">
-        <v>0.002761542301379595</v>
+        <v>0.006277543390352535</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-11.3354948180469</v>
+        <v>174.7546141859127</v>
       </c>
       <c r="C17" t="n">
-        <v>0.005665948581466778</v>
+        <v>0.8066160651516197</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>529.0631975912902</v>
+        <v>203.0668496022126</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5032470084693667</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>214.8539398396886</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.642103972865362</v>
+        <v>0.660377618880128</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/dist_commute/Berlin.xlsx
+++ b/outputs/ML_Results/dist_commute/Berlin.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ45491092" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ46061612" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ46680646" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ47480657" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ48237934" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ49054047" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ49787262" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ50536299" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ51260706" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ41779977" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ42320480" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ42878156" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ43447756" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ44025545" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ44604949" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ45325568" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ46010475" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ46735061" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -466,10 +466,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9963.240551980523</v>
+        <v>9963.240551978306</v>
       </c>
       <c r="C2" t="n">
-        <v>4.209783360395409e-29</v>
+        <v>4.209783360451211e-29</v>
       </c>
     </row>
     <row r="3">
@@ -479,10 +479,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-676.3182473519603</v>
+        <v>-676.318247352013</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1160418831221568</v>
+        <v>0.1160418831221595</v>
       </c>
     </row>
     <row r="4">
@@ -492,10 +492,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-246.960128759374</v>
+        <v>-246.9601287592843</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4616404861516347</v>
+        <v>0.4616404861517878</v>
       </c>
     </row>
     <row r="5">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>288.8844983624958</v>
+        <v>288.8844983623893</v>
       </c>
       <c r="C5" t="n">
-        <v>0.05041747792737256</v>
+        <v>0.05041747792748489</v>
       </c>
     </row>
     <row r="6">
@@ -518,10 +518,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-67.4679949426463</v>
+        <v>-67.46799494262541</v>
       </c>
       <c r="C6" t="n">
-        <v>0.66258074599019</v>
+        <v>0.6625807459902873</v>
       </c>
     </row>
     <row r="7">
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-30.27470329167883</v>
+        <v>-30.27470329168585</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8601180792810766</v>
+        <v>0.8601180792810444</v>
       </c>
     </row>
     <row r="8">
@@ -544,10 +544,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18.14665225010462</v>
+        <v>18.14665225011655</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9074968527781487</v>
+        <v>0.907496852778088</v>
       </c>
     </row>
     <row r="9">
@@ -557,10 +557,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-38.37766333997918</v>
+        <v>-38.37766333991861</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4596615501219868</v>
+        <v>0.4596615501227014</v>
       </c>
     </row>
     <row r="10">
@@ -570,10 +570,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1500.02087052742</v>
+        <v>-1500.020870527403</v>
       </c>
       <c r="C10" t="n">
-        <v>8.952576938105369e-38</v>
+        <v>8.952576938118167e-38</v>
       </c>
     </row>
     <row r="11">
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-24.12819646050123</v>
+        <v>-24.12819646050221</v>
       </c>
       <c r="C11" t="n">
-        <v>9.172956996443642e-06</v>
+        <v>9.172956996435064e-06</v>
       </c>
     </row>
     <row r="12">
@@ -596,10 +596,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>19.18711969874175</v>
+        <v>19.18711969878593</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6365942830608304</v>
+        <v>0.6365942830600557</v>
       </c>
     </row>
     <row r="13">
@@ -609,10 +609,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>627.2457154196238</v>
+        <v>627.2457154196256</v>
       </c>
       <c r="C13" t="n">
-        <v>3.19575627170246e-168</v>
+        <v>3.195756271691728e-168</v>
       </c>
     </row>
     <row r="14">
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.03508048373389888</v>
+        <v>-3.508048373385837</v>
       </c>
       <c r="C14" t="n">
-        <v>0.01987797146059721</v>
+        <v>0.01987797146067615</v>
       </c>
     </row>
     <row r="15">
@@ -635,10 +635,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-29.2033297163323</v>
+        <v>-29.20332971633036</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0003792713428641951</v>
+        <v>0.0003792713428645346</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-11.8781319259072</v>
+        <v>-11.87813192590676</v>
       </c>
       <c r="C16" t="n">
-        <v>0.003944260569429548</v>
+        <v>0.003944260569430867</v>
       </c>
     </row>
     <row r="17">
@@ -661,10 +661,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-513.0589418305859</v>
+        <v>-5.130589418304757</v>
       </c>
       <c r="C17" t="n">
-        <v>0.4729935687110129</v>
+        <v>0.4729935687111093</v>
       </c>
     </row>
     <row r="18">
@@ -674,10 +674,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-64.20886616460888</v>
+        <v>-0.6420886616447592</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8896327954994957</v>
+        <v>0.8896327954997227</v>
       </c>
     </row>
   </sheetData>
@@ -723,10 +723,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7732.449314975978</v>
+        <v>7732.449314973108</v>
       </c>
       <c r="C2" t="n">
-        <v>2.202577279895885e-18</v>
+        <v>2.202577279939583e-18</v>
       </c>
     </row>
     <row r="3">
@@ -736,10 +736,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-882.0306513410108</v>
+        <v>-882.0306513415339</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03677138295796557</v>
+        <v>0.03677138295796566</v>
       </c>
     </row>
     <row r="4">
@@ -749,10 +749,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-61.83079012296011</v>
+        <v>-61.83079012346261</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8529862537645033</v>
+        <v>0.8529862537633337</v>
       </c>
     </row>
     <row r="5">
@@ -762,10 +762,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>48.25696268248726</v>
+        <v>48.25696268179865</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7429677129779513</v>
+        <v>0.7429677129816348</v>
       </c>
     </row>
     <row r="6">
@@ -775,10 +775,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-82.38310906249281</v>
+        <v>-82.38310906255748</v>
       </c>
       <c r="C6" t="n">
-        <v>0.591964109825574</v>
+        <v>0.5919641098252851</v>
       </c>
     </row>
     <row r="7">
@@ -788,10 +788,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-93.47849379819439</v>
+        <v>-93.47849379825831</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5818051212328315</v>
+        <v>0.581805121232575</v>
       </c>
     </row>
     <row r="8">
@@ -801,10 +801,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>42.97024480789689</v>
+        <v>42.97024480785936</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7815337595774996</v>
+        <v>0.7815337595776863</v>
       </c>
     </row>
     <row r="9">
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-89.79285149997293</v>
+        <v>-89.79285150001328</v>
       </c>
       <c r="C9" t="n">
-        <v>0.08100753183306102</v>
+        <v>0.08100753183292368</v>
       </c>
     </row>
     <row r="10">
@@ -827,10 +827,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1517.877556164461</v>
+        <v>-1517.877556164491</v>
       </c>
       <c r="C10" t="n">
-        <v>2.948113182931465e-39</v>
+        <v>2.948113182924049e-39</v>
       </c>
     </row>
     <row r="11">
@@ -840,10 +840,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-23.82776578981745</v>
+        <v>-23.82776578983774</v>
       </c>
       <c r="C11" t="n">
-        <v>9.26299093403759e-06</v>
+        <v>9.262990933888272e-06</v>
       </c>
     </row>
     <row r="12">
@@ -853,10 +853,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>84.905083989994</v>
+        <v>84.90508399026039</v>
       </c>
       <c r="C12" t="n">
-        <v>0.035246005384075</v>
+        <v>0.03524600538350649</v>
       </c>
     </row>
     <row r="13">
@@ -866,10 +866,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>661.8197620620062</v>
+        <v>661.8197620622147</v>
       </c>
       <c r="C13" t="n">
-        <v>1.392363180030874e-190</v>
+        <v>1.392363179562975e-190</v>
       </c>
     </row>
     <row r="14">
@@ -879,10 +879,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.01724975637970899</v>
+        <v>-1.724975637932502</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2470325507317833</v>
+        <v>0.2470325507424816</v>
       </c>
     </row>
     <row r="15">
@@ -892,10 +892,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-11.41358320950618</v>
+        <v>-11.41358320950371</v>
       </c>
       <c r="C15" t="n">
-        <v>0.160291519214786</v>
+        <v>0.1602915192148762</v>
       </c>
     </row>
     <row r="16">
@@ -905,10 +905,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-4.099799814958907</v>
+        <v>-4.099799814958864</v>
       </c>
       <c r="C16" t="n">
-        <v>0.3166510464598234</v>
+        <v>0.3166510464598284</v>
       </c>
     </row>
     <row r="17">
@@ -918,10 +918,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>664.1846402219675</v>
+        <v>6.641846402221254</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3481196497574647</v>
+        <v>0.3481196497573513</v>
       </c>
     </row>
     <row r="18">
@@ -931,10 +931,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-103.447964076927</v>
+        <v>-1.034479640768009</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8218522647307569</v>
+        <v>0.8218522647309701</v>
       </c>
     </row>
   </sheetData>
@@ -980,10 +980,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10050.07534174587</v>
+        <v>10050.07534174401</v>
       </c>
       <c r="C2" t="n">
-        <v>3.178563015957251e-29</v>
+        <v>3.178563015997744e-29</v>
       </c>
     </row>
     <row r="3">
@@ -993,10 +993,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-816.1363053181653</v>
+        <v>-816.1363053184323</v>
       </c>
       <c r="C3" t="n">
-        <v>0.05902943717357151</v>
+        <v>0.05902943717357298</v>
       </c>
     </row>
     <row r="4">
@@ -1006,10 +1006,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>129.6058465989535</v>
+        <v>129.6058465987227</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7023521562388042</v>
+        <v>0.7023521562393193</v>
       </c>
     </row>
     <row r="5">
@@ -1019,10 +1019,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>138.1021832031338</v>
+        <v>138.1021832028234</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3468549982434996</v>
+        <v>0.3468549982447207</v>
       </c>
     </row>
     <row r="6">
@@ -1032,10 +1032,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-12.99149861145514</v>
+        <v>-12.99149861148061</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9332882004633856</v>
+        <v>0.9332882004632552</v>
       </c>
     </row>
     <row r="7">
@@ -1045,10 +1045,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1.698114916383645</v>
+        <v>-1.698114916419769</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9921177578167972</v>
+        <v>0.9921177578166296</v>
       </c>
     </row>
     <row r="8">
@@ -1058,10 +1058,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>60.81036502957494</v>
+        <v>60.81036502958681</v>
       </c>
       <c r="C8" t="n">
-        <v>0.697014258389886</v>
+        <v>0.6970142583898298</v>
       </c>
     </row>
     <row r="9">
@@ -1071,10 +1071,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-57.86619491677551</v>
+        <v>-57.86619491683024</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2646205798969445</v>
+        <v>0.2646205798964911</v>
       </c>
     </row>
     <row r="10">
@@ -1084,10 +1084,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1546.682329413866</v>
+        <v>-1546.682329413893</v>
       </c>
       <c r="C10" t="n">
-        <v>7.005195010562145e-40</v>
+        <v>7.005195010543623e-40</v>
       </c>
     </row>
     <row r="11">
@@ -1097,10 +1097,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-27.56995327232649</v>
+        <v>-27.56995327233849</v>
       </c>
       <c r="C11" t="n">
-        <v>4.143377277104367e-07</v>
+        <v>4.143377277059895e-07</v>
       </c>
     </row>
     <row r="12">
@@ -1110,10 +1110,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>88.05537315600941</v>
+        <v>88.05537315586614</v>
       </c>
       <c r="C12" t="n">
-        <v>0.03102200734595283</v>
+        <v>0.0310220073462247</v>
       </c>
     </row>
     <row r="13">
@@ -1123,10 +1123,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>612.335902660895</v>
+        <v>612.3359026610265</v>
       </c>
       <c r="C13" t="n">
-        <v>1.013729838625315e-159</v>
+        <v>1.013729838405812e-159</v>
       </c>
     </row>
     <row r="14">
@@ -1136,10 +1136,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.03259856153914699</v>
+        <v>-3.259856153914011</v>
       </c>
       <c r="C14" t="n">
-        <v>0.03077740222935685</v>
+        <v>0.03077740222928841</v>
       </c>
     </row>
     <row r="15">
@@ -1149,10 +1149,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-26.17189393052911</v>
+        <v>-26.17189393052723</v>
       </c>
       <c r="C15" t="n">
-        <v>0.00144227478049238</v>
+        <v>0.0014422747804935</v>
       </c>
     </row>
     <row r="16">
@@ -1162,7 +1162,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-10.67150249082589</v>
+        <v>-10.6715024908259</v>
       </c>
       <c r="C16" t="n">
         <v>0.01052310464572685</v>
@@ -1175,10 +1175,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-845.3806607134559</v>
+        <v>-8.453806607133403</v>
       </c>
       <c r="C17" t="n">
-        <v>0.239987435531263</v>
+        <v>0.2399874355313281</v>
       </c>
     </row>
     <row r="18">
@@ -1188,10 +1188,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-257.6099689883023</v>
+        <v>-2.576099689882175</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5798557501401972</v>
+        <v>0.5798557501403213</v>
       </c>
     </row>
   </sheetData>
@@ -1237,10 +1237,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9040.06757576056</v>
+        <v>9040.06757575916</v>
       </c>
       <c r="C2" t="n">
-        <v>8.110619193322076e-24</v>
+        <v>8.110619193399817e-24</v>
       </c>
     </row>
     <row r="3">
@@ -1250,10 +1250,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-885.5699969113309</v>
+        <v>-885.5699969110827</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03845420612375689</v>
+        <v>0.03845420612375775</v>
       </c>
     </row>
     <row r="4">
@@ -1263,10 +1263,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-60.80587721757382</v>
+        <v>-60.80587721714008</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8580940143672181</v>
+        <v>0.8580940143682114</v>
       </c>
     </row>
     <row r="5">
@@ -1276,10 +1276,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>232.9149274649806</v>
+        <v>232.9149274654571</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1131353226737865</v>
+        <v>0.1131353226729048</v>
       </c>
     </row>
     <row r="6">
@@ -1289,10 +1289,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>23.64609030566754</v>
+        <v>23.64609030564014</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8791071364938763</v>
+        <v>0.8791071364940155</v>
       </c>
     </row>
     <row r="7">
@@ -1302,10 +1302,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>146.1490533578529</v>
+        <v>146.14905335782</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3930553783695176</v>
+        <v>0.3930553783696235</v>
       </c>
     </row>
     <row r="8">
@@ -1315,10 +1315,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-30.25907431418092</v>
+        <v>-30.25907431422577</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8466106986022875</v>
+        <v>0.8466106986020636</v>
       </c>
     </row>
     <row r="9">
@@ -1328,10 +1328,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-54.11520308977899</v>
+        <v>-54.1152030898046</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2966986552441228</v>
+        <v>0.2966986552438929</v>
       </c>
     </row>
     <row r="10">
@@ -1341,10 +1341,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1531.421931199962</v>
+        <v>-1531.421931199943</v>
       </c>
       <c r="C10" t="n">
-        <v>3.752401292758878e-39</v>
+        <v>3.752401292765208e-39</v>
       </c>
     </row>
     <row r="11">
@@ -1354,10 +1354,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-26.83583710159705</v>
+        <v>-26.83583710159793</v>
       </c>
       <c r="C11" t="n">
-        <v>8.541474091691199e-07</v>
+        <v>8.541474091682866e-07</v>
       </c>
     </row>
     <row r="12">
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>76.45970227720288</v>
+        <v>76.45970227717005</v>
       </c>
       <c r="C12" t="n">
-        <v>0.05940102328599818</v>
+        <v>0.05940102328610694</v>
       </c>
     </row>
     <row r="13">
@@ -1380,10 +1380,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>643.6461734915872</v>
+        <v>643.6461734915774</v>
       </c>
       <c r="C13" t="n">
-        <v>1.17488053097139e-175</v>
+        <v>1.174880530990714e-175</v>
       </c>
     </row>
     <row r="14">
@@ -1393,10 +1393,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.02403309760658084</v>
+        <v>-2.403309760662868</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1110392227167595</v>
+        <v>0.1110392227158323</v>
       </c>
     </row>
     <row r="15">
@@ -1406,10 +1406,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-19.06949110415725</v>
+        <v>-19.06949110415525</v>
       </c>
       <c r="C15" t="n">
-        <v>0.02001263581302537</v>
+        <v>0.02001263581303826</v>
       </c>
     </row>
     <row r="16">
@@ -1419,10 +1419,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-9.78555045071122</v>
+        <v>-9.785550450711</v>
       </c>
       <c r="C16" t="n">
-        <v>0.01890993973041933</v>
+        <v>0.01890993973042168</v>
       </c>
     </row>
     <row r="17">
@@ -1432,10 +1432,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-25.72936600119402</v>
+        <v>-0.2572936600103111</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9715574645174281</v>
+        <v>0.9715574645176082</v>
       </c>
     </row>
     <row r="18">
@@ -1445,10 +1445,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-212.4449591572456</v>
+        <v>-2.124449591571097</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6475524287193709</v>
+        <v>0.6475524287195801</v>
       </c>
     </row>
   </sheetData>
@@ -1494,10 +1494,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9649.760331214127</v>
+        <v>9649.760331212447</v>
       </c>
       <c r="C2" t="n">
-        <v>2.827428927758599e-27</v>
+        <v>2.827428927788359e-27</v>
       </c>
     </row>
     <row r="3">
@@ -1507,10 +1507,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-705.7052570855233</v>
+        <v>-705.7052570855553</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1067651898030855</v>
+        <v>0.1067651898030909</v>
       </c>
     </row>
     <row r="4">
@@ -1520,10 +1520,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-242.6681197408238</v>
+        <v>-242.668119740785</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4756520783641389</v>
+        <v>0.4756520783642064</v>
       </c>
     </row>
     <row r="5">
@@ -1533,10 +1533,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>47.86139741800889</v>
+        <v>47.86139741795398</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7459674253449657</v>
+        <v>0.7459674253452615</v>
       </c>
     </row>
     <row r="6">
@@ -1546,10 +1546,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9.286977731948468</v>
+        <v>9.286977731939544</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9524386349766496</v>
+        <v>0.9524386349766951</v>
       </c>
     </row>
     <row r="7">
@@ -1559,10 +1559,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>60.18551357615425</v>
+        <v>60.1855135761279</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7253236265267173</v>
+        <v>0.7253236265268337</v>
       </c>
     </row>
     <row r="8">
@@ -1572,10 +1572,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>124.3767289044887</v>
+        <v>124.3767289044787</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4277629623809431</v>
+        <v>0.4277629623809819</v>
       </c>
     </row>
     <row r="9">
@@ -1585,10 +1585,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-64.93780253026188</v>
+        <v>-64.93780253033549</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2117813285507618</v>
+        <v>0.2117813285502408</v>
       </c>
     </row>
     <row r="10">
@@ -1598,10 +1598,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1666.230938033359</v>
+        <v>-1666.230938033369</v>
       </c>
       <c r="C10" t="n">
-        <v>9.224008586491552e-46</v>
+        <v>9.224008586480881e-46</v>
       </c>
     </row>
     <row r="11">
@@ -1611,10 +1611,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-27.18875475349574</v>
+        <v>-27.18875475349736</v>
       </c>
       <c r="C11" t="n">
-        <v>6.699624004638305e-07</v>
+        <v>6.699624004627093e-07</v>
       </c>
     </row>
     <row r="12">
@@ -1624,10 +1624,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>44.54585824420506</v>
+        <v>44.54585824438769</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2771725918951349</v>
+        <v>0.2771725918931792</v>
       </c>
     </row>
     <row r="13">
@@ -1637,10 +1637,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>630.0360196075681</v>
+        <v>630.0360196076472</v>
       </c>
       <c r="C13" t="n">
-        <v>2.807314968530156e-168</v>
+        <v>2.807314968165844e-168</v>
       </c>
     </row>
     <row r="14">
@@ -1650,10 +1650,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.03286779463322551</v>
+        <v>-3.286779463306972</v>
       </c>
       <c r="C14" t="n">
-        <v>0.02951634245128326</v>
+        <v>0.02951634245211169</v>
       </c>
     </row>
     <row r="15">
@@ -1663,10 +1663,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-21.94364331400688</v>
+        <v>-21.94364331400464</v>
       </c>
       <c r="C15" t="n">
-        <v>0.007337961413762259</v>
+        <v>0.007337961413768146</v>
       </c>
     </row>
     <row r="16">
@@ -1676,10 +1676,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-10.4168542461977</v>
+        <v>-10.41685424619729</v>
       </c>
       <c r="C16" t="n">
-        <v>0.01140663939078883</v>
+        <v>0.01140663939079206</v>
       </c>
     </row>
     <row r="17">
@@ -1689,10 +1689,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-28.9992710697623</v>
+        <v>-0.2899927106960614</v>
       </c>
       <c r="C17" t="n">
-        <v>0.96783355408489</v>
+        <v>0.9678335540850633</v>
       </c>
     </row>
     <row r="18">
@@ -1702,10 +1702,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3.304450575928513</v>
+        <v>0.0330445057604507</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9943324346623027</v>
+        <v>0.9943324346621027</v>
       </c>
     </row>
   </sheetData>
@@ -1751,10 +1751,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10044.88994830362</v>
+        <v>10044.88994830369</v>
       </c>
       <c r="C2" t="n">
-        <v>1.227855347897104e-29</v>
+        <v>1.227855347896682e-29</v>
       </c>
     </row>
     <row r="3">
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-738.721218772027</v>
+        <v>-738.7212187720828</v>
       </c>
       <c r="C3" t="n">
-        <v>0.08796694635491192</v>
+        <v>0.08796694635491419</v>
       </c>
     </row>
     <row r="4">
@@ -1777,10 +1777,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-131.0761224405416</v>
+        <v>-131.0761224407589</v>
       </c>
       <c r="C4" t="n">
-        <v>0.696734642912199</v>
+        <v>0.6967346429117347</v>
       </c>
     </row>
     <row r="5">
@@ -1790,10 +1790,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>144.1698493926883</v>
+        <v>144.1698493926124</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3250435235605322</v>
+        <v>0.3250435235608254</v>
       </c>
     </row>
     <row r="6">
@@ -1803,10 +1803,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.070038564964506</v>
+        <v>-2.070038565007252</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9892628132584256</v>
+        <v>0.989262813258204</v>
       </c>
     </row>
     <row r="7">
@@ -1816,10 +1816,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-36.27614352911405</v>
+        <v>-36.27614352914671</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8311577589429172</v>
+        <v>0.8311577589427677</v>
       </c>
     </row>
     <row r="8">
@@ -1829,10 +1829,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>47.11763628728494</v>
+        <v>47.11763628725062</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7607494025349165</v>
+        <v>0.7607494025350855</v>
       </c>
     </row>
     <row r="9">
@@ -1842,10 +1842,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-48.75894830418842</v>
+        <v>-48.75894830428376</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3410557739476754</v>
+        <v>0.3410557739467246</v>
       </c>
     </row>
     <row r="10">
@@ -1855,10 +1855,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1599.39664715551</v>
+        <v>-1599.396647155523</v>
       </c>
       <c r="C10" t="n">
-        <v>2.86276460064539e-43</v>
+        <v>2.86276460064081e-43</v>
       </c>
     </row>
     <row r="11">
@@ -1868,10 +1868,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-21.42085051031933</v>
+        <v>-21.42085051032649</v>
       </c>
       <c r="C11" t="n">
-        <v>7.574191721627351e-05</v>
+        <v>7.574191721587478e-05</v>
       </c>
     </row>
     <row r="12">
@@ -1881,10 +1881,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>48.74582193484031</v>
+        <v>48.74582193504817</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2256165281538367</v>
+        <v>0.2256165281518807</v>
       </c>
     </row>
     <row r="13">
@@ -1894,10 +1894,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>613.279402693904</v>
+        <v>613.2794026940012</v>
       </c>
       <c r="C13" t="n">
-        <v>2.44436368260863e-164</v>
+        <v>2.4443636822128e-164</v>
       </c>
     </row>
     <row r="14">
@@ -1907,10 +1907,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.0341878446162899</v>
+        <v>-3.418784461613638</v>
       </c>
       <c r="C14" t="n">
-        <v>0.02144990514781848</v>
+        <v>0.02144990514835639</v>
       </c>
     </row>
     <row r="15">
@@ -1920,10 +1920,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-30.72077567954001</v>
+        <v>-30.72077567953734</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0001522430579189058</v>
+        <v>0.0001522430579191059</v>
       </c>
     </row>
     <row r="16">
@@ -1933,10 +1933,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-11.51986851181893</v>
+        <v>-11.51986851181875</v>
       </c>
       <c r="C16" t="n">
-        <v>0.004931467659570306</v>
+        <v>0.004931467659570974</v>
       </c>
     </row>
     <row r="17">
@@ -1946,10 +1946,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-1006.310451306185</v>
+        <v>-10.06310451306015</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1569429463135283</v>
+        <v>0.1569429463135991</v>
       </c>
     </row>
     <row r="18">
@@ -1959,10 +1959,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>102.7444094264671</v>
+        <v>1.027444094266372</v>
       </c>
       <c r="C18" t="n">
-        <v>0.82315574895594</v>
+        <v>0.8231557489556517</v>
       </c>
     </row>
   </sheetData>
@@ -2008,10 +2008,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9618.562860669146</v>
+        <v>9618.562860671189</v>
       </c>
       <c r="C2" t="n">
-        <v>3.155489424220817e-27</v>
+        <v>3.155489424172906e-27</v>
       </c>
     </row>
     <row r="3">
@@ -2021,10 +2021,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-863.2391554210651</v>
+        <v>-863.239155420601</v>
       </c>
       <c r="C3" t="n">
-        <v>0.04505090441730227</v>
+        <v>0.0450509044173028</v>
       </c>
     </row>
     <row r="4">
@@ -2034,10 +2034,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-207.4201216878564</v>
+        <v>-207.420121687381</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5397417494525047</v>
+        <v>0.5397417494534043</v>
       </c>
     </row>
     <row r="5">
@@ -2047,10 +2047,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>42.80939908712003</v>
+        <v>42.80939908776736</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7710167958456612</v>
+        <v>0.7710167958421722</v>
       </c>
     </row>
     <row r="6">
@@ -2060,10 +2060,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-114.3353816888084</v>
+        <v>-114.3353816888116</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4588883296055627</v>
+        <v>0.4588883296055492</v>
       </c>
     </row>
     <row r="7">
@@ -2073,10 +2073,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-47.91176761572945</v>
+        <v>-47.91176761572558</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7794094957187452</v>
+        <v>0.7794094957187627</v>
       </c>
     </row>
     <row r="8">
@@ -2086,10 +2086,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.75627517532287</v>
+        <v>4.756275175345493</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9756007652993285</v>
+        <v>0.9756007652992124</v>
       </c>
     </row>
     <row r="9">
@@ -2099,10 +2099,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-54.35955506158256</v>
+        <v>-54.35955506160734</v>
       </c>
       <c r="C9" t="n">
-        <v>0.292715114656913</v>
+        <v>0.2927151146566905</v>
       </c>
     </row>
     <row r="10">
@@ -2112,10 +2112,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1619.383021763124</v>
+        <v>-1619.38302176309</v>
       </c>
       <c r="C10" t="n">
-        <v>7.359983137803939e-44</v>
+        <v>7.359983137828435e-44</v>
       </c>
     </row>
     <row r="11">
@@ -2125,10 +2125,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-26.37402317499157</v>
+        <v>-26.37402317500978</v>
       </c>
       <c r="C11" t="n">
-        <v>1.29251583871767e-06</v>
+        <v>1.292515838697395e-06</v>
       </c>
     </row>
     <row r="12">
@@ -2138,10 +2138,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>34.04830063162886</v>
+        <v>34.04830063155975</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4029719939434727</v>
+        <v>0.4029719939444245</v>
       </c>
     </row>
     <row r="13">
@@ -2151,10 +2151,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>617.6772730884628</v>
+        <v>617.6772730884736</v>
       </c>
       <c r="C13" t="n">
-        <v>3.002040141222932e-164</v>
+        <v>3.002040141172524e-164</v>
       </c>
     </row>
     <row r="14">
@@ -2164,10 +2164,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.04795845528385886</v>
+        <v>-4.795845528377365</v>
       </c>
       <c r="C14" t="n">
-        <v>0.001423468251647305</v>
+        <v>0.001423468251667738</v>
       </c>
     </row>
     <row r="15">
@@ -2177,10 +2177,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-22.44715198800183</v>
+        <v>-22.44715198800015</v>
       </c>
       <c r="C15" t="n">
-        <v>0.005990983724834875</v>
+        <v>0.005990983724838686</v>
       </c>
     </row>
     <row r="16">
@@ -2190,10 +2190,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-10.20245044717161</v>
+        <v>-10.20245044717176</v>
       </c>
       <c r="C16" t="n">
-        <v>0.01299273133691039</v>
+        <v>0.01299273133690945</v>
       </c>
     </row>
     <row r="17">
@@ -2203,10 +2203,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>332.2437153492668</v>
+        <v>3.322437153493953</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6404658408663001</v>
+        <v>0.6404658408661715</v>
       </c>
     </row>
     <row r="18">
@@ -2216,10 +2216,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>464.0406685726794</v>
+        <v>4.640406685728138</v>
       </c>
       <c r="C18" t="n">
-        <v>0.315528925556943</v>
+        <v>0.3155289255568016</v>
       </c>
     </row>
   </sheetData>
@@ -2265,10 +2265,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10016.89915387877</v>
+        <v>10016.89915387856</v>
       </c>
       <c r="C2" t="n">
-        <v>1.604286970694241e-29</v>
+        <v>1.604286970697941e-29</v>
       </c>
     </row>
     <row r="3">
@@ -2278,10 +2278,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1381.218207015401</v>
+        <v>-1381.218207015174</v>
       </c>
       <c r="C3" t="n">
-        <v>0.001298133360150641</v>
+        <v>0.001298133360150587</v>
       </c>
     </row>
     <row r="4">
@@ -2291,10 +2291,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-245.3179019781648</v>
+        <v>-245.3179019781369</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4680170770548551</v>
+        <v>0.4680170770549049</v>
       </c>
     </row>
     <row r="5">
@@ -2304,10 +2304,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>32.39476246573599</v>
+        <v>32.39476246617664</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8258902687376852</v>
+        <v>0.8258902687353131</v>
       </c>
     </row>
     <row r="6">
@@ -2317,10 +2317,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>33.2510825383809</v>
+        <v>33.25108253839383</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8295332510702164</v>
+        <v>0.8295332510701503</v>
       </c>
     </row>
     <row r="7">
@@ -2330,10 +2330,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>61.70949354857262</v>
+        <v>61.70949354858544</v>
       </c>
       <c r="C7" t="n">
-        <v>0.717429148327377</v>
+        <v>0.7174291483273223</v>
       </c>
     </row>
     <row r="8">
@@ -2343,10 +2343,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>127.2892066116435</v>
+        <v>127.2892066116144</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4133592944810984</v>
+        <v>0.4133592944812041</v>
       </c>
     </row>
     <row r="9">
@@ -2356,10 +2356,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-17.38627914338826</v>
+        <v>-17.3862791434493</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7366841913513731</v>
+        <v>0.7366841913504818</v>
       </c>
     </row>
     <row r="10">
@@ -2369,10 +2369,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1645.113075479164</v>
+        <v>-1645.113075479187</v>
       </c>
       <c r="C10" t="n">
-        <v>2.643730161041844e-45</v>
+        <v>2.64373016103637e-45</v>
       </c>
     </row>
     <row r="11">
@@ -2382,10 +2382,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-27.93728232047204</v>
+        <v>-27.93728232048516</v>
       </c>
       <c r="C11" t="n">
-        <v>2.42296549343704e-07</v>
+        <v>2.422965493407169e-07</v>
       </c>
     </row>
     <row r="12">
@@ -2395,10 +2395,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>71.89755037505226</v>
+        <v>71.89755037516159</v>
       </c>
       <c r="C12" t="n">
-        <v>0.07674255856255442</v>
+        <v>0.07674255856210857</v>
       </c>
     </row>
     <row r="13">
@@ -2408,10 +2408,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>651.8213864880466</v>
+        <v>651.8213864881807</v>
       </c>
       <c r="C13" t="n">
-        <v>1.705171843213496e-181</v>
+        <v>1.705171842890434e-181</v>
       </c>
     </row>
     <row r="14">
@@ -2421,10 +2421,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.02177375264793277</v>
+        <v>-2.17737526478</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1474335919775913</v>
+        <v>0.1474335919801469</v>
       </c>
     </row>
     <row r="15">
@@ -2434,10 +2434,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-30.11367273535507</v>
+        <v>-30.11367273535302</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0002178025413296304</v>
+        <v>0.0002178025413298453</v>
       </c>
     </row>
     <row r="16">
@@ -2447,10 +2447,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-13.32919845186251</v>
+        <v>-13.32919845186267</v>
       </c>
       <c r="C16" t="n">
-        <v>0.001120924794959</v>
+        <v>0.001120924794958875</v>
       </c>
     </row>
     <row r="17">
@@ -2460,10 +2460,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-468.1626660226914</v>
+        <v>-4.681626660225724</v>
       </c>
       <c r="C17" t="n">
-        <v>0.5144891483158044</v>
+        <v>0.514489148315912</v>
       </c>
     </row>
     <row r="18">
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-12.52946472083812</v>
+        <v>-0.1252946472070962</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9784375567516312</v>
+        <v>0.9784375567518523</v>
       </c>
     </row>
   </sheetData>
@@ -2522,10 +2522,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9605.456633293164</v>
+        <v>9605.456633294109</v>
       </c>
       <c r="C2" t="n">
-        <v>3.108645970861972e-27</v>
+        <v>3.108645970846403e-27</v>
       </c>
     </row>
     <row r="3">
@@ -2535,10 +2535,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-597.792651553737</v>
+        <v>-597.792651554216</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1706052023958634</v>
+        <v>0.1706052023958716</v>
       </c>
     </row>
     <row r="4">
@@ -2548,10 +2548,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-158.8443230698214</v>
+        <v>-158.8443230702438</v>
       </c>
       <c r="C4" t="n">
-        <v>0.642019210520165</v>
+        <v>0.6420192105193117</v>
       </c>
     </row>
     <row r="5">
@@ -2561,10 +2561,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>178.1033363471927</v>
+        <v>178.1033363465491</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2241876217076658</v>
+        <v>0.2241876217097175</v>
       </c>
     </row>
     <row r="6">
@@ -2574,10 +2574,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-100.4674168214651</v>
+        <v>-100.4674168214692</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5153842341814833</v>
+        <v>0.5153842341814651</v>
       </c>
     </row>
     <row r="7">
@@ -2587,10 +2587,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-79.75691258362352</v>
+        <v>-79.75691258362735</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6402707235700484</v>
+        <v>0.6402707235700341</v>
       </c>
     </row>
     <row r="8">
@@ -2600,10 +2600,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>26.75480278265519</v>
+        <v>26.75480278266348</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8633922495299095</v>
+        <v>0.8633922495298674</v>
       </c>
     </row>
     <row r="9">
@@ -2613,10 +2613,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-29.39450431960421</v>
+        <v>-29.39450431960046</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5694015070212665</v>
+        <v>0.5694015070213154</v>
       </c>
     </row>
     <row r="10">
@@ -2626,10 +2626,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1694.483396398804</v>
+        <v>-1694.483396398799</v>
       </c>
       <c r="C10" t="n">
-        <v>6.382321535722494e-48</v>
+        <v>6.382321535727415e-48</v>
       </c>
     </row>
     <row r="11">
@@ -2639,10 +2639,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-29.93581493898989</v>
+        <v>-29.93581493899486</v>
       </c>
       <c r="C11" t="n">
-        <v>4.032647863642151e-08</v>
+        <v>4.0326478636233e-08</v>
       </c>
     </row>
     <row r="12">
@@ -2652,10 +2652,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>95.57301069201857</v>
+        <v>95.57301069204487</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01800911659583295</v>
+        <v>0.0180091165958021</v>
       </c>
     </row>
     <row r="13">
@@ -2665,10 +2665,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>642.7247777651955</v>
+        <v>642.7247777652042</v>
       </c>
       <c r="C13" t="n">
-        <v>3.871759778642571e-177</v>
+        <v>3.8717597785747e-177</v>
       </c>
     </row>
     <row r="14">
@@ -2678,10 +2678,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.03482799135033152</v>
+        <v>-3.482799135015334</v>
       </c>
       <c r="C14" t="n">
-        <v>0.020141224422034</v>
+        <v>0.02014122442263116</v>
       </c>
     </row>
     <row r="15">
@@ -2691,10 +2691,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-25.52312558903203</v>
+        <v>-25.52312558903024</v>
       </c>
       <c r="C15" t="n">
-        <v>0.001830004377756789</v>
+        <v>0.001830004377758123</v>
       </c>
     </row>
     <row r="16">
@@ -2704,10 +2704,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-11.1915188958378</v>
+        <v>-11.1915188958376</v>
       </c>
       <c r="C16" t="n">
-        <v>0.006277543390352535</v>
+        <v>0.00627754339035344</v>
       </c>
     </row>
     <row r="17">
@@ -2717,10 +2717,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>174.7546141859127</v>
+        <v>1.747546141860629</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8066160651516197</v>
+        <v>0.8066160651514575</v>
       </c>
     </row>
     <row r="18">
@@ -2730,10 +2730,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>203.0668496022126</v>
+        <v>2.030668496023607</v>
       </c>
       <c r="C18" t="n">
-        <v>0.660377618880128</v>
+        <v>0.6603776188798957</v>
       </c>
     </row>
   </sheetData>
